--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -44,7 +44,37 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 9:16 AM</t>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>TORSERETIC 100MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>261.00</t>
+  </si>
+  <si>
+    <t>86.1300</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>Wednesday, 20 August, 2025 9:38 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +284,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +296,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,56 +704,103 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>16</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>18</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>20</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>11</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>12</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>13</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="P9" s="13">
+        <v>111.13</v>
+      </c>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" ht="16.5" customHeight="1">
+      <c t="s" r="A10" s="14">
+        <v>21</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c t="s" r="G10" s="15">
+        <v>22</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c t="s" r="K10" s="17">
+        <v>23</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="22">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -737,10 +814,15 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K10:Q10"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -74,7 +74,7 @@
     <t>0:1</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 9:38 AM</t>
+    <t>Wednesday, 20 August, 2025 9:39 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>BABETONE SYRUP SUGAR FREE 120 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>DEPO-PEN 1.2 MIU VIAL.</t>
   </si>
   <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>25.00</t>
   </si>
   <si>
     <t>25.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>TORSERETIC 100MG 30 TABS.</t>
   </si>
   <si>
@@ -74,7 +86,7 @@
     <t>0:1</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 9:39 AM</t>
+    <t>Wednesday, 20 August, 2025 10:16 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -748,7 +760,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -758,49 +770,82 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>111.13</v>
-      </c>
-      <c r="Q9" s="13"/>
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>16</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>22</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>24</v>
+      </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
-        <v>21</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
-        <v>22</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
-        <v>23</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="P10" s="13">
+        <v>146.13</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
+        <v>25</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
+        <v>26</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
+        <v>27</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -819,10 +864,15 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -86,7 +86,7 @@
     <t>0:1</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 10:16 AM</t>
+    <t>Wednesday, 20 August, 2025 10:17 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -74,6 +74,15 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
     <t>TORSERETIC 100MG 30 TABS.</t>
   </si>
   <si>
@@ -86,7 +95,19 @@
     <t>0:1</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 10:17 AM</t>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 20 August, 2025 10:26 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -793,7 +814,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -810,42 +831,108 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>146.13</v>
-      </c>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>16</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
         <v>25</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
         <v>26</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
+      <c t="s" r="Q10" s="12">
         <v>27</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>28</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>12</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>29</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>30</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>260.13</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>32</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>33</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>34</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -869,10 +956,20 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -107,7 +107,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 10:26 AM</t>
+    <t>Wednesday, 20 August, 2025 10:38 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -83,6 +83,15 @@
     <t>99.0000</t>
   </si>
   <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>TORSERETIC 100MG 30 TABS.</t>
   </si>
   <si>
@@ -95,19 +104,52 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>VOLTAREN 50MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>الويز كبير بالاجنحه</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>حلق</t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
     <t>15.0000</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 10:38 AM</t>
+    <t>Wednesday, 20 August, 2025 10:40 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -847,7 +889,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -864,7 +906,7 @@
         <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -873,66 +915,198 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>31</v>
       </c>
-      <c t="s" r="Q11" s="12">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>30</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>32</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>34</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>35</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>36</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>37</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>260.13</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
-        <v>32</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
-        <v>33</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
-        <v>34</v>
-      </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>39</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>40</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>36</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>41</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>43</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>12</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>36</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>44</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>392.13</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>46</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>47</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>48</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -966,10 +1140,30 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -149,7 +149,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 10:40 AM</t>
+    <t>Wednesday, 20 August, 2025 10:53 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -128,6 +128,15 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>جل رويال</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>حلق</t>
   </si>
   <si>
@@ -140,6 +149,9 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>شفاط ثدي الجو</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -149,7 +161,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 10:53 AM</t>
+    <t>Wednesday, 20 August, 2025 10:55 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1021,7 +1033,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1031,11 +1043,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1047,14 +1059,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1075,38 +1087,104 @@
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>392.13</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
         <v>46</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>16</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>36</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>19</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>47</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>12</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>36</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
         <v>48</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>457.13</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>50</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>51</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>52</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1160,10 +1238,20 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -161,7 +161,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 10:55 AM</t>
+    <t>Wednesday, 20 August, 2025 10:58 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>CONGESTAL SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>DEPO-PEN 1.2 MIU VIAL.</t>
   </si>
   <si>
@@ -83,6 +95,21 @@
     <t>99.0000</t>
   </si>
   <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>KETOLAC 10MG 20 TAB</t>
   </si>
   <si>
@@ -101,9 +128,6 @@
     <t>86.1300</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>VOLTAREN 50MG 20 TAB.</t>
   </si>
   <si>
@@ -161,7 +185,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 10:58 AM</t>
+    <t>Wednesday, 20 August, 2025 10:59 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -868,7 +892,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -878,11 +902,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -894,7 +918,7 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -911,11 +935,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -927,14 +951,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -944,14 +968,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -960,14 +984,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -977,14 +1001,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -993,20 +1017,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1017,7 +1041,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1033,13 +1057,13 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1050,7 +1074,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1072,15 +1096,15 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1092,28 +1116,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1125,66 +1149,132 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>457.13</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
-        <v>50</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
-        <v>51</v>
-      </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
-        <v>52</v>
-      </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>54</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>16</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>44</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>23</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>55</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>12</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>44</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>56</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>528.85000000000002</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>58</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>59</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>60</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1248,10 +1338,20 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -185,7 +185,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 10:59 AM</t>
+    <t>Wednesday, 20 August, 2025 11:01 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CONGESTAL SYRUP 120 ML</t>
   </si>
   <si>
@@ -77,15 +92,9 @@
     <t>DEPO-PEN 1.2 MIU VIAL.</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>25.00</t>
   </si>
   <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -107,9 +116,6 @@
     <t>27.7200</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>KETOLAC 10MG 20 TAB</t>
   </si>
   <si>
@@ -185,7 +191,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 11:01 AM</t>
+    <t>Wednesday, 20 August, 2025 11:22 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -876,7 +882,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -885,14 +891,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -902,11 +908,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -918,14 +924,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -935,11 +941,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -958,7 +964,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -968,14 +974,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -984,14 +990,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1001,14 +1007,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1017,14 +1023,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1034,14 +1040,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1050,14 +1056,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1067,14 +1073,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1083,31 +1089,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1116,28 +1122,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1149,28 +1155,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1182,28 +1188,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1215,66 +1221,99 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>528.85000000000002</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>57</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>12</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>46</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
         <v>58</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
         <v>59</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
+      <c t="s" r="Q20" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>553.85000000000002</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
         <v>60</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>61</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>62</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1348,10 +1387,15 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -191,7 +191,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 11:22 AM</t>
+    <t>Wednesday, 20 August, 2025 11:37 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -125,6 +125,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>TORSERETIC 100MG 30 TABS.</t>
   </si>
   <si>
@@ -182,16 +191,31 @@
     <t>شفاط ثدي الجو</t>
   </si>
   <si>
+    <t>فرشاه فوكس</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>Wednesday, 20 August, 2025 11:37 AM</t>
+    <t>Wednesday, 20 August, 2025 12:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1063,7 +1087,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1080,7 +1104,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1096,7 +1120,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1129,24 +1153,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1155,20 +1179,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1195,21 +1219,21 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1221,28 +1245,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1254,66 +1278,165 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>553.85000000000002</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>60</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
         <v>61</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>49</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
         <v>62</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>64</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>18</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>49</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>65</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>67</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>12</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>49</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>65</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>621.85000000000002</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>68</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>69</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>70</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1392,10 +1515,25 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -215,7 +215,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 12:04 PM</t>
+    <t>Wednesday, 20 August, 2025 12:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -95,6 +95,27 @@
     <t>25.00</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -146,12 +167,21 @@
     <t>VOLTAREN 50MG 20 TAB.</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>الويز كبير بالاجنحه</t>
   </si>
   <si>
@@ -188,6 +218,24 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>شفاط ثدي الجو</t>
   </si>
   <si>
@@ -215,7 +263,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 12:07 PM</t>
+    <t>Wednesday, 20 August, 2025 2:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -988,7 +1036,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -998,14 +1046,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1014,14 +1062,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1038,7 +1086,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1087,7 +1135,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1097,14 +1145,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1113,14 +1161,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1130,14 +1178,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1146,14 +1194,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1163,14 +1211,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1179,31 +1227,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1212,31 +1260,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1245,31 +1293,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1278,28 +1326,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1311,28 +1359,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1344,28 +1392,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1377,7 +1425,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1390,53 +1438,218 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>621.85000000000002</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
-        <v>68</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
-        <v>69</v>
-      </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
-        <v>70</v>
-      </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>72</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>12</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>59</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>73</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>75</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>16</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>59</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>27</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>76</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>77</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>59</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>78</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>80</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>18</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>59</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>81</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>83</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>12</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>59</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>81</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>704.67999999999995</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
+        <v>84</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>85</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>86</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1530,10 +1743,35 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -263,7 +263,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 2:01 PM</t>
+    <t>Wednesday, 20 August, 2025 2:14 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -123,6 +123,15 @@
   </si>
   <si>
     <t>99.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
   </si>
   <si>
     <t>GAST-REG 200 MG 30 TABS.</t>
@@ -1135,7 +1144,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1145,14 +1154,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1161,14 +1170,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1185,7 +1194,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1201,7 +1210,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1234,7 +1243,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1251,7 +1260,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1267,7 +1276,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1277,11 +1286,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1293,14 +1302,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1310,11 +1319,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1326,31 +1335,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1359,20 +1368,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1399,21 +1408,21 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1425,20 +1434,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1471,7 +1480,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1498,21 +1507,21 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1524,28 +1533,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1557,20 +1566,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1597,59 +1606,92 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>704.67999999999995</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>86</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>12</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>62</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
         <v>84</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
         <v>85</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
-        <v>86</v>
-      </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+      <c t="s" r="Q29" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>726.67999999999995</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>87</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>88</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>89</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1768,10 +1810,15 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -248,18 +248,24 @@
     <t>شفاط ثدي الجو</t>
   </si>
   <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>فرشاه فوكس</t>
   </si>
   <si>
     <t>7:0</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
   </si>
   <si>
@@ -272,7 +278,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 2:14 PM</t>
+    <t>Wednesday, 20 August, 2025 2:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1606,7 +1612,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1616,11 +1622,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1632,14 +1638,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1649,49 +1655,82 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>726.67999999999995</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>88</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>12</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>62</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>86</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
         <v>87</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
-        <v>88</v>
-      </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
+      <c t="s" r="Q30" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>756.67999999999995</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
         <v>89</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>90</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>91</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1815,10 +1854,15 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -278,7 +278,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 2:15 PM</t>
+    <t>Wednesday, 20 August, 2025 2:19 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -62,6 +62,15 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>BRONCHICUM ELIXIR 100 ML</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
@@ -125,15 +134,18 @@
     <t>99.0000</t>
   </si>
   <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% OINT. 15 GM</t>
   </si>
   <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
     <t>GAST-REG 200 MG 30 TABS.</t>
   </si>
   <si>
@@ -155,6 +167,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -209,9 +230,6 @@
     <t>جل رويال</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
     <t>40.0000</t>
   </si>
   <si>
@@ -257,15 +275,15 @@
     <t>30.00</t>
   </si>
   <si>
+    <t>فرشاه فوكس</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
     <t>30.0000</t>
   </si>
   <si>
-    <t>فرشاه فوكس</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
   </si>
   <si>
@@ -278,7 +296,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 2:19 PM</t>
+    <t>Wednesday, 20 August, 2025 3:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -952,7 +970,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -962,14 +980,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -978,14 +996,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -995,14 +1013,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1011,14 +1029,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1032,7 +1050,7 @@
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1044,14 +1062,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1065,10 +1083,10 @@
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1077,14 +1095,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1101,7 +1119,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1117,7 +1135,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1150,7 +1168,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1183,7 +1201,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1193,14 +1211,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1209,14 +1227,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1226,11 +1244,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1242,14 +1260,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1259,14 +1277,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1275,14 +1293,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1292,14 +1310,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1308,14 +1326,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1325,14 +1343,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1341,14 +1359,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1358,14 +1376,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1374,31 +1392,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1407,31 +1425,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1440,31 +1458,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1473,28 +1491,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1506,7 +1524,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1519,15 +1537,15 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1539,28 +1557,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1572,28 +1590,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1605,28 +1623,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1638,28 +1656,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1671,66 +1689,165 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>88</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>89</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>69</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
         <v>87</v>
       </c>
-      <c t="s" r="Q30" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>756.67999999999995</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
-        <v>89</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
         <v>90</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
+      <c t="s" r="Q31" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>91</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>21</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>69</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>92</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>94</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>12</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>69</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>92</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>889.67999999999995</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>95</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>96</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>97</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1859,10 +1976,25 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -167,6 +167,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>LEVOTAVIN 750 MG 7 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -296,7 +305,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 3:13 PM</t>
+    <t>Wednesday, 20 August, 2025 4:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1333,7 +1342,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1350,7 +1359,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1366,7 +1375,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1383,7 +1392,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1399,7 +1408,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1416,7 +1425,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1432,7 +1441,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1442,11 +1451,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>24</v>
@@ -1458,14 +1467,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1475,11 +1484,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>24</v>
@@ -1491,31 +1500,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1524,28 +1533,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1557,28 +1566,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1590,20 +1599,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1636,7 +1645,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1663,21 +1672,21 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1689,31 +1698,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1735,18 +1744,18 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1762,17 +1771,17 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -1795,59 +1804,92 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>889.67999999999995</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>97</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>12</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>72</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
         <v>95</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
         <v>96</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
-        <v>97</v>
-      </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c t="s" r="Q34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>997.67999999999995</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>98</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>99</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>100</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1991,10 +2033,15 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -98,12 +98,30 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DEPO-PEN 1.2 MIU VIAL.</t>
   </si>
   <si>
     <t>25.00</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -260,7 +278,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>4.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -269,7 +287,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t>شفاط ثدي الجو</t>
@@ -305,7 +323,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 4:06 PM</t>
+    <t>Wednesday, 20 August, 2025 4:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1078,7 +1096,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1088,14 +1106,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1104,14 +1122,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1121,14 +1139,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1144,7 +1162,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1154,14 +1172,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1170,14 +1188,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1194,7 +1212,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1210,7 +1228,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1243,7 +1261,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1253,11 +1271,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1269,14 +1287,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1286,14 +1304,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1302,14 +1320,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1319,11 +1337,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1335,14 +1353,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1359,7 +1377,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1375,7 +1393,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1392,7 +1410,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1408,7 +1426,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1458,7 +1476,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1474,7 +1492,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1484,14 +1502,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1500,14 +1518,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1540,24 +1558,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1566,31 +1584,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1599,20 +1617,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1645,15 +1663,15 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1665,20 +1683,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1705,24 +1723,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1731,28 +1749,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>26</v>
@@ -1764,28 +1782,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1804,24 +1822,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1837,59 +1855,125 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>997.67999999999995</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
-        <v>98</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
-        <v>99</v>
-      </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>100</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>21</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>78</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>101</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>103</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>12</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>78</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>101</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1026.4400000000001</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>104</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>105</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>106</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2038,10 +2122,20 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -323,7 +323,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 4:31 PM</t>
+    <t>Wednesday, 20 August, 2025 4:44 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -230,13 +230,10 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>4:1</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>16.8300</t>
+    <t>50.4900</t>
   </si>
   <si>
     <t>الويز كبير بالاجنحه</t>
@@ -278,7 +275,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>5:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -323,7 +320,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 4:44 PM</t>
+    <t>Wednesday, 20 August, 2025 5:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1591,7 +1588,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1601,14 +1598,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1617,28 +1614,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1650,7 +1647,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1663,7 +1660,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1671,7 +1668,7 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1683,28 +1680,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1716,7 +1713,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1729,18 +1726,18 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1749,7 +1746,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1762,15 +1759,15 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>26</v>
@@ -1782,7 +1779,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1795,7 +1792,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1815,28 +1812,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>26</v>
@@ -1848,28 +1845,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1881,7 +1878,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1894,15 +1891,15 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1914,7 +1911,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1927,15 +1924,15 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -1943,13 +1940,13 @@
     </row>
     <row r="37" ht="25.5" customHeight="1">
       <c r="P37" s="13">
-        <v>1026.4400000000001</v>
+        <v>1066.0999999999999</v>
       </c>
       <c r="Q37" s="13"/>
     </row>
     <row r="38" ht="16.5" customHeight="1">
       <c t="s" r="A38" s="14">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -1957,13 +1954,13 @@
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
       <c t="s" r="G38" s="15">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
       <c r="J38" s="16"/>
       <c t="s" r="K38" s="17">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L38" s="17"/>
       <c r="M38" s="17"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -101,7 +101,7 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>4:0</t>
+    <t>9:0</t>
   </si>
   <si>
     <t>36.00</t>
@@ -320,7 +320,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 5:05 PM</t>
+    <t>Wednesday, 20 August, 2025 5:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>BABETONE SYRUP SUGAR FREE 120 ML</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
     <t>35.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>BRONCHICUM ELIXIR 100 ML</t>
   </si>
   <si>
@@ -71,6 +83,15 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>COGINTOL 20 TAB.</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
@@ -143,6 +164,15 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -176,6 +206,15 @@
     <t>27.7200</t>
   </si>
   <si>
+    <t>HALONACE 5 MG 10 TABS.</t>
+  </si>
+  <si>
+    <t>17.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 10MG 20 TAB</t>
   </si>
   <si>
@@ -197,9 +236,6 @@
     <t>ORS 10 SACHET</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
     <t>12.0000</t>
   </si>
   <si>
@@ -221,6 +257,15 @@
     <t>86.1300</t>
   </si>
   <si>
+    <t>URGINAFECT 5MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 50MG 20 TAB.</t>
   </si>
   <si>
@@ -236,6 +281,9 @@
     <t>50.4900</t>
   </si>
   <si>
+    <t>X-TENSION PLUS 150/12.5MG 28 SCORED TAB.</t>
+  </si>
+  <si>
     <t>الويز كبير بالاجنحه</t>
   </si>
   <si>
@@ -254,9 +302,6 @@
     <t>جل رويال</t>
   </si>
   <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>حلق</t>
   </si>
   <si>
@@ -320,7 +365,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 5:26 PM</t>
+    <t>Wednesday, 20 August, 2025 5:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -994,7 +1039,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1004,11 +1049,11 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
@@ -1020,14 +1065,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1044,7 +1089,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1053,14 +1098,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1070,11 +1115,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1086,14 +1131,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1103,14 +1148,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1119,14 +1164,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1140,7 +1185,7 @@
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1152,14 +1197,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1169,14 +1214,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1185,14 +1230,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1202,14 +1247,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1218,14 +1263,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1235,14 +1280,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1258,7 +1303,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1268,14 +1313,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1284,14 +1329,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1301,11 +1346,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1317,14 +1362,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1334,11 +1379,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1350,14 +1395,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1367,14 +1412,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1383,14 +1428,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1400,11 +1445,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1416,14 +1461,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1433,11 +1478,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1456,7 +1501,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1466,14 +1511,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1482,14 +1527,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1499,11 +1544,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1515,14 +1560,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1532,14 +1577,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1548,14 +1593,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1565,14 +1610,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1581,14 +1626,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1598,14 +1643,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1614,28 +1659,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1647,31 +1692,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1687,21 +1732,21 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1713,31 +1758,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>88</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1746,31 +1791,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1779,28 +1824,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1812,31 +1857,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1852,21 +1897,21 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1878,28 +1923,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1911,66 +1956,264 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1066.0999999999999</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
-        <v>103</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
         <v>104</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>18</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>93</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
         <v>105</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>107</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>16</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>93</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>41</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>108</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>109</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>93</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>110</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>111</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>112</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>93</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>110</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>114</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>28</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>93</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>115</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>117</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>18</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>93</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>115</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>1500.0999999999999</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>118</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>119</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>120</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2129,10 +2372,40 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -365,7 +365,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 5:37 PM</t>
+    <t>Wednesday, 20 August, 2025 5:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -239,6 +239,12 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">STOPADOL  FORTE  SACHET</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -281,6 +287,18 @@
     <t>50.4900</t>
   </si>
   <si>
+    <t>VOTRIAXONE 1 GM I.M VIAL</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>224.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>X-TENSION PLUS 150/12.5MG 28 SCORED TAB.</t>
   </si>
   <si>
@@ -290,9 +308,6 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -320,7 +335,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>5:0</t>
+    <t>6:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -329,7 +344,10 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
   </si>
   <si>
     <t>شفاط ثدي الجو</t>
@@ -347,9 +365,6 @@
     <t>فرشاه فوكس</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>30.0000</t>
   </si>
   <si>
@@ -365,7 +380,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 5:43 PM</t>
+    <t>Wednesday, 20 August, 2025 5:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1666,21 +1681,21 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1692,14 +1707,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1709,14 +1724,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1725,14 +1740,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1742,14 +1757,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1758,14 +1773,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1775,14 +1790,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1798,7 +1813,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1808,14 +1823,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1824,14 +1839,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1841,14 +1856,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1857,31 +1872,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>95</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1903,15 +1918,15 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1936,7 +1951,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1969,18 +1984,18 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1989,31 +2004,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2022,31 +2037,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2055,20 +2070,20 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2076,10 +2091,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>33</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2088,28 +2103,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2128,24 +2143,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2161,59 +2176,125 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>1500.0999999999999</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
-        <v>118</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
         <v>119</v>
       </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>28</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>77</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
         <v>120</v>
       </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>122</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>18</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>77</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>120</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>1781.0999999999999</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>123</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>124</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>125</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2402,10 +2483,20 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -95,48 +95,54 @@
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>CONGESTAL SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>50.00</t>
+    <t>25.00</t>
   </si>
   <si>
     <t>25.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>CONGESTAL SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DEPO-PEN 1.2 MIU VIAL.</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -173,6 +179,18 @@
     <t>114.0000</t>
   </si>
   <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -206,6 +224,15 @@
     <t>27.7200</t>
   </si>
   <si>
+    <t>GLIFLOZAMET XR 25/1000 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>357.00</t>
+  </si>
+  <si>
+    <t>357.0000</t>
+  </si>
+  <si>
     <t>HALONACE 5 MG 10 TABS.</t>
   </si>
   <si>
@@ -239,6 +266,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>SILDEN 50 MG 4 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">STOPADOL  FORTE  SACHET</t>
   </si>
   <si>
@@ -302,6 +338,15 @@
     <t>X-TENSION PLUS 150/12.5MG 28 SCORED TAB.</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>الويز كبير بالاجنحه</t>
   </si>
   <si>
@@ -329,6 +374,9 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>رول اون ريكسونا25</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -380,7 +428,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 5:45 PM</t>
+    <t>Wednesday, 20 August, 2025 6:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1170,7 +1218,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1179,14 +1227,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1196,11 +1244,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1212,14 +1260,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1229,14 +1277,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>39</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>31</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1252,7 +1300,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1262,11 +1310,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1278,14 +1326,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1295,14 +1343,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>39</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>31</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1311,14 +1359,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1328,14 +1376,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1344,14 +1392,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1361,11 +1409,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1377,14 +1425,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1394,11 +1442,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1410,14 +1458,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1427,14 +1475,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1443,14 +1491,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1460,11 +1508,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1476,14 +1524,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1493,11 +1541,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1509,14 +1557,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1526,14 +1574,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1542,14 +1590,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1559,14 +1607,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1575,7 +1623,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1592,11 +1640,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1608,7 +1656,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1625,11 +1673,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1641,14 +1689,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1658,14 +1706,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1674,7 +1722,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1687,15 +1735,15 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1707,14 +1755,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1724,14 +1772,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1740,14 +1788,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1757,14 +1805,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>31</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1773,7 +1821,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1786,15 +1834,15 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1806,14 +1854,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1823,14 +1871,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1839,14 +1887,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1856,14 +1904,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>62</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1872,14 +1920,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1889,14 +1937,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1905,14 +1953,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1922,14 +1970,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1938,31 +1986,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1971,31 +2019,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2004,28 +2052,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2037,31 +2085,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2070,31 +2118,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>112</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2103,28 +2151,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2136,31 +2184,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2169,28 +2217,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2202,31 +2250,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2235,7 +2283,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2248,53 +2296,218 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>1781.0999999999999</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
-        <v>123</v>
-      </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
-        <v>124</v>
-      </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
-        <v>125</v>
-      </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>129</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>16</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>89</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>42</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>130</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>131</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>89</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>132</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>133</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>128</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>89</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>132</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>135</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>41</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>89</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>136</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>138</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>18</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>89</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>136</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>2356.5799999999999</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>139</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>140</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>141</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2493,10 +2706,35 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALKAPRESS 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
@@ -65,9 +77,6 @@
     <t>BABETONE SYRUP SUGAR FREE 120 ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
@@ -428,7 +437,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 6:25 PM</t>
+    <t>Wednesday, 20 August, 2025 6:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1102,7 +1111,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1112,14 +1121,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1135,7 +1144,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1152,7 +1161,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1168,7 +1177,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1185,7 +1194,7 @@
         <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1201,7 +1210,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1211,14 +1220,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1227,14 +1236,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1244,14 +1253,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1260,14 +1269,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1277,14 +1286,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1293,14 +1302,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1310,14 +1319,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1326,14 +1335,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1343,14 +1352,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1359,14 +1368,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1376,14 +1385,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1392,14 +1401,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1416,7 +1425,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1432,7 +1441,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1449,7 +1458,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1465,7 +1474,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1482,7 +1491,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1491,14 +1500,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1508,14 +1517,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>62</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1531,7 +1540,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1548,7 +1557,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1564,7 +1573,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1574,14 +1583,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1590,14 +1599,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1607,14 +1616,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1623,14 +1632,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1647,7 +1656,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1663,7 +1672,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1680,7 +1689,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1696,7 +1705,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1713,7 +1722,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1729,7 +1738,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1746,7 +1755,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1762,7 +1771,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1772,14 +1781,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1788,14 +1797,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1805,14 +1814,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1828,24 +1837,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1854,31 +1863,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1894,7 +1903,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1911,7 +1920,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1927,7 +1936,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1944,7 +1953,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1960,7 +1969,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1970,14 +1979,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1986,14 +1995,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2003,14 +2012,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2026,7 +2035,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2043,7 +2052,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>107</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2052,14 +2061,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2069,14 +2078,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2085,14 +2094,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2102,14 +2111,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2125,24 +2134,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2151,31 +2160,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2184,31 +2193,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2217,31 +2226,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2250,31 +2259,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>124</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2290,13 +2299,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2304,10 +2313,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>127</v>
-      </c>
-      <c t="s" r="Q44" s="12">
-        <v>128</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2316,31 +2325,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2349,31 +2358,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2389,24 +2398,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2415,31 +2424,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2455,59 +2464,92 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>2356.5799999999999</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>141</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>12</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>92</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
         <v>139</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
         <v>140</v>
       </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
-        <v>141</v>
-      </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c t="s" r="Q50" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>2443.5799999999999</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>142</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>143</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>144</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2731,10 +2773,15 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -437,7 +437,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 6:26 PM</t>
+    <t>Wednesday, 20 August, 2025 6:32 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALERGOLIBER 10MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALKAPRESS 5MG 20 TAB.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>58.00</t>
   </si>
   <si>
@@ -62,6 +74,18 @@
     <t>1:1</t>
   </si>
   <si>
+    <t>ALLERBAN S.R. 2 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -71,9 +95,6 @@
     <t>102.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>BABETONE SYRUP SUGAR FREE 120 ML</t>
   </si>
   <si>
@@ -137,9 +158,6 @@
     <t>11.8800</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>DEPO-PEN 1.2 MIU VIAL.</t>
   </si>
   <si>
@@ -254,9 +272,6 @@
     <t>KETOLAC 10MG 20 TAB</t>
   </si>
   <si>
-    <t>38.00</t>
-  </si>
-  <si>
     <t>38.0000</t>
   </si>
   <si>
@@ -362,12 +377,6 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
     <t>جل رويال</t>
   </si>
   <si>
@@ -437,7 +446,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 6:32 PM</t>
+    <t>Wednesday, 20 August, 2025 6:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1111,7 +1120,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1144,7 +1153,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1154,14 +1163,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1170,7 +1179,7 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1187,14 +1196,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1203,14 +1212,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1220,14 +1229,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1236,14 +1245,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1260,7 +1269,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1276,7 +1285,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1286,14 +1295,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1302,14 +1311,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1319,14 +1328,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1335,14 +1344,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1352,14 +1361,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1368,14 +1377,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1385,14 +1394,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1425,7 +1434,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1441,7 +1450,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1451,14 +1460,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1467,14 +1476,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1491,7 +1500,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1507,7 +1516,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1524,7 +1533,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1533,14 +1542,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1550,14 +1559,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1566,14 +1575,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1583,14 +1592,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>68</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1606,7 +1615,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1616,14 +1625,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1632,14 +1641,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1649,14 +1658,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1665,14 +1674,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1682,14 +1691,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1698,14 +1707,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1722,7 +1731,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1755,7 +1764,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1788,7 +1797,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1804,7 +1813,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1814,14 +1823,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1837,7 +1846,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1847,14 +1856,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1870,24 +1879,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1903,7 +1912,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1913,14 +1922,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1936,24 +1945,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1962,14 +1971,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1979,14 +1988,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1995,14 +2004,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2012,14 +2021,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2035,7 +2044,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2052,7 +2061,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2068,7 +2077,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2078,14 +2087,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>110</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2094,14 +2103,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2111,14 +2120,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2134,7 +2143,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2151,7 +2160,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2160,31 +2169,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2193,31 +2202,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2239,18 +2248,18 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2259,31 +2268,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2292,31 +2301,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>127</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2325,31 +2334,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>131</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2358,31 +2367,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2391,31 +2400,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>35</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2424,31 +2433,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2457,31 +2466,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2490,66 +2499,132 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>2443.5799999999999</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>141</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>50</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>97</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
         <v>142</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
         <v>143</v>
       </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
         <v>144</v>
       </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>12</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>97</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>142</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2522.5799999999999</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>145</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>146</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>147</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2778,10 +2853,20 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -251,6 +251,15 @@
     <t>27.7200</t>
   </si>
   <si>
+    <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
     <t>GLIFLOZAMET XR 25/1000 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -284,6 +293,15 @@
     <t>108.0000</t>
   </si>
   <si>
+    <t>NETLOOK 20MG 20 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>274.00</t>
+  </si>
+  <si>
+    <t>274.0000</t>
+  </si>
+  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -446,7 +464,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 6:46 PM</t>
+    <t>Wednesday, 20 August, 2025 6:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1823,11 +1841,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1839,7 +1857,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1856,7 +1874,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -1879,7 +1897,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1889,14 +1907,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1905,14 +1923,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1922,14 +1940,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1938,20 +1956,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1959,10 +1977,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1971,14 +1989,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1988,14 +2006,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2004,31 +2022,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2044,7 +2062,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2077,7 +2095,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2087,11 +2105,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>22</v>
@@ -2103,14 +2121,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2120,14 +2138,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2136,14 +2154,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2153,14 +2171,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>115</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2169,14 +2187,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2186,14 +2204,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2202,14 +2220,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2219,14 +2237,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2235,28 +2253,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2268,28 +2286,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2301,28 +2319,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2334,28 +2352,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2367,31 +2385,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>130</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2400,31 +2418,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>134</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2433,31 +2451,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2466,20 +2484,20 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2487,10 +2505,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>42</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2499,28 +2517,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>138</v>
+        <v>51</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2532,31 +2550,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2565,66 +2583,132 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2522.5799999999999</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
-        <v>145</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
-        <v>146</v>
-      </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
         <v>147</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>50</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>103</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>148</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>150</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>12</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>103</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>148</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>2986.5799999999999</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
+        <v>151</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>152</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>153</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2863,10 +2947,20 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -464,7 +464,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 6:47 PM</t>
+    <t>Wednesday, 20 August, 2025 6:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1699,7 +1699,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1713,10 +1713,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2678,7 +2678,7 @@
     </row>
     <row r="55" ht="24.75" customHeight="1">
       <c r="P55" s="13">
-        <v>2986.5799999999999</v>
+        <v>3008.5799999999999</v>
       </c>
       <c r="Q55" s="13"/>
     </row>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADOL 500MG 24 CAPLETS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ALERGOLIBER 10MG 20 F.C. TABS.</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -71,15 +86,9 @@
     <t>87.0000</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>ALLERBAN S.R. 2 MG 20 TABS.</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>38.00</t>
   </si>
   <si>
@@ -227,6 +236,18 @@
     <t>99.0000</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -464,7 +485,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 6:48 PM</t>
+    <t>Wednesday, 20 August, 2025 7:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1138,7 +1159,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1148,14 +1169,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1164,14 +1185,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1188,7 +1209,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1204,7 +1225,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1254,7 +1275,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1270,7 +1291,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1287,7 +1308,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1303,7 +1324,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1320,7 +1341,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1336,7 +1357,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1346,14 +1367,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1362,14 +1383,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1379,14 +1400,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1395,14 +1416,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1412,14 +1433,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1428,14 +1449,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1445,11 +1466,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1461,14 +1482,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1478,14 +1499,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1494,14 +1515,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1511,14 +1532,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1527,14 +1548,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1567,7 +1588,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1584,7 +1605,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1617,7 +1638,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1626,14 +1647,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1643,14 +1664,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>71</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1666,7 +1687,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1683,7 +1704,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1699,7 +1720,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1709,14 +1730,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1725,14 +1746,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1742,14 +1763,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1758,14 +1779,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1775,14 +1796,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1798,7 +1819,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1808,11 +1829,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1824,14 +1845,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1841,14 +1862,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1857,14 +1878,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1874,14 +1895,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1890,14 +1911,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1907,14 +1928,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1923,14 +1944,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1940,14 +1961,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1956,14 +1977,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1973,14 +1994,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1989,14 +2010,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2006,14 +2027,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2022,31 +2043,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2055,14 +2076,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2072,14 +2093,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2088,31 +2109,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2121,14 +2142,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2138,14 +2159,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2154,14 +2175,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2171,14 +2192,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2187,14 +2208,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2204,14 +2225,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2220,14 +2241,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2237,14 +2258,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2260,7 +2281,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2270,14 +2291,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2286,14 +2307,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2303,14 +2324,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2319,31 +2340,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2352,31 +2373,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2385,31 +2406,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2418,31 +2439,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2451,31 +2472,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>136</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2484,31 +2505,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>140</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2524,24 +2545,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2550,31 +2571,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>42</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2583,31 +2604,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2616,31 +2637,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2649,66 +2670,132 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>3008.5799999999999</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
-        <v>151</v>
-      </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
-        <v>152</v>
-      </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
-        <v>153</v>
-      </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>154</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>53</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>110</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>155</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>157</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>18</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>110</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>155</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="P57" s="13">
+        <v>3028.4200000000001</v>
+      </c>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c t="s" r="A58" s="14">
+        <v>158</v>
+      </c>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c t="s" r="G58" s="15">
+        <v>159</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c t="s" r="K58" s="17">
+        <v>160</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="262">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2957,10 +3044,20 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="K58:Q58"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -134,27 +134,30 @@
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
-    <t>2:1</t>
+    <t>2:0</t>
   </si>
   <si>
     <t>50.00</t>
   </si>
   <si>
-    <t>50.0000</t>
+    <t>75.0000</t>
   </si>
   <si>
     <t>CONGESTAL SYRUP 120 ML</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>44.00</t>
   </si>
   <si>
     <t>44.0000</t>
   </si>
   <si>
+    <t>COSAMINE MASSAGE CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -419,6 +422,15 @@
     <t>جل رويال</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>حلق</t>
   </si>
   <si>
@@ -446,9 +458,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>21.0000</t>
   </si>
   <si>
@@ -485,7 +494,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 7:00 PM</t>
+    <t>Wednesday, 20 August, 2025 7:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1407,7 +1416,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1423,7 +1432,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1433,11 +1442,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1449,14 +1458,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1466,14 +1475,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1482,14 +1491,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1499,14 +1508,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1515,14 +1524,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1532,14 +1541,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1548,14 +1557,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1565,11 +1574,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1581,14 +1590,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1598,14 +1607,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1614,14 +1623,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1631,11 +1640,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1647,14 +1656,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1664,14 +1673,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1680,14 +1689,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1697,14 +1706,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1713,14 +1722,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1730,14 +1739,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1746,14 +1755,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1763,14 +1772,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1779,14 +1788,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1796,14 +1805,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1819,7 +1828,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1829,14 +1838,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1845,14 +1854,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1862,14 +1871,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1878,7 +1887,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1895,11 +1904,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1911,7 +1920,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1928,11 +1937,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1944,7 +1953,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1961,11 +1970,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1977,7 +1986,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1994,11 +2003,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2010,7 +2019,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2027,11 +2036,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2043,14 +2052,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2060,14 +2069,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2076,14 +2085,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2093,14 +2102,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2109,31 +2118,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2142,28 +2151,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2175,14 +2184,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2192,14 +2201,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2208,14 +2217,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2225,14 +2234,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2241,14 +2250,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2258,14 +2267,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2274,14 +2283,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2291,14 +2300,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2307,14 +2316,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2324,14 +2333,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>128</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2340,14 +2349,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2357,14 +2366,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2380,7 +2389,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2390,11 +2399,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2406,28 +2415,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2439,28 +2448,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2479,21 +2488,21 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2505,28 +2514,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2538,20 +2547,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2559,10 +2568,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>143</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2578,24 +2587,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>147</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2604,31 +2613,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2637,31 +2646,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>45</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2670,28 +2679,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>151</v>
+        <v>55</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2703,31 +2712,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2736,24 +2745,24 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -2764,38 +2773,104 @@
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
-      <c r="P57" s="13">
-        <v>3028.4200000000001</v>
-      </c>
-      <c r="Q57" s="13"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c t="s" r="A58" s="14">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>157</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>54</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>111</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
         <v>158</v>
       </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c t="s" r="G58" s="15">
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
         <v>159</v>
       </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
-      <c t="s" r="K58" s="17">
+      <c t="s" r="Q57" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
         <v>160</v>
       </c>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>18</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>111</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>158</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="P59" s="13">
+        <v>3131.4200000000001</v>
+      </c>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="14">
+        <v>161</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c t="s" r="G60" s="15">
+        <v>162</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c t="s" r="K60" s="17">
+        <v>163</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="262">
+  <mergeCells count="272">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3054,10 +3129,20 @@
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:Q60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -332,6 +332,18 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>SILDEN 50 MG 4 F.C. TABS.</t>
   </si>
   <si>
@@ -374,6 +386,15 @@
     <t>53.0000</t>
   </si>
   <si>
+    <t>VITACID C 1GM 12 EFF. TAB.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 50MG 20 TAB.</t>
   </si>
   <si>
@@ -485,16 +506,10 @@
     <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 7:16 PM</t>
+    <t>Wednesday, 20 August, 2025 7:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2135,14 +2150,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2151,31 +2166,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2184,28 +2199,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2217,14 +2232,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2234,14 +2249,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2250,14 +2265,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2267,14 +2282,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2283,14 +2298,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2300,14 +2315,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2316,14 +2331,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2333,14 +2348,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2349,14 +2364,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2366,14 +2381,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>129</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2389,7 +2404,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2399,14 +2414,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2415,14 +2430,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2432,14 +2447,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2448,28 +2463,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2481,28 +2496,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2514,28 +2529,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2547,28 +2562,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2587,21 +2602,21 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2613,31 +2628,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>147</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2646,31 +2661,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>149</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>150</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2679,31 +2694,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>55</v>
+        <v>153</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2712,31 +2727,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>41</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2745,28 +2760,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>154</v>
+        <v>55</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>156</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2778,31 +2793,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2811,66 +2826,132 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
-      <c r="P59" s="13">
-        <v>3131.4200000000001</v>
-      </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="14">
-        <v>161</v>
-      </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c t="s" r="G60" s="15">
-        <v>162</v>
-      </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c t="s" r="K60" s="17">
-        <v>163</v>
-      </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>164</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>54</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>115</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>109</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>165</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>18</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>115</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>109</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>3200.4200000000001</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
+        <v>166</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
+        <v>167</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>168</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3139,10 +3220,20 @@
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -104,6 +104,15 @@
     <t>102.0000</t>
   </si>
   <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>BABETONE SYRUP SUGAR FREE 120 ML</t>
   </si>
   <si>
@@ -122,6 +131,18 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>COGINTOL 20 TAB.</t>
   </si>
   <si>
@@ -134,9 +155,6 @@
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
@@ -509,7 +527,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 7:17 PM</t>
+    <t>Wednesday, 20 August, 2025 7:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1315,7 +1333,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1332,7 +1350,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1348,7 +1366,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1431,7 +1449,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1447,7 +1465,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1480,7 +1498,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1494,10 +1512,10 @@
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1506,14 +1524,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1530,7 +1548,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1546,7 +1564,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1556,11 +1574,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1572,14 +1590,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1589,11 +1607,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1629,7 +1647,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1645,7 +1663,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1655,14 +1673,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1671,14 +1689,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1695,7 +1713,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1711,7 +1729,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1728,7 +1746,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1737,14 +1755,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1754,11 +1772,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1770,14 +1788,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1787,14 +1805,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1803,14 +1821,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1820,11 +1838,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1836,14 +1854,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1853,14 +1871,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1869,14 +1887,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1886,14 +1904,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1902,14 +1920,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1919,14 +1937,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1935,14 +1953,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1959,7 +1977,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2018,11 +2036,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2034,7 +2052,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2051,11 +2069,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2067,7 +2085,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2084,7 +2102,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2107,7 +2125,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2117,14 +2135,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2133,14 +2151,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2173,7 +2191,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2183,14 +2201,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>72</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2199,28 +2217,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2232,14 +2250,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2249,14 +2267,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2265,31 +2283,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2305,7 +2323,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2355,7 +2373,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2371,7 +2389,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2381,14 +2399,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2397,14 +2415,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2414,14 +2432,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2430,14 +2448,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2447,14 +2465,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>136</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2463,14 +2481,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2480,14 +2498,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2496,14 +2514,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2513,14 +2531,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2529,28 +2547,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2562,28 +2580,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2595,28 +2613,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2628,28 +2646,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>150</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2661,28 +2679,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2694,31 +2712,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>154</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2727,31 +2745,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>157</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2767,24 +2785,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2793,31 +2811,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>41</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2826,28 +2844,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>161</v>
+        <v>61</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -2859,31 +2877,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>54</v>
+        <v>166</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2892,66 +2910,132 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>3200.4200000000001</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
-        <v>166</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
-        <v>167</v>
-      </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
-        <v>168</v>
-      </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>170</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>60</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>121</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>115</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>171</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>18</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>121</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>115</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>3348.4200000000001</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>172</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>173</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>174</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3230,10 +3314,20 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -143,6 +143,15 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>CLARITINE 10MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>COGINTOL 20 TAB.</t>
   </si>
   <si>
@@ -221,10 +230,13 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
+    <t>3:1</t>
+  </si>
+  <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>48.0000</t>
+    <t>63.8400</t>
   </si>
   <si>
     <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
@@ -269,6 +281,18 @@
     <t>3.8400</t>
   </si>
   <si>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -362,6 +386,24 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>PREGNACARE 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>PROGEST 200MG 30 ORAL/VAGINAL CAPS</t>
+  </si>
+  <si>
+    <t>246.00</t>
+  </si>
+  <si>
+    <t>123.0000</t>
+  </si>
+  <si>
     <t>SILDEN 50 MG 4 F.C. TABS.</t>
   </si>
   <si>
@@ -479,9 +521,6 @@
     <t>10.00</t>
   </si>
   <si>
-    <t>10.0000</t>
-  </si>
-  <si>
     <t>رول اون ريكسونا25</t>
   </si>
   <si>
@@ -527,7 +566,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 7:22 PM</t>
+    <t>Wednesday, 20 August, 2025 7:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1465,7 +1504,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1482,7 +1521,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1498,7 +1537,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1515,7 +1554,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1548,7 +1587,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1564,7 +1603,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1578,7 +1617,7 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1590,14 +1629,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1611,10 +1650,10 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1623,14 +1662,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1640,14 +1679,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1656,14 +1695,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1673,14 +1712,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1689,14 +1728,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1706,11 +1745,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1722,14 +1761,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1746,7 +1785,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1762,7 +1801,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1772,14 +1811,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1788,14 +1827,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1805,14 +1844,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1828,7 +1867,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1845,7 +1884,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1854,14 +1893,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1878,7 +1917,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1894,7 +1933,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1904,14 +1943,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1920,14 +1959,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1937,14 +1976,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1953,14 +1992,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1970,14 +2009,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1986,14 +2025,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2007,10 +2046,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2019,14 +2058,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2036,14 +2075,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2052,7 +2091,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2069,11 +2108,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2085,7 +2124,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2102,11 +2141,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2118,7 +2157,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2135,11 +2174,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2151,7 +2190,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2168,11 +2207,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2184,14 +2223,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2201,14 +2240,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>91</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2217,14 +2256,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2234,11 +2273,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2250,14 +2289,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2267,14 +2306,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>78</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2283,28 +2322,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2316,14 +2355,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2333,14 +2372,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2349,7 +2388,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2366,11 +2405,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2382,14 +2421,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2399,14 +2438,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2415,28 +2454,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2448,14 +2487,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2465,14 +2504,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2481,14 +2520,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2498,14 +2537,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2514,14 +2553,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2531,14 +2570,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>142</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2547,14 +2586,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2564,11 +2603,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2580,14 +2619,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2597,14 +2636,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2613,31 +2652,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2646,31 +2685,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>46</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2679,7 +2718,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2692,15 +2731,15 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2712,28 +2751,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2745,28 +2784,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2778,7 +2817,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2791,18 +2830,18 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>159</v>
+        <v>48</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>160</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2811,7 +2850,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2824,18 +2863,18 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>163</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2844,28 +2883,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>61</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -2877,31 +2916,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>166</v>
+        <v>59</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>167</v>
+        <v>35</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2910,31 +2949,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>163</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2943,31 +2982,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>116</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2976,66 +3015,198 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>3348.4200000000001</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
-        <v>172</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
-        <v>173</v>
-      </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
-        <v>174</v>
-      </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>178</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>179</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>135</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>180</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>181</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>176</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>135</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>180</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>183</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>63</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>135</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>123</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>184</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>18</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>135</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>123</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>3652.2600000000002</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>185</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>186</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>187</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3324,10 +3495,30 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -566,7 +566,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 7:24 PM</t>
+    <t>Wednesday, 20 August, 2025 7:29 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -482,6 +482,12 @@
     <t>4:0</t>
   </si>
   <si>
+    <t>XORAXON 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>X-TENSION PLUS 150/12.5MG 28 SCORED TAB.</t>
   </si>
   <si>
@@ -524,6 +530,15 @@
     <t>رول اون ريكسونا25</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -566,7 +581,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 7:29 PM</t>
+    <t>Wednesday, 20 August, 2025 7:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2725,7 +2740,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2735,11 +2750,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2751,14 +2766,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2768,11 +2783,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2784,28 +2799,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2824,7 +2839,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2834,11 +2849,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2850,7 +2865,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2867,11 +2882,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>48</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -2883,14 +2898,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2900,11 +2915,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -2916,14 +2931,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2933,11 +2948,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -2949,14 +2964,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2966,14 +2981,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>35</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>173</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2982,7 +2997,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -2999,14 +3014,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>176</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3015,14 +3030,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3032,14 +3047,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>64</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3048,14 +3063,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>179</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3065,14 +3080,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>41</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3081,14 +3096,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>176</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3098,11 +3113,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>180</v>
+        <v>64</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3121,7 +3136,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3131,14 +3146,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3147,14 +3162,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3164,49 +3179,115 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>188</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>63</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>135</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>123</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
         <v>124</v>
       </c>
-      <c t="s" r="Q66" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>3652.2600000000002</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
-        <v>185</v>
-      </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
-        <v>186</v>
-      </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
-        <v>187</v>
-      </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c t="s" r="Q67" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>189</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>18</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>135</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>123</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>3712.2600000000002</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
+        <v>190</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>191</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>192</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3515,10 +3596,20 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -581,7 +581,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 7:32 PM</t>
+    <t>Wednesday, 20 August, 2025 7:53 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -104,6 +104,21 @@
     <t>102.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">ANTODINE20    6 AMP</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
@@ -122,6 +137,21 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>BRONCHICUM ELIXIR 100 ML</t>
   </si>
   <si>
@@ -185,6 +215,15 @@
     <t>75.00</t>
   </si>
   <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -233,9 +272,6 @@
     <t>3:1</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>63.8400</t>
   </si>
   <si>
@@ -251,9 +287,6 @@
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>51.4800</t>
   </si>
   <si>
@@ -308,9 +341,6 @@
     <t>GAST-REG 200 MG 30 TABS.</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>84.00</t>
   </si>
   <si>
@@ -377,9 +407,6 @@
     <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
@@ -416,9 +443,6 @@
     <t xml:space="preserve">STOPADOL  FORTE  SACHET</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -458,9 +482,6 @@
     <t>VOLTAREN 50MG 20 TAB.</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -506,9 +527,24 @@
     <t>16:0</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>46:0</t>
+  </si>
+  <si>
     <t>جل رويال</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>93:0</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -545,33 +581,30 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>6:0</t>
+    <t>10:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>21.0000</t>
+    <t>شفاط ثدي الجو</t>
+  </si>
+  <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>فرشاه فوكس</t>
   </si>
   <si>
     <t>7:0</t>
   </si>
   <si>
-    <t>شفاط ثدي الجو</t>
-  </si>
-  <si>
-    <t>صابون ديتول اوريجنيال 115 جم</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>فرشاه فوكس</t>
-  </si>
-  <si>
     <t>30.0000</t>
   </si>
   <si>
@@ -581,7 +614,10 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 7:53 PM</t>
+    <t>محلول رينجر</t>
+  </si>
+  <si>
+    <t>Wednesday, 20 August, 2025 7:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1387,21 +1423,21 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1413,14 +1449,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1430,14 +1466,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1446,14 +1482,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1463,11 +1499,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1479,14 +1515,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1496,14 +1532,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1512,14 +1548,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1529,14 +1565,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1545,14 +1581,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1562,14 +1598,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1578,14 +1614,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1595,14 +1631,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1611,14 +1647,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1628,11 +1664,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1644,14 +1680,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1661,14 +1697,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1677,14 +1713,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1694,14 +1730,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1710,14 +1746,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1727,11 +1763,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1743,14 +1779,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1760,11 +1796,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1776,14 +1812,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1793,11 +1829,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1809,14 +1845,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1826,14 +1862,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1842,14 +1878,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1859,14 +1895,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1875,14 +1911,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1892,14 +1928,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1908,14 +1944,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1925,14 +1961,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1941,14 +1977,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1958,14 +1994,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1974,14 +2010,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1991,14 +2027,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>93</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2014,7 +2050,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2047,7 +2083,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2057,14 +2093,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2073,14 +2109,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2090,11 +2126,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2106,14 +2142,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2123,11 +2159,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2139,14 +2175,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2160,10 +2196,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2172,14 +2208,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2189,14 +2225,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2205,7 +2241,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2222,11 +2258,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2238,7 +2274,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2255,11 +2291,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2271,7 +2307,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2288,11 +2324,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2304,14 +2340,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2321,14 +2357,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2337,14 +2373,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2354,11 +2390,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2370,7 +2406,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2387,14 +2423,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2403,7 +2439,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2420,14 +2456,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2443,7 +2479,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2453,14 +2489,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>82</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2482,18 +2518,18 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2502,14 +2538,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2519,14 +2555,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2535,14 +2571,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2552,14 +2588,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2568,7 +2604,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2581,15 +2617,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>58</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2601,14 +2637,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2618,11 +2654,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2634,14 +2670,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2651,7 +2687,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2674,7 +2710,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2691,7 +2727,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2707,7 +2743,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2724,7 +2760,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>156</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2733,14 +2769,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2750,14 +2786,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2766,14 +2802,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2783,14 +2819,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2806,7 +2842,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2823,7 +2859,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2832,28 +2868,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2865,7 +2901,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2878,15 +2914,15 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -2898,28 +2934,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -2931,28 +2967,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>19</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -2971,21 +3007,21 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>59</v>
+        <v>173</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -2997,7 +3033,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3010,15 +3046,15 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>58</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3030,31 +3066,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>103</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>178</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3063,7 +3099,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3076,18 +3112,18 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>181</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3096,28 +3132,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3129,31 +3165,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>184</v>
+        <v>72</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3162,24 +3198,24 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3202,24 +3238,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>123</v>
+        <v>189</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3228,7 +3264,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3241,53 +3277,251 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>3712.2600000000002</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
-        <v>190</v>
-      </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
-        <v>191</v>
-      </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
         <v>192</v>
       </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>21</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>33</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>77</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>193</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>194</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>33</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>195</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>196</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>197</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>33</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>195</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>199</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>76</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>33</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>132</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>200</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>18</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>33</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>132</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>201</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>21</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>33</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>99</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="P75" s="13">
+        <v>3880.7649999999999</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
+        <v>202</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
+        <v>203</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
+        <v>204</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3606,10 +3840,40 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -593,7 +593,7 @@
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
-    <t>15:0</t>
+    <t>14:0</t>
   </si>
   <si>
     <t>30.00</t>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -324,6 +324,15 @@
   </si>
   <si>
     <t>10.0000</t>
+  </si>
+  <si>
+    <t>FUCICORT CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
   </si>
   <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
@@ -2149,7 +2158,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2182,7 +2191,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2192,14 +2201,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2208,14 +2217,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2225,14 +2234,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2248,7 +2257,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2265,7 +2274,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2357,11 +2366,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2373,7 +2382,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2390,7 +2399,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2446,7 +2455,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2456,14 +2465,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2472,14 +2481,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2489,14 +2498,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2512,7 +2521,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2529,7 +2538,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2545,7 +2554,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2578,7 +2587,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2588,14 +2597,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2611,24 +2620,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2637,28 +2646,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2677,7 +2686,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2694,7 +2703,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2710,7 +2719,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2727,7 +2736,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2743,7 +2752,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2776,7 +2785,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2786,14 +2795,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2802,14 +2811,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2819,14 +2828,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>44</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2842,7 +2851,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2859,7 +2868,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>163</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2868,14 +2877,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2885,14 +2894,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2901,14 +2910,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2918,11 +2927,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -2934,14 +2943,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>163</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2951,11 +2960,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -2974,21 +2983,21 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3000,14 +3009,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3017,11 +3026,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3033,14 +3042,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3050,11 +3059,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3066,14 +3075,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3083,11 +3092,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3106,7 +3115,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3116,7 +3125,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3139,7 +3148,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>182</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3149,11 +3158,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3172,7 +3181,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>72</v>
+        <v>185</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3182,11 +3191,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3198,14 +3207,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3215,11 +3224,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3252,10 +3261,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>190</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3281,14 +3290,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>98</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3297,14 +3306,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3314,14 +3323,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3330,14 +3339,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>194</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3347,14 +3356,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3380,14 +3389,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3403,7 +3412,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3413,11 +3422,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>132</v>
+        <v>198</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>133</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3429,14 +3438,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3446,14 +3455,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>198</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3462,14 +3471,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3479,49 +3488,82 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>204</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>21</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>33</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>99</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
         <v>45</v>
       </c>
-      <c t="s" r="Q74" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>3880.7649999999999</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
-        <v>202</v>
-      </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
-        <v>203</v>
-      </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
-        <v>204</v>
-      </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c t="s" r="Q75" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>3950.7649999999999</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>205</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>206</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>207</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3870,10 +3912,15 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -422,6 +422,18 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>PREGNACARE 30 F.C. TABS.</t>
   </si>
   <si>
@@ -458,9 +470,6 @@
     <t>23.00</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>TORSERETIC 100MG 30 TABS.</t>
   </si>
   <si>
@@ -528,6 +537,12 @@
   </si>
   <si>
     <t>96.0000</t>
+  </si>
+  <si>
+    <t>اسيتون ايفا</t>
+  </si>
+  <si>
+    <t>6:0</t>
   </si>
   <si>
     <t>الويز كبير بالاجنحه</t>
@@ -2554,7 +2569,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2564,11 +2579,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2580,14 +2595,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2597,11 +2612,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2613,14 +2628,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2630,14 +2645,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2646,31 +2661,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2679,28 +2694,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2712,14 +2727,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2729,14 +2744,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2752,7 +2767,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2769,7 +2784,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2785,7 +2800,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2818,7 +2833,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2828,14 +2843,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2844,14 +2859,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2861,14 +2876,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2884,7 +2899,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2901,7 +2916,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>166</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2910,14 +2925,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2927,14 +2942,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2943,14 +2958,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2960,11 +2975,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -2976,14 +2991,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2993,11 +3008,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3016,21 +3031,21 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3042,14 +3057,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3059,11 +3074,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3075,14 +3090,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3092,11 +3107,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3108,14 +3123,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3125,11 +3140,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3141,7 +3156,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3158,11 +3173,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>58</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3174,14 +3189,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3191,11 +3206,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>103</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3207,14 +3222,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3224,11 +3239,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>40</v>
+        <v>187</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3240,14 +3255,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>190</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3257,11 +3272,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>190</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3273,14 +3288,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3290,14 +3305,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>180</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>193</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3306,7 +3321,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3323,14 +3338,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>98</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3339,14 +3354,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3356,14 +3371,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3372,14 +3387,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>197</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3389,14 +3404,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>51</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3405,14 +3420,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3422,11 +3437,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3438,14 +3453,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3455,14 +3470,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3471,14 +3486,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>205</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3488,14 +3503,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3504,14 +3519,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3521,49 +3536,115 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>208</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>18</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>33</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>135</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>209</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>21</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>33</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>99</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
         <v>45</v>
       </c>
-      <c t="s" r="Q75" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>3950.7649999999999</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
-        <v>205</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
-        <v>206</v>
-      </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
-        <v>207</v>
-      </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c t="s" r="Q77" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="P78" s="13">
+        <v>4013.7649999999999</v>
+      </c>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c t="s" r="A79" s="14">
+        <v>210</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c t="s" r="G79" s="15">
+        <v>211</v>
+      </c>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c t="s" r="K79" s="17">
+        <v>212</v>
+      </c>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="367">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3917,10 +3998,20 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:Q79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -128,6 +128,15 @@
     <t>105.0000</t>
   </si>
   <si>
+    <t>AVOBEANO CAPS</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>BABETONE SYRUP SUGAR FREE 120 ML</t>
   </si>
   <si>
@@ -173,6 +182,15 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>CEMBA CAPS</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>CLARITINE 10MG 20 TAB.</t>
   </si>
   <si>
@@ -197,9 +215,6 @@
     <t>50.00</t>
   </si>
   <si>
-    <t>75.0000</t>
-  </si>
-  <si>
     <t>CONGESTAL SYRUP 120 ML</t>
   </si>
   <si>
@@ -212,9 +227,6 @@
     <t>COSAMINE MASSAGE CREAM 50 GM</t>
   </si>
   <si>
-    <t>75.00</t>
-  </si>
-  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -335,6 +347,15 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>GANATON 50 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -359,9 +380,6 @@
     <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 50 GM</t>
   </si>
   <si>
-    <t>190.00</t>
-  </si>
-  <si>
     <t>190.0000</t>
   </si>
   <si>
@@ -464,6 +482,15 @@
     <t xml:space="preserve">STOPADOL  FORTE  SACHET</t>
   </si>
   <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -641,7 +668,7 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 7:56 PM</t>
+    <t>Wednesday, 20 August, 2025 7:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1519,7 +1546,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1546,7 +1573,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1556,14 +1583,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1572,14 +1599,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1589,14 +1616,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>49</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1612,7 +1639,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1622,14 +1649,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1638,14 +1665,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1678,13 +1705,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1695,7 +1722,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1711,7 +1738,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1728,7 +1755,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1744,7 +1771,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1777,7 +1804,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1791,10 +1818,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1810,7 +1837,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1827,7 +1854,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1843,7 +1870,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1853,14 +1880,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1869,14 +1896,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1886,14 +1913,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1902,14 +1929,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1919,11 +1946,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1935,14 +1962,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1952,14 +1979,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1968,14 +1995,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1985,14 +2012,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2001,14 +2028,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2018,14 +2045,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2034,14 +2061,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2051,14 +2078,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>93</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2067,14 +2094,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2084,11 +2111,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2100,14 +2127,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2117,14 +2144,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2133,14 +2160,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2150,14 +2177,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2166,14 +2193,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2183,14 +2210,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2199,14 +2226,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2216,14 +2243,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2232,7 +2259,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2249,14 +2276,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2272,7 +2299,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2305,7 +2332,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2338,7 +2365,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2348,14 +2375,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2364,14 +2391,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2381,14 +2408,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2397,7 +2424,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2414,11 +2441,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2430,7 +2457,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2447,11 +2474,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2463,7 +2490,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2480,11 +2507,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2496,14 +2523,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2513,14 +2540,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2529,14 +2556,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2546,11 +2573,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2562,14 +2589,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2579,14 +2606,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2595,14 +2622,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2612,14 +2639,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2628,14 +2655,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2645,14 +2672,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2661,14 +2688,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2678,14 +2705,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2694,7 +2721,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2707,18 +2734,18 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>58</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2727,14 +2754,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2744,14 +2771,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2767,7 +2794,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2777,14 +2804,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2806,15 +2833,15 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>64</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2826,14 +2853,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2843,14 +2870,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2859,14 +2886,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2876,14 +2903,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2892,14 +2919,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2909,14 +2936,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2925,14 +2952,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2942,14 +2969,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>169</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2958,14 +2985,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2975,11 +3002,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -2991,14 +3018,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3008,14 +3035,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>127</v>
+        <v>47</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3024,14 +3051,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>169</v>
+        <v>86</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3041,14 +3068,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3057,31 +3084,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>58</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>59</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3090,28 +3117,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>179</v>
+        <v>54</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>19</v>
+        <v>176</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3123,28 +3150,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3163,21 +3190,21 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>58</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>59</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3189,14 +3216,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3206,11 +3233,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>185</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3222,14 +3249,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>188</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3239,11 +3266,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3272,11 +3299,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3288,14 +3315,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3305,11 +3332,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3321,14 +3348,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>193</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3338,11 +3365,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>194</v>
+        <v>107</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3354,7 +3381,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3371,14 +3398,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>198</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3387,14 +3414,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>199</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3404,14 +3431,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>98</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3420,14 +3447,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3437,11 +3464,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3453,14 +3480,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>202</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3474,10 +3501,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>20</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3486,14 +3513,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>205</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3503,14 +3530,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>207</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3519,14 +3546,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3536,14 +3563,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3552,14 +3579,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3569,14 +3596,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3585,14 +3612,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>211</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3602,49 +3629,181 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>99</v>
+        <v>212</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
-      <c r="P78" s="13">
-        <v>4013.7649999999999</v>
-      </c>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
-        <v>210</v>
-      </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
-        <v>211</v>
-      </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>213</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>214</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>33</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
         <v>212</v>
       </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>216</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>80</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>33</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>141</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>217</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>18</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>33</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>141</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>218</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>21</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>33</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>103</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>4255.0450000000001</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
+        <v>219</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>220</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>221</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4008,10 +4167,30 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -668,7 +668,7 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 7:57 PM</t>
+    <t>Wednesday, 20 August, 2025 8:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -314,6 +314,15 @@
     <t>99.0000</t>
   </si>
   <si>
+    <t>FANGRARE SHOWER GEL 200 ML</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -416,6 +425,15 @@
     <t>108.0000</t>
   </si>
   <si>
+    <t>MICONAZ 2% ORAL GEL 20 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>NETLOOK 20MG 20 SOFT GELATIN CAPS.</t>
   </si>
   <si>
@@ -449,9 +467,6 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>PREGNACARE 30 F.C. TABS.</t>
   </si>
   <si>
@@ -494,9 +509,6 @@
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
-    <t>23.00</t>
-  </si>
-  <si>
     <t>TORSERETIC 100MG 30 TABS.</t>
   </si>
   <si>
@@ -668,7 +680,7 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 8:07 PM</t>
+    <t>Wednesday, 20 August, 2025 8:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2200,7 +2212,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2210,14 +2222,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2226,14 +2238,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2243,11 +2255,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2259,14 +2271,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2283,7 +2295,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2299,7 +2311,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2316,7 +2328,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2332,7 +2344,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2349,7 +2361,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2365,7 +2377,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2375,14 +2387,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2391,14 +2403,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2408,14 +2420,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2431,7 +2443,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2441,14 +2453,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2457,7 +2469,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2474,7 +2486,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2540,11 +2552,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2556,7 +2568,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2573,7 +2585,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2639,14 +2651,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2655,14 +2667,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2672,11 +2684,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2688,14 +2700,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2705,14 +2717,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2721,14 +2733,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2738,14 +2750,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2754,14 +2766,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2775,7 +2787,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2787,14 +2799,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2804,14 +2816,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2820,31 +2832,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2853,14 +2865,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2870,14 +2882,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2886,28 +2898,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>64</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>146</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2926,7 +2938,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2959,7 +2971,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2969,11 +2981,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -2985,7 +2997,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3002,14 +3014,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3018,14 +3030,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3035,14 +3047,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>47</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>48</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3058,7 +3070,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3075,7 +3087,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3091,7 +3103,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3101,14 +3113,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>47</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>178</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3117,14 +3129,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3134,14 +3146,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3150,14 +3162,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3167,14 +3179,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>134</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3183,14 +3195,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3200,7 +3212,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3223,21 +3235,21 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3249,28 +3261,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>20</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3299,11 +3311,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3322,7 +3334,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3332,11 +3344,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3348,14 +3360,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3365,11 +3377,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3398,11 +3410,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>196</v>
+        <v>64</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>197</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3414,14 +3426,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3431,11 +3443,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3447,14 +3459,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3464,11 +3476,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>43</v>
+        <v>200</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3487,7 +3499,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3497,11 +3509,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>204</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3520,7 +3532,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3530,14 +3542,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>206</v>
+        <v>43</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>194</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>207</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3546,7 +3558,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3563,14 +3575,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>48</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3586,7 +3598,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3596,14 +3608,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>211</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3612,14 +3624,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3629,14 +3641,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>54</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3652,7 +3664,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>214</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3662,11 +3674,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>212</v>
+        <v>81</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>215</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3678,14 +3690,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3695,14 +3707,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3718,7 +3730,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3728,14 +3740,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3744,14 +3756,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3761,49 +3773,115 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>221</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>18</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>33</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>147</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>222</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>21</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>33</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>106</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
         <v>48</v>
       </c>
-      <c t="s" r="Q81" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>4255.0450000000001</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
-        <v>219</v>
-      </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
-        <v>220</v>
-      </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
-        <v>221</v>
-      </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c t="s" r="Q83" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>4428.0450000000001</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
+        <v>223</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>224</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>225</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4187,10 +4265,20 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -251,408 +251,429 @@
     <t>DEPO-PEN 1.2 MIU VIAL.</t>
   </si>
   <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>63.8400</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>FANGRARE SHOWER GEL 200 ML</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>FUCICORT CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>GANATON 50 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>GLIFLOZAMET XR 25/1000 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>357.00</t>
+  </si>
+  <si>
+    <t>357.0000</t>
+  </si>
+  <si>
+    <t>HALONACE 5 MG 10 TABS.</t>
+  </si>
+  <si>
+    <t>17.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>LEVOTAVIN 750 MG 7 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>MICONAZ 2% ORAL GEL 20 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>NETLOOK 20MG 20 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>274.00</t>
+  </si>
+  <si>
+    <t>274.0000</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PREGNACARE 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>PROGEST 200MG 30 ORAL/VAGINAL CAPS</t>
+  </si>
+  <si>
+    <t>246.00</t>
+  </si>
+  <si>
+    <t>123.0000</t>
+  </si>
+  <si>
+    <t>SILDEN 50 MG 4 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOPADOL  FORTE  SACHET</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>TORSERETIC 100MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>261.00</t>
+  </si>
+  <si>
+    <t>86.1300</t>
+  </si>
+  <si>
+    <t>URGINAFECT 5MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>VITACID C 1GM 12 EFF. TAB.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 50MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>50.4900</t>
+  </si>
+  <si>
+    <t>VOTRIAXONE 1 GM I.M VIAL</t>
+  </si>
+  <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>25.00</t>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>224.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>XORAXON 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>X-TENSION PLUS 150/12.5MG 28 SCORED TAB.</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>اسيتون ايفا</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>الويز كبير بالاجنحه</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>46:0</t>
+  </si>
+  <si>
+    <t>جل رويال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>93:0</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>حلق</t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>رول اون ريكسونا25</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>شفاط ثدي الجو</t>
   </si>
   <si>
     <t>25.0000</t>
   </si>
   <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>63.8400</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>51.4800</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>FANGRARE SHOWER GEL 200 ML</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
-  </si>
-  <si>
-    <t>8:1</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>FUCICORT CREAM 20 GM</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>GANATON 50 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>29.7000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>GAST-REG 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t>GLIFLOZAMET XR 25/1000 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>357.00</t>
-  </si>
-  <si>
-    <t>357.0000</t>
-  </si>
-  <si>
-    <t>HALONACE 5 MG 10 TABS.</t>
-  </si>
-  <si>
-    <t>17.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>LEVOTAVIN 750 MG 7 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>MICONAZ 2% ORAL GEL 20 GM</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>NETLOOK 20MG 20 SOFT GELATIN CAPS.</t>
-  </si>
-  <si>
-    <t>274.00</t>
-  </si>
-  <si>
-    <t>274.0000</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PREGNACARE 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>200.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>PROGEST 200MG 30 ORAL/VAGINAL CAPS</t>
-  </si>
-  <si>
-    <t>246.00</t>
-  </si>
-  <si>
-    <t>123.0000</t>
-  </si>
-  <si>
-    <t>SILDEN 50 MG 4 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>11.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STOPADOL  FORTE  SACHET</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>TORSERETIC 100MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>261.00</t>
-  </si>
-  <si>
-    <t>86.1300</t>
-  </si>
-  <si>
-    <t>URGINAFECT 5MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>53.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>VITACID C 1GM 12 EFF. TAB.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 50MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>50.4900</t>
-  </si>
-  <si>
-    <t>VOTRIAXONE 1 GM I.M VIAL</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>224.0000</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>XORAXON 1GM I.V. VIAL</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>X-TENSION PLUS 150/12.5MG 28 SCORED TAB.</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>اسيتون ايفا</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>الويز كبير بالاجنحه</t>
-  </si>
-  <si>
-    <t>16:0</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>46:0</t>
-  </si>
-  <si>
-    <t>جل رويال</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>93:0</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>حلق</t>
-  </si>
-  <si>
-    <t>22:0</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>رول اون ريكسونا25</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>شفاط ثدي الجو</t>
-  </si>
-  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
@@ -668,9 +689,6 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
   </si>
   <si>
@@ -680,7 +698,7 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 8:32 PM</t>
+    <t>Wednesday, 20 August, 2025 8:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1981,7 +1999,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1991,14 +2009,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2007,14 +2025,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2040,14 +2058,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2057,11 +2075,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2073,14 +2091,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2094,7 +2112,7 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2106,7 +2124,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2123,11 +2141,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2139,7 +2157,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2160,10 +2178,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>96</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>97</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2172,7 +2190,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2189,11 +2207,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2205,7 +2223,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2222,11 +2240,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2238,14 +2256,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2255,11 +2273,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2271,14 +2289,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2288,11 +2306,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2304,7 +2322,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2321,11 +2339,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2337,14 +2355,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2354,11 +2372,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2370,7 +2388,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2387,11 +2405,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2403,7 +2421,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2420,7 +2438,7 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2436,7 +2454,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2453,11 +2471,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2469,7 +2487,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2490,7 +2508,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2502,7 +2520,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2519,11 +2537,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2535,7 +2553,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2552,11 +2570,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2568,7 +2586,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2589,7 +2607,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2601,7 +2619,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2618,11 +2636,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2634,7 +2652,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2651,11 +2669,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2667,7 +2685,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2684,11 +2702,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2700,7 +2718,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2721,7 +2739,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>49</v>
@@ -2733,7 +2751,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2750,11 +2768,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2766,14 +2784,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2783,11 +2801,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2799,7 +2817,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2816,11 +2834,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2832,7 +2850,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2849,11 +2867,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2865,14 +2883,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2882,14 +2900,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2898,7 +2916,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2931,14 +2949,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2948,11 +2966,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2964,7 +2982,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2981,11 +2999,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -2997,7 +3015,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3014,11 +3032,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3030,7 +3048,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3047,11 +3065,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3063,7 +3081,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3080,11 +3098,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3096,7 +3114,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3129,14 +3147,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3146,11 +3164,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>49</v>
@@ -3162,14 +3180,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3245,11 +3263,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3377,11 +3395,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3443,7 +3461,7 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3513,7 +3531,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3612,7 +3630,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>198</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>211</v>
@@ -3645,10 +3663,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>48</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>105</v>
+        <v>214</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3657,14 +3675,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>216</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3674,14 +3692,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>179</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3690,14 +3708,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>215</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3707,14 +3725,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3723,14 +3741,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3740,14 +3758,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3756,14 +3774,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3773,11 +3791,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>147</v>
+        <v>223</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>148</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -3789,14 +3807,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3806,14 +3824,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3822,14 +3840,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3839,49 +3857,82 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>228</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>21</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>33</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>105</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
         <v>48</v>
       </c>
-      <c t="s" r="Q83" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>4428.0450000000001</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
-        <v>223</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
-        <v>224</v>
-      </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
-        <v>225</v>
-      </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c t="s" r="Q84" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>4484.0450000000001</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
+        <v>229</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
+        <v>230</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>231</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4275,10 +4326,15 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -698,7 +698,7 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 8:33 PM</t>
+    <t>Wednesday, 20 August, 2025 8:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ADOL 500MG 24 CAPLETS</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>32.00</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ALKAPRESS 5MG 20 TAB.</t>
   </si>
   <si>
@@ -449,12 +461,6 @@
     <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -560,6 +566,18 @@
     <t>4:0</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8384:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t>XORAXON 1GM I.V. VIAL</t>
   </si>
   <si>
@@ -641,9 +659,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>12:0</t>
   </si>
   <si>
@@ -698,7 +713,7 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 8:42 PM</t>
+    <t>Wednesday, 20 August, 2025 8:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1405,7 +1420,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1415,14 +1430,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1431,14 +1446,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1448,14 +1463,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1464,14 +1479,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1481,11 +1496,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>21</v>
@@ -1497,28 +1512,28 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1530,31 +1545,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1563,28 +1578,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1596,31 +1611,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1629,14 +1644,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1653,7 +1668,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1662,14 +1677,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1686,7 +1701,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1695,14 +1710,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1735,24 +1750,24 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1761,31 +1776,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1794,14 +1809,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1811,11 +1826,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1827,14 +1842,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1844,14 +1859,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1860,14 +1875,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1877,14 +1892,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1893,14 +1908,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1910,14 +1925,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1926,14 +1941,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1943,11 +1958,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1959,14 +1974,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1983,7 +1998,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1999,7 +2014,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2009,14 +2024,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2025,14 +2040,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2042,14 +2057,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2058,14 +2073,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2075,14 +2090,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2108,14 +2123,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2124,14 +2139,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2141,14 +2156,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2157,7 +2172,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2174,14 +2189,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2190,14 +2205,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2207,14 +2222,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2223,14 +2238,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2240,14 +2255,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2256,14 +2271,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2313,7 +2328,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2329,7 +2344,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2339,11 +2354,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2355,14 +2370,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2372,11 +2387,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2388,14 +2403,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2405,11 +2420,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2421,14 +2436,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2438,14 +2453,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2454,14 +2469,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2475,10 +2490,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2487,14 +2502,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2504,11 +2519,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2520,14 +2535,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2537,14 +2552,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2553,14 +2568,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2570,14 +2585,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2586,14 +2601,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2603,14 +2618,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2619,14 +2634,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2636,14 +2651,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2652,14 +2667,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2669,14 +2684,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2685,14 +2700,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2702,14 +2717,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2718,14 +2733,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2735,14 +2750,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2751,14 +2766,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2768,14 +2783,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2784,14 +2799,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2801,11 +2816,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2817,14 +2832,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2838,10 +2853,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2850,14 +2865,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2867,14 +2882,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2883,14 +2898,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2900,14 +2915,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2916,31 +2931,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2949,28 +2964,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>68</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2982,14 +2997,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2999,11 +3014,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3015,14 +3030,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3032,11 +3047,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3048,14 +3063,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3065,11 +3080,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3081,14 +3096,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3098,14 +3113,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3114,7 +3129,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3131,11 +3146,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>47</v>
+        <v>174</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>48</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3147,14 +3162,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3164,14 +3179,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>176</v>
+        <v>51</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>177</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3180,14 +3195,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3197,14 +3212,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>182</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3213,14 +3228,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>54</v>
+        <v>181</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3230,14 +3245,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q64" s="12">
         <v>184</v>
-      </c>
-      <c t="s" r="Q64" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3253,7 +3268,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>186</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3263,14 +3278,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3279,14 +3294,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>182</v>
+        <v>58</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3296,14 +3311,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3312,31 +3327,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>190</v>
+        <v>23</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3345,31 +3360,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3378,31 +3393,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3411,31 +3426,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3444,31 +3459,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>198</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3477,31 +3492,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>200</v>
+        <v>68</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>201</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3523,18 +3538,18 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>204</v>
+        <v>113</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>110</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3550,24 +3565,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>44</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3576,31 +3591,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>209</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>208</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3609,31 +3624,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>210</v>
+        <v>47</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>48</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>211</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3649,24 +3664,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>214</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3682,24 +3697,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>216</v>
+        <v>23</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>218</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>179</v>
+        <v>216</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3708,31 +3723,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>80</v>
+        <v>206</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3741,31 +3756,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>20</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>54</v>
+        <v>181</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3781,24 +3796,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>225</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>223</v>
+        <v>84</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3814,24 +3829,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>146</v>
+        <v>228</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>147</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3840,31 +3855,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>230</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>146</v>
+        <v>228</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3873,66 +3888,132 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>181</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>4484.0450000000001</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
-        <v>229</v>
-      </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
-        <v>230</v>
-      </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
-        <v>231</v>
-      </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>232</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>23</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>37</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>14</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>233</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>16</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>37</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>109</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>4501.0450000000001</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>234</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>235</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>236</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4331,10 +4412,20 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -272,102 +272,105 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>63.8400</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>FANGRARE SHOWER GEL 200 ML</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>FUCICORT CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>GANATON 50 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>63.8400</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>51.4800</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>FANGRARE SHOWER GEL 200 ML</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
-  </si>
-  <si>
-    <t>8:1</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>FUCICORT CREAM 20 GM</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>GANATON 50 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
     <t>90.00</t>
   </si>
   <si>
@@ -548,7 +551,7 @@
     <t>51.00</t>
   </si>
   <si>
-    <t>50.4900</t>
+    <t>67.3200</t>
   </si>
   <si>
     <t>VOTRIAXONE 1 GM I.M VIAL</t>
@@ -665,45 +668,48 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>شفاط ثدي الجو</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>فرشاه فوكس</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
     <t>30.0000</t>
   </si>
   <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>سرنجات انسولين</t>
-  </si>
-  <si>
-    <t>20:0</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>شفاط ثدي الجو</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>صابون ديتول اوريجنيال 115 جم</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>فرشاه فوكس</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
   </si>
   <si>
@@ -713,7 +719,7 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 8:44 PM</t>
+    <t>Wednesday, 20 August, 2025 8:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2080,7 +2086,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2094,10 +2100,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2106,14 +2112,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2123,11 +2129,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2139,14 +2145,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2160,7 +2166,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>18</v>
@@ -2172,7 +2178,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2189,11 +2195,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2205,7 +2211,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2226,10 +2232,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2410,7 +2416,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2420,11 +2426,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2436,7 +2442,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2453,11 +2459,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2469,7 +2475,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2486,7 +2492,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2502,7 +2508,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2519,11 +2525,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2535,7 +2541,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2556,7 +2562,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2568,7 +2574,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2585,11 +2591,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2601,7 +2607,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2618,11 +2624,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2634,7 +2640,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2655,7 +2661,7 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2667,7 +2673,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2684,11 +2690,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2700,7 +2706,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2717,11 +2723,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2733,7 +2739,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2750,11 +2756,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2766,7 +2772,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2787,7 +2793,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>53</v>
@@ -2799,7 +2805,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2832,14 +2838,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2849,11 +2855,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2865,7 +2871,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2882,11 +2888,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2898,7 +2904,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2915,11 +2921,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2931,14 +2937,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2948,14 +2954,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2964,7 +2970,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2997,14 +3003,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3014,11 +3020,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3030,7 +3036,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3047,11 +3053,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3063,7 +3069,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3080,11 +3086,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3096,7 +3102,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3113,11 +3119,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3129,7 +3135,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3146,11 +3152,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3162,7 +3168,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3195,14 +3201,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3212,14 +3218,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>53</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3228,14 +3234,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3245,14 +3251,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3261,14 +3267,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3278,11 +3284,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3294,7 +3300,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3311,11 +3317,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3327,7 +3333,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3344,11 +3350,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3360,14 +3366,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3377,11 +3383,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3393,14 +3399,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3426,14 +3432,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3459,14 +3465,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3492,7 +3498,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3525,14 +3531,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3546,7 +3552,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3558,7 +3564,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3575,11 +3581,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3591,14 +3597,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3608,7 +3614,7 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -3624,7 +3630,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3657,7 +3663,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3674,11 +3680,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3690,7 +3696,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3707,14 +3713,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>52</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3723,7 +3729,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3740,14 +3746,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3756,14 +3762,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3773,14 +3779,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3789,7 +3795,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3810,7 +3816,7 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3822,14 +3828,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3839,7 +3845,7 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
@@ -3855,14 +3861,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3872,11 +3878,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3888,14 +3894,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3921,7 +3927,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -3942,7 +3948,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>58</v>
@@ -3954,7 +3960,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -3983,13 +3989,13 @@
     </row>
     <row r="87" ht="25.5" customHeight="1">
       <c r="P87" s="13">
-        <v>4501.0450000000001</v>
+        <v>4532.7550000000001</v>
       </c>
       <c r="Q87" s="13"/>
     </row>
     <row r="88" ht="16.5" customHeight="1">
       <c t="s" r="A88" s="14">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -3997,13 +4003,13 @@
       <c r="E88" s="14"/>
       <c r="F88" s="14"/>
       <c t="s" r="G88" s="15">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H88" s="15"/>
       <c r="I88" s="15"/>
       <c r="J88" s="16"/>
       <c t="s" r="K88" s="17">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L88" s="17"/>
       <c r="M88" s="17"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -182,6 +182,15 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>CARLA EXTRA 30 TAB</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -272,48 +281,48 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>23.7600</t>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>63.8400</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>51.4800</t>
   </si>
   <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>63.8400</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>51.4800</t>
-  </si>
-  <si>
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -422,6 +431,15 @@
     <t>17.0000</t>
   </si>
   <si>
+    <t>KAPRON 500MG/5ML 6 I.V. AMP.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
     <t>KETOLAC 10MG 20 TAB</t>
   </si>
   <si>
@@ -500,6 +518,15 @@
     <t>11.0000</t>
   </si>
   <si>
+    <t>SOFENACIN 5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>141.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">STOPADOL  FORTE  SACHET</t>
   </si>
   <si>
@@ -548,18 +575,18 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>67.3200</t>
+    <t>84.1500</t>
   </si>
   <si>
     <t>VOTRIAXONE 1 GM I.M VIAL</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>56.00</t>
   </si>
   <si>
@@ -668,10 +695,10 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>11:0</t>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>13:0</t>
   </si>
   <si>
     <t>سرنجات انسولين</t>
@@ -716,10 +743,13 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 8:45 PM</t>
+    <t>Wednesday, 20 August, 2025 8:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1756,7 +1786,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1766,14 +1796,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1782,20 +1812,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1822,13 +1852,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1855,7 +1885,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1872,7 +1902,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1888,7 +1918,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1902,10 +1932,10 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1914,14 +1944,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1931,14 +1961,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1954,7 +1984,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1964,11 +1994,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1980,14 +2010,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1997,14 +2027,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2020,7 +2050,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2030,11 +2060,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -2046,14 +2076,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2070,7 +2100,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2086,7 +2116,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2096,14 +2126,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>88</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2119,7 +2149,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2129,14 +2159,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2145,14 +2175,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2162,14 +2192,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2178,14 +2208,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2195,14 +2225,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2211,14 +2241,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2228,14 +2258,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2251,7 +2281,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2261,14 +2291,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>103</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2284,7 +2314,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2317,7 +2347,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2327,14 +2357,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2343,14 +2373,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2360,11 +2390,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2376,14 +2406,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2400,7 +2430,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2416,7 +2446,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2426,14 +2456,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2442,14 +2472,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2466,7 +2496,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2482,7 +2512,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2492,14 +2522,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2508,14 +2538,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2525,14 +2555,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2548,7 +2578,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2558,14 +2588,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2574,7 +2604,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2591,7 +2621,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2657,11 +2687,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2673,14 +2703,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2690,14 +2720,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2706,14 +2736,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2723,7 +2753,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>30</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2789,14 +2819,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2805,14 +2835,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2822,11 +2852,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>15</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2838,14 +2868,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2855,14 +2885,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2871,14 +2901,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2888,14 +2918,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2911,7 +2941,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2921,11 +2951,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2944,7 +2974,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2954,14 +2984,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2977,24 +3007,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3003,14 +3033,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3020,14 +3050,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3036,14 +3066,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3053,11 +3083,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3069,31 +3099,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>170</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3102,14 +3132,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3119,14 +3149,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3135,14 +3165,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3152,11 +3182,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3175,7 +3205,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3185,11 +3215,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>52</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3201,14 +3231,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3218,14 +3248,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3234,14 +3264,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3251,14 +3281,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>185</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3274,7 +3304,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3284,14 +3314,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>51</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3300,14 +3330,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>58</v>
+        <v>188</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3317,14 +3347,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3333,14 +3363,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3350,14 +3380,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3366,14 +3396,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3383,11 +3413,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3399,28 +3429,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>197</v>
+        <v>61</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>68</v>
+        <v>192</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>69</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3432,28 +3462,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>25</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3465,28 +3495,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3498,14 +3528,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>23</v>
+        <v>206</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3515,11 +3545,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3531,14 +3561,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3548,11 +3578,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>205</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3564,14 +3594,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3581,11 +3611,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3597,14 +3627,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>210</v>
+        <v>23</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3614,11 +3644,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>211</v>
+        <v>71</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3637,7 +3667,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3647,11 +3677,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>48</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3663,7 +3693,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3680,11 +3710,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3696,14 +3726,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>23</v>
+        <v>219</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3713,14 +3743,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>217</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3729,14 +3759,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3746,14 +3776,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>207</v>
+        <v>47</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>219</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>220</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3762,14 +3792,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>222</v>
+        <v>23</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3786,7 +3816,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>182</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3802,7 +3832,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3812,14 +3842,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>84</v>
+        <v>197</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q81" s="12">
         <v>226</v>
-      </c>
-      <c t="s" r="Q81" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3835,7 +3865,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>228</v>
+        <v>23</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3845,14 +3875,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>25</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>58</v>
+        <v>229</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3878,14 +3908,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>188</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3894,14 +3924,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3911,11 +3941,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>15</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3927,14 +3957,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>23</v>
+        <v>237</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3944,14 +3974,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>232</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3960,14 +3990,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -3977,49 +4007,148 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>242</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>188</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>37</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>14</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>243</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>23</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>37</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>14</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>244</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>245</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>16</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>37</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>112</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
         <v>52</v>
       </c>
-      <c t="s" r="Q86" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>4532.7550000000001</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
-        <v>236</v>
-      </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
-        <v>237</v>
-      </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
-        <v>238</v>
-      </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c t="s" r="Q89" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>4846.8649999999998</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
+        <v>246</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
+        <v>247</v>
+      </c>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
+        <v>248</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4428,10 +4557,25 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -116,6 +116,18 @@
     <t>102.0000</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANTODINE20    6 AMP</t>
   </si>
   <si>
@@ -125,12 +137,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>12.4800</t>
-  </si>
-  <si>
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
@@ -431,6 +437,18 @@
     <t>17.0000</t>
   </si>
   <si>
+    <t>IMIPRAMINE 25MG 50 TAB.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>52.50</t>
+  </si>
+  <si>
+    <t>52.5000</t>
+  </si>
+  <si>
     <t>KAPRON 500MG/5ML 6 I.V. AMP.</t>
   </si>
   <si>
@@ -512,9 +530,6 @@
     <t>SILDEN 50 MG 4 F.C. TABS.</t>
   </si>
   <si>
-    <t>1:3</t>
-  </si>
-  <si>
     <t>11.0000</t>
   </si>
   <si>
@@ -689,7 +704,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>12:0</t>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>13:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -698,9 +716,6 @@
     <t>39.0000</t>
   </si>
   <si>
-    <t>13:0</t>
-  </si>
-  <si>
     <t>سرنجات انسولين</t>
   </si>
   <si>
@@ -749,7 +764,7 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 8:49 PM</t>
+    <t>Wednesday, 20 August, 2025 8:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1594,15 +1609,15 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1614,28 +1629,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1647,31 +1662,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1680,7 +1695,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1693,15 +1708,15 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1713,14 +1728,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1730,14 +1745,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1746,14 +1761,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1763,14 +1778,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1779,14 +1794,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1796,11 +1811,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1812,14 +1827,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1829,14 +1844,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1845,28 +1860,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1878,28 +1893,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1911,14 +1926,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1928,14 +1943,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1944,14 +1959,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1961,14 +1976,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1984,7 +1999,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1998,10 +2013,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2010,14 +2025,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2027,11 +2042,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2043,14 +2058,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2060,14 +2075,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2076,14 +2091,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2093,11 +2108,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -2109,14 +2124,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2126,14 +2141,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2142,14 +2157,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2159,14 +2174,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2182,7 +2197,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2192,14 +2207,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2208,14 +2223,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2225,14 +2240,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2241,14 +2256,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2258,14 +2273,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2274,14 +2289,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2291,14 +2306,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2307,14 +2322,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2324,14 +2339,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2340,14 +2355,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2357,11 +2372,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2373,14 +2388,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2390,14 +2405,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2406,14 +2421,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2423,11 +2438,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2439,14 +2454,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2456,14 +2471,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2472,14 +2487,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2489,14 +2504,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2505,14 +2520,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2522,14 +2537,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2538,14 +2553,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2555,14 +2570,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2571,14 +2586,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2588,14 +2603,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2604,14 +2619,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2621,14 +2636,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2654,11 +2669,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2670,7 +2685,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2687,11 +2702,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2703,14 +2718,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2720,14 +2735,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2736,14 +2751,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2753,11 +2768,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2769,14 +2784,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2786,14 +2801,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2802,14 +2817,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2819,7 +2834,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2885,14 +2900,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2901,14 +2916,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2918,11 +2933,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2934,14 +2949,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2951,14 +2966,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2967,14 +2982,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2984,14 +2999,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3007,7 +3022,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3017,11 +3032,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3040,7 +3055,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>167</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3050,14 +3065,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>103</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3073,7 +3088,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3090,7 +3105,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3106,24 +3121,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>72</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3132,14 +3147,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3149,14 +3164,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3165,28 +3180,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>149</v>
+        <v>73</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3198,14 +3213,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3215,11 +3230,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3231,14 +3246,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3248,11 +3263,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3264,7 +3279,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3281,14 +3296,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3297,14 +3312,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3314,14 +3329,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>51</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>52</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3330,14 +3345,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>188</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3354,7 +3369,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>122</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3370,7 +3385,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>188</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3380,14 +3395,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>53</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>194</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3396,14 +3411,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3413,14 +3428,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3429,14 +3444,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>61</v>
+        <v>193</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3446,14 +3461,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3462,14 +3477,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3479,11 +3494,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>147</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3495,14 +3510,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>194</v>
+        <v>63</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3512,11 +3527,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3528,28 +3543,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>206</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3568,21 +3583,21 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>24</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>25</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3594,28 +3609,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3627,28 +3642,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>23</v>
+        <v>213</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3660,28 +3675,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>214</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3693,7 +3708,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3706,15 +3721,15 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>216</v>
+        <v>73</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3726,28 +3741,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>118</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>117</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3759,28 +3774,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>47</v>
+        <v>221</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>48</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3792,28 +3807,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>23</v>
+        <v>224</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3825,31 +3840,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>197</v>
+        <v>49</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>226</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3871,18 +3886,18 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>229</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3898,24 +3913,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>231</v>
+        <v>23</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>188</v>
+        <v>232</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3924,31 +3939,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>87</v>
+        <v>221</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>232</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3957,31 +3972,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>25</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>61</v>
+        <v>193</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3997,21 +4012,21 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>240</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>238</v>
+        <v>89</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4023,31 +4038,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>14</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4056,31 +4071,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>23</v>
+        <v>245</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>14</v>
+        <v>243</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>188</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4089,66 +4104,132 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>193</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>4846.8649999999998</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
-        <v>246</v>
-      </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
-        <v>247</v>
-      </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
         <v>248</v>
       </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>23</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>41</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>14</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>250</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>16</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>41</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>114</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>4913.8450000000003</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>251</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>252</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>253</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4572,10 +4653,20 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -116,6 +116,18 @@
     <t>102.0000</t>
   </si>
   <si>
+    <t>ANALLERGE 4 MG 60 TAB.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>9.9000</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -503,9 +515,6 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -740,9 +749,6 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t>فرشاه فوكس</t>
   </si>
   <si>
@@ -764,7 +770,7 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 8:52 PM</t>
+    <t>Wednesday, 20 August, 2025 8:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1642,15 +1648,15 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1662,28 +1668,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1695,31 +1701,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1728,7 +1734,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1741,15 +1747,15 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1761,14 +1767,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1785,7 +1791,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1794,14 +1800,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1818,7 +1824,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1827,14 +1833,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1844,11 +1850,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1860,14 +1866,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1884,7 +1890,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1900,21 +1906,21 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1926,28 +1932,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1959,14 +1965,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1976,14 +1982,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1992,14 +1998,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2009,14 +2015,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2025,14 +2031,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2042,14 +2048,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2058,14 +2064,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2075,11 +2081,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2091,14 +2097,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2108,14 +2114,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2124,14 +2130,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2164,7 +2170,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2174,14 +2180,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2190,14 +2196,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2207,14 +2213,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2223,14 +2229,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2240,14 +2246,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2273,14 +2279,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2289,14 +2295,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2306,14 +2312,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2322,14 +2328,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2339,14 +2345,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2355,14 +2361,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2372,14 +2378,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2388,14 +2394,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2405,11 +2411,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2421,14 +2427,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2445,7 +2451,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2494,7 +2500,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2504,14 +2510,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2520,14 +2526,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2544,7 +2550,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2560,7 +2566,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2570,14 +2576,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2586,14 +2592,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2603,14 +2609,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2619,14 +2625,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2640,10 +2646,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2652,14 +2658,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2669,14 +2675,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2685,7 +2691,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2702,11 +2708,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2718,7 +2724,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2735,11 +2741,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2751,14 +2757,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2801,14 +2807,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2817,14 +2823,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2834,14 +2840,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2850,7 +2856,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2867,11 +2873,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2883,14 +2889,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2900,11 +2906,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2916,14 +2922,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2933,11 +2939,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2949,14 +2955,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2966,14 +2972,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2982,14 +2988,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2999,14 +3005,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3015,14 +3021,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>56</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3032,14 +3038,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3048,14 +3054,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3065,11 +3071,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3088,7 +3094,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3121,7 +3127,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3131,14 +3137,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>105</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3147,14 +3153,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3164,14 +3170,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3193,15 +3199,15 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>73</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3213,31 +3219,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3253,7 +3259,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3263,14 +3269,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3279,14 +3285,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3296,14 +3302,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3319,7 +3325,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3336,7 +3342,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3352,7 +3358,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3385,7 +3391,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3395,14 +3401,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>54</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3411,14 +3417,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3428,14 +3434,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>57</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>124</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3444,14 +3450,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3468,7 +3474,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>199</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3477,14 +3483,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3494,14 +3500,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3510,14 +3516,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>63</v>
+        <v>204</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3527,11 +3533,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3543,14 +3549,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3560,11 +3566,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3576,14 +3582,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3593,11 +3599,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3616,21 +3622,21 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>73</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>74</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3642,28 +3648,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3675,28 +3681,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3708,28 +3714,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>23</v>
+        <v>218</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3741,28 +3747,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>218</v>
+        <v>23</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3781,17 +3787,17 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -3814,21 +3820,21 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>224</v>
+        <v>23</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>119</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3847,21 +3853,21 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>85</v>
+        <v>227</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>49</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3873,28 +3879,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>228</v>
+        <v>53</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>229</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3919,18 +3925,18 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>232</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3952,18 +3958,18 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3972,31 +3978,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>236</v>
+        <v>23</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>193</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4005,31 +4011,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>196</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4038,31 +4044,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>242</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>93</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>25</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4084,18 +4090,18 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>243</v>
+        <v>37</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4104,28 +4110,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>15</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4137,20 +4143,20 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
@@ -4158,10 +4164,10 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>249</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>193</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4177,59 +4183,92 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>54</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>196</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>4913.8450000000003</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
-        <v>251</v>
-      </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
         <v>252</v>
       </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>16</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>45</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>118</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>4923.7449999999999</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
         <v>253</v>
       </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>254</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>255</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4663,10 +4702,15 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -770,7 +770,7 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 8:53 PM</t>
+    <t>Wednesday, 20 August, 2025 9:08 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -503,6 +503,15 @@
     <t>274.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">OCUSEELLERGE 0.1 FORTE  DROPS</t>
+  </si>
+  <si>
+    <t>44.50</t>
+  </si>
+  <si>
+    <t>44.5000</t>
+  </si>
+  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -770,7 +779,7 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 9:08 PM</t>
+    <t>Wednesday, 20 August, 2025 9:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2995,24 +3004,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3021,14 +3030,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3038,14 +3047,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3054,14 +3063,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3071,14 +3080,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3087,14 +3096,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3104,11 +3113,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3127,7 +3136,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3160,7 +3169,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3170,14 +3179,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>109</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3186,14 +3195,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3203,14 +3212,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3232,15 +3241,15 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3252,31 +3261,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3292,7 +3301,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3302,14 +3311,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3318,14 +3327,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3335,14 +3344,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3358,7 +3367,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3375,7 +3384,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3391,7 +3400,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3424,7 +3433,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3434,14 +3443,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>57</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>58</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3450,14 +3459,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>196</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3467,14 +3476,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>57</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>128</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3483,14 +3492,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3507,7 +3516,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>202</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3516,14 +3525,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3533,14 +3542,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>205</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3549,14 +3558,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>67</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3566,11 +3575,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3582,14 +3591,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3599,11 +3608,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3615,14 +3624,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>202</v>
+        <v>23</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3632,11 +3641,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3655,21 +3664,21 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>78</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3681,14 +3690,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3698,11 +3707,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3714,14 +3723,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3731,11 +3740,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3747,14 +3756,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3764,11 +3773,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3780,14 +3789,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>221</v>
+        <v>23</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3797,11 +3806,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3820,7 +3829,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>23</v>
+        <v>224</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3830,7 +3839,7 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>122</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -3853,7 +3862,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>227</v>
+        <v>23</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3863,11 +3872,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3886,7 +3895,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>89</v>
+        <v>230</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3896,11 +3905,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>53</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3912,14 +3921,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3929,11 +3938,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>231</v>
+        <v>53</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>232</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3962,14 +3971,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>235</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3995,14 +4004,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4011,14 +4020,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>239</v>
+        <v>23</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4028,14 +4037,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>196</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4044,14 +4053,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>242</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4061,14 +4070,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>93</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4077,14 +4086,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>245</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4094,14 +4103,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>25</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4110,14 +4119,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4131,10 +4140,10 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>248</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4150,7 +4159,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4160,11 +4169,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>15</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4176,14 +4185,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4197,10 +4206,10 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>251</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>196</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4209,14 +4218,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4226,49 +4235,82 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
+        <v>254</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>255</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>16</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>45</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>118</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
         <v>58</v>
       </c>
-      <c t="s" r="Q92" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>4923.7449999999999</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
-        <v>253</v>
-      </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
-        <v>254</v>
-      </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
-        <v>255</v>
-      </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c t="s" r="Q93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="P94" s="13">
+        <v>4968.2449999999999</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
+        <v>256</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
+        <v>257</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
+        <v>258</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4707,10 +4749,15 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -98,6 +98,15 @@
     <t>87.0000</t>
   </si>
   <si>
+    <t>ALKAPRIDE 50 MG 30 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
     <t>ALLERBAN S.R. 2 MG 20 TABS.</t>
   </si>
   <si>
@@ -116,6 +125,15 @@
     <t>102.0000</t>
   </si>
   <si>
+    <t>AMOCEREBRAL PLUS 20/40 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>ANALLERGE 4 MG 60 TAB.</t>
   </si>
   <si>
@@ -200,6 +218,9 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">CAPOTEN 25MG  20TAB</t>
+  </si>
+  <si>
     <t>CARLA EXTRA 30 TAB</t>
   </si>
   <si>
@@ -281,12 +302,6 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
     <t>DEPO-PEN 1.2 MIU VIAL.</t>
   </si>
   <si>
@@ -323,6 +338,15 @@
     <t>63.8400</t>
   </si>
   <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
     <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -398,12 +422,6 @@
     <t>1:2</t>
   </si>
   <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>29.7000</t>
-  </si>
-  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -593,6 +611,15 @@
     <t>53.0000</t>
   </si>
   <si>
+    <t>VERSERC 16MG 30 TAB</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
     <t>VITACID C 1GM 12 EFF. TAB.</t>
   </si>
   <si>
@@ -779,7 +806,7 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 9:11 PM</t>
+    <t>Wednesday, 20 August, 2025 9:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1552,7 +1579,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1585,7 +1612,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1602,7 +1629,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1618,7 +1645,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1628,14 +1655,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1644,14 +1671,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1661,11 +1688,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1677,28 +1704,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1710,14 +1737,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1750,24 +1777,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1783,7 +1810,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1800,7 +1827,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1816,24 +1843,24 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1842,14 +1869,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1859,11 +1886,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1875,14 +1902,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1892,14 +1919,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>65</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1915,7 +1942,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1925,14 +1952,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1941,7 +1968,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1954,15 +1981,15 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1974,14 +2001,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1991,14 +2018,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2007,14 +2034,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2024,14 +2051,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2040,31 +2067,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2073,14 +2100,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2090,14 +2117,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2106,14 +2133,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2123,11 +2150,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2139,14 +2166,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2156,14 +2183,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2179,7 +2206,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2189,14 +2216,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2205,14 +2232,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2222,14 +2249,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2238,14 +2265,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2255,14 +2282,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2271,14 +2298,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2288,11 +2315,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2304,14 +2331,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2321,14 +2348,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2337,14 +2364,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2354,14 +2381,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2370,14 +2397,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2387,14 +2414,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>109</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2403,14 +2430,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2420,14 +2447,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2436,7 +2463,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2453,14 +2480,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2469,14 +2496,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2486,14 +2513,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2502,14 +2529,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2519,14 +2546,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2535,14 +2562,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2552,11 +2579,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2568,14 +2595,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2585,14 +2612,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2601,14 +2628,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2618,14 +2645,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2634,14 +2661,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2651,14 +2678,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2667,14 +2694,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2684,14 +2711,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2700,14 +2727,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2717,14 +2744,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2733,14 +2760,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2750,11 +2777,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2766,14 +2793,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2783,14 +2810,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2799,14 +2826,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2816,14 +2843,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2832,14 +2859,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2849,14 +2876,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2865,7 +2892,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2882,11 +2909,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2898,7 +2925,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2915,11 +2942,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2931,14 +2958,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2948,11 +2975,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2964,14 +2991,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2981,14 +3008,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2997,7 +3024,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3010,15 +3037,15 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3030,14 +3057,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3047,14 +3074,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3063,14 +3090,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3080,11 +3107,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3096,14 +3123,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3113,14 +3140,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3129,7 +3156,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3142,18 +3169,18 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3162,7 +3189,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3179,14 +3206,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3195,14 +3222,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3212,14 +3239,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3228,14 +3255,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3245,14 +3272,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3261,7 +3288,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3274,18 +3301,18 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3294,14 +3321,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3311,11 +3338,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3327,14 +3354,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3344,14 +3371,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3360,14 +3387,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3377,14 +3404,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3393,7 +3420,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3406,15 +3433,15 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3426,14 +3453,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3443,14 +3470,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3459,14 +3486,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3476,14 +3503,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>57</v>
+        <v>165</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>58</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3492,14 +3519,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3509,14 +3536,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>128</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3525,14 +3552,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3542,14 +3569,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>205</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3558,14 +3585,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3575,14 +3602,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3591,14 +3618,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3608,11 +3635,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3624,14 +3651,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3641,14 +3668,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>156</v>
+        <v>63</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>157</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3657,14 +3684,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3674,14 +3701,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3690,31 +3717,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>214</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3723,28 +3750,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>25</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3756,28 +3783,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>15</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3789,7 +3816,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3802,15 +3829,15 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3822,28 +3849,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>122</v>
+        <v>223</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3855,28 +3882,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>23</v>
+        <v>226</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>84</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3888,28 +3915,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>24</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3921,28 +3948,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>89</v>
+        <v>230</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3954,7 +3981,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3967,15 +3994,15 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>234</v>
+        <v>84</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3987,31 +4014,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>23</v>
+        <v>233</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>208</v>
+        <v>130</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>238</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4020,7 +4047,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4033,18 +4060,18 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>238</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4053,31 +4080,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>199</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4086,28 +4113,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4119,31 +4146,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>248</v>
+        <v>23</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>25</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4152,31 +4179,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>250</v>
+        <v>23</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>37</v>
+        <v>217</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>247</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4185,31 +4212,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>14</v>
+        <v>236</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>247</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4218,31 +4245,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>23</v>
+        <v>251</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>14</v>
+        <v>252</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4251,7 +4278,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4264,53 +4291,218 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>58</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>4968.2449999999999</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
         <v>256</v>
       </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
         <v>257</v>
       </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>51</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>43</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
         <v>258</v>
       </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>259</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>51</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>43</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>261</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>208</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>51</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>14</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>262</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>23</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>51</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>14</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>263</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>264</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>16</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>51</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>126</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>5105.0349999999999</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>265</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>266</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>267</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4754,10 +4946,35 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -338,6 +338,12 @@
     <t>63.8400</t>
   </si>
   <si>
+    <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
   </si>
   <si>
@@ -479,6 +485,18 @@
     <t>52.5000</t>
   </si>
   <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>KAPRON 500MG/5ML 6 I.V. AMP.</t>
   </si>
   <si>
@@ -512,6 +530,21 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>MR. BEAR PLUS SYRUP 160 ML</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>MUCOPHYLLINE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
     <t>NETLOOK 20MG 20 SOFT GELATIN CAPS.</t>
   </si>
   <si>
@@ -635,13 +668,10 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>84.1500</t>
+    <t>100.9800</t>
   </si>
   <si>
     <t>VOTRIAXONE 1 GM I.M VIAL</t>
@@ -749,18 +779,21 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>26.0000</t>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>39.0000</t>
   </si>
   <si>
     <t>13:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
     <t>سرنجات انسولين</t>
   </si>
   <si>
@@ -782,15 +815,9 @@
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
-    <t>14:0</t>
-  </si>
-  <si>
     <t>فرشاه فوكس</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>30.0000</t>
   </si>
   <si>
@@ -798,9 +825,6 @@
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>45.0000</t>
   </si>
   <si>
     <t>محلول رينجر</t>
@@ -2470,7 +2494,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2484,10 +2508,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2496,14 +2520,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2513,14 +2537,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2529,14 +2553,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2546,14 +2570,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>117</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2562,14 +2586,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2579,14 +2603,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2595,14 +2619,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2612,11 +2636,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2628,14 +2652,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2645,14 +2669,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2661,14 +2685,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2678,11 +2702,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2694,14 +2718,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2711,14 +2735,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2727,14 +2751,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2744,14 +2768,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2767,7 +2791,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2777,14 +2801,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2793,14 +2817,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2810,14 +2834,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2826,14 +2850,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2843,14 +2867,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2859,14 +2883,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2876,14 +2900,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2909,11 +2933,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2925,7 +2949,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2942,11 +2966,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2958,14 +2982,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>153</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2975,11 +2999,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2991,14 +3015,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3008,14 +3032,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3024,14 +3048,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3041,11 +3065,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3057,14 +3081,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>163</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3074,14 +3098,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3090,14 +3114,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3107,7 +3131,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3163,13 +3187,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3196,7 +3220,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3206,14 +3230,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3222,14 +3246,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>62</v>
+        <v>177</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3239,11 +3263,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3255,14 +3279,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3272,14 +3296,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3288,7 +3312,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3301,18 +3325,18 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3321,7 +3345,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3338,14 +3362,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>84</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3354,14 +3378,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3371,14 +3395,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>185</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>117</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3387,14 +3411,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3404,14 +3428,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3433,18 +3457,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>84</v>
+        <v>190</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>85</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3453,14 +3477,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3470,11 +3494,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3486,14 +3510,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3503,14 +3527,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3519,14 +3543,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3536,14 +3560,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3552,7 +3576,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3565,15 +3589,15 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>198</v>
+        <v>84</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>199</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3585,14 +3609,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3602,11 +3626,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3618,14 +3642,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3635,11 +3659,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3651,14 +3675,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3668,11 +3692,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>64</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3684,14 +3708,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3708,7 +3732,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>136</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3724,7 +3748,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>208</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3741,7 +3765,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>214</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3750,14 +3774,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>216</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3767,11 +3791,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3783,14 +3807,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3800,14 +3824,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>212</v>
+        <v>63</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>220</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3816,14 +3840,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>23</v>
+        <v>163</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3833,14 +3857,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>162</v>
+        <v>219</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3849,14 +3873,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>214</v>
+        <v>159</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3866,14 +3890,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
+        <v>223</v>
+      </c>
+      <c t="s" r="Q80" s="12">
         <v>224</v>
-      </c>
-      <c t="s" r="Q80" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3895,15 +3919,15 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>84</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>85</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3915,28 +3939,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>228</v>
+        <v>74</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>24</v>
+        <v>222</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>25</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3948,28 +3972,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>230</v>
+        <v>23</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3981,28 +4005,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>23</v>
+        <v>224</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>84</v>
+        <v>233</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>85</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4014,14 +4038,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4031,11 +4055,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>234</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4047,14 +4071,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>23</v>
+        <v>238</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4064,11 +4088,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>236</v>
+        <v>24</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>237</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4080,14 +4104,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4097,11 +4121,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>240</v>
+        <v>14</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4120,7 +4144,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4130,11 +4154,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4153,7 +4177,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>23</v>
+        <v>243</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4163,7 +4187,7 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>243</v>
+        <v>132</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
@@ -4196,14 +4220,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>247</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4219,7 +4243,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>23</v>
+        <v>249</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4229,14 +4253,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>249</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>247</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4245,14 +4269,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>251</v>
+        <v>96</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4262,14 +4286,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>252</v>
+        <v>59</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>253</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>208</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4278,14 +4302,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4295,11 +4319,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>98</v>
+        <v>253</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4311,14 +4335,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>257</v>
+        <v>23</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4328,14 +4352,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>43</v>
+        <v>227</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>25</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>74</v>
+        <v>257</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4351,7 +4375,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>259</v>
+        <v>23</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4361,14 +4385,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>43</v>
+        <v>246</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
+        <v>259</v>
+      </c>
+      <c t="s" r="Q95" s="12">
         <v>260</v>
-      </c>
-      <c t="s" r="Q95" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4384,7 +4408,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4394,14 +4418,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>14</v>
+        <v>263</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>15</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>159</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4410,14 +4434,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4427,14 +4451,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>208</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4443,14 +4467,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>257</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4460,49 +4484,181 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>268</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>177</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>51</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>43</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>269</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>270</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>159</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>51</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>14</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>271</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>23</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>51</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>14</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>272</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>16</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>51</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>128</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
         <v>64</v>
       </c>
-      <c t="s" r="Q98" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>5105.0349999999999</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
-        <v>265</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
-        <v>266</v>
-      </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
-        <v>267</v>
-      </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c t="s" r="Q102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="P103" s="13">
+        <v>5443.8649999999998</v>
+      </c>
+      <c r="Q103" s="13"/>
+    </row>
+    <row r="104" ht="16.5" customHeight="1">
+      <c t="s" r="A104" s="14">
+        <v>273</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c t="s" r="G104" s="15">
+        <v>274</v>
+      </c>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c t="s" r="K104" s="17">
+        <v>275</v>
+      </c>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="492">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4971,10 +5127,30 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="K104:Q104"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -830,7 +830,7 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 9:13 PM</t>
+    <t>Wednesday, 20 August, 2025 9:14 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -830,7 +830,7 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 9:14 PM</t>
+    <t>Wednesday, 20 August, 2025 9:19 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -161,12 +161,18 @@
     <t xml:space="preserve">ANTODINE20    6 AMP</t>
   </si>
   <si>
-    <t>5:1</t>
+    <t>4:4</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
@@ -365,9 +371,6 @@
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
-    <t>51.4800</t>
-  </si>
-  <si>
     <t>0:2</t>
   </si>
   <si>
@@ -554,6 +557,15 @@
     <t>274.0000</t>
   </si>
   <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">OCUSEELLERGE 0.1 FORTE  DROPS</t>
   </si>
   <si>
@@ -596,6 +608,18 @@
     <t>123.0000</t>
   </si>
   <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
     <t>SILDEN 50 MG 4 F.C. TABS.</t>
   </si>
   <si>
@@ -707,6 +731,15 @@
     <t>X-TENSION PLUS 150/12.5MG 28 SCORED TAB.</t>
   </si>
   <si>
+    <t>ZURCAL 20 MG 14 GASTRO-RESISTANT TABS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>40.5000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -779,42 +812,42 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>28.0000</t>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>شفاط ثدي الجو</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
     <t>14:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>سرنجات انسولين</t>
-  </si>
-  <si>
-    <t>20:0</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>شفاط ثدي الجو</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>صابون ديتول اوريجنيال 115 جم</t>
-  </si>
-  <si>
     <t>فرشاه فوكس</t>
   </si>
   <si>
@@ -830,7 +863,7 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 9:19 PM</t>
+    <t>Wednesday, 20 August, 2025 9:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1815,10 +1848,10 @@
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1827,7 +1860,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1844,11 +1877,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1860,7 +1893,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1877,11 +1910,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1893,7 +1926,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1910,11 +1943,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1926,14 +1959,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1943,14 +1976,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1959,7 +1992,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1976,11 +2009,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1992,7 +2025,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2025,7 +2058,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2042,11 +2075,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2058,14 +2091,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2075,11 +2108,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -2091,7 +2124,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2108,11 +2141,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -2124,7 +2157,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2141,11 +2174,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -2157,7 +2190,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2174,11 +2207,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2190,14 +2223,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2207,11 +2240,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>18</v>
@@ -2223,14 +2256,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2240,11 +2273,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2256,7 +2289,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2273,11 +2306,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2289,7 +2322,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2306,11 +2339,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2322,14 +2355,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2355,14 +2388,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2372,14 +2405,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2388,14 +2421,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2409,10 +2442,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2421,14 +2454,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2438,11 +2471,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2454,14 +2487,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2471,11 +2504,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>18</v>
@@ -2487,7 +2520,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2504,11 +2537,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2520,7 +2553,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2537,11 +2570,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2553,7 +2586,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2570,11 +2603,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2586,7 +2619,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2607,10 +2640,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2619,7 +2652,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2636,11 +2669,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2652,7 +2685,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2669,11 +2702,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2685,14 +2718,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2702,11 +2735,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2718,14 +2751,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2735,11 +2768,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2751,7 +2784,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2768,11 +2801,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2784,14 +2817,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2817,14 +2850,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2834,11 +2867,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2850,7 +2883,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2867,14 +2900,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2883,14 +2916,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2900,11 +2933,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2916,7 +2949,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2933,11 +2966,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2949,7 +2982,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2966,11 +2999,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2982,7 +3015,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2999,11 +3032,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3015,14 +3048,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3032,11 +3065,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3048,14 +3081,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3065,11 +3098,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3081,14 +3114,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3102,7 +3135,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3114,7 +3147,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3135,7 +3168,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3147,7 +3180,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3164,11 +3197,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3180,7 +3213,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3197,11 +3230,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3213,7 +3246,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3230,11 +3263,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3246,14 +3279,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3263,11 +3296,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3279,7 +3312,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3296,11 +3329,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3312,31 +3345,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3345,31 +3378,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>84</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3378,14 +3411,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3395,14 +3428,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>15</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3411,14 +3444,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3428,14 +3461,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>172</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3444,14 +3477,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3461,11 +3494,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3477,14 +3510,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3494,11 +3527,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3510,14 +3543,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3527,14 +3560,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>140</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>119</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3543,14 +3576,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3560,11 +3593,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3576,31 +3609,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>85</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3609,14 +3642,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3626,14 +3659,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3642,28 +3675,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>171</v>
+        <v>86</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>172</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3675,14 +3708,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3692,11 +3725,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3708,14 +3741,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3725,11 +3758,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3741,7 +3774,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3758,11 +3791,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3774,14 +3807,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3791,11 +3824,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3807,14 +3840,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3824,11 +3857,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>63</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>64</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3840,14 +3873,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3857,14 +3890,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>155</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3873,14 +3906,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3890,14 +3923,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>222</v>
+        <v>65</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>223</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>224</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3906,14 +3939,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3930,7 +3963,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3946,7 +3979,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3956,14 +3989,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3972,14 +4005,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>23</v>
+        <v>234</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3989,11 +4022,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>168</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>169</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4005,14 +4038,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4022,11 +4055,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4038,28 +4071,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>236</v>
+        <v>23</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>84</v>
+        <v>169</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4071,31 +4104,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>238</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>24</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>25</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4104,28 +4137,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4137,14 +4170,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>23</v>
+        <v>247</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4154,11 +4187,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4170,14 +4203,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4187,11 +4220,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>132</v>
+        <v>24</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>244</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4203,14 +4236,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>23</v>
+        <v>251</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4220,11 +4253,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>246</v>
+        <v>14</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>247</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4236,14 +4269,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>249</v>
+        <v>23</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4253,11 +4286,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>250</v>
+        <v>86</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4269,14 +4302,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>96</v>
+        <v>254</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4286,11 +4319,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>60</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4302,7 +4335,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4319,11 +4352,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4335,14 +4368,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>23</v>
+        <v>260</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4352,14 +4385,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>256</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>257</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4368,14 +4401,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4385,14 +4418,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>246</v>
+        <v>61</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>259</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>260</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4401,14 +4434,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>262</v>
+        <v>23</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4418,14 +4451,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>159</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4434,14 +4467,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4451,14 +4484,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>98</v>
+        <v>235</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4467,14 +4500,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>257</v>
+        <v>23</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4484,14 +4517,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>43</v>
+        <v>257</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>25</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>74</v>
+        <v>270</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4500,14 +4533,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>177</v>
+        <v>272</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4517,14 +4550,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>43</v>
+        <v>273</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4533,14 +4566,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4550,11 +4583,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>15</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4566,14 +4599,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>23</v>
+        <v>278</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4583,14 +4616,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>159</v>
+        <v>76</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4599,14 +4632,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4616,49 +4649,148 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>64</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
-      <c r="P103" s="13">
-        <v>5443.8649999999998</v>
-      </c>
-      <c r="Q103" s="13"/>
-    </row>
-    <row r="104" ht="16.5" customHeight="1">
-      <c t="s" r="A104" s="14">
-        <v>273</v>
-      </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c t="s" r="G104" s="15">
-        <v>274</v>
-      </c>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="16"/>
-      <c t="s" r="K104" s="17">
-        <v>275</v>
-      </c>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>281</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>160</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>51</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>14</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>282</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>23</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>51</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>14</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>283</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>16</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>51</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>129</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>5647.3649999999998</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
+        <v>284</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>285</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>286</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="492">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5147,10 +5279,25 @@
     <mergeCell ref="H102:K102"/>
     <mergeCell ref="L102:M102"/>
     <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="K104:Q104"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -338,10 +338,13 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>63.8400</t>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>79.6800</t>
+  </si>
+  <si>
+    <t>1:2</t>
   </si>
   <si>
     <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
@@ -428,9 +431,6 @@
     <t>GANATON 50 MG 30 F.C.TABS.</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -686,6 +686,12 @@
     <t>54.0000</t>
   </si>
   <si>
+    <t>VITONEX 30 CAPS.</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
     <t>VOLTAREN 50MG 20 TAB.</t>
   </si>
   <si>
@@ -863,7 +869,7 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 9:30 PM</t>
+    <t>Wednesday, 20 August, 2025 9:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2511,7 +2517,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2520,7 +2526,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2537,7 +2543,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2553,7 +2559,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2570,11 +2576,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2586,7 +2592,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2603,11 +2609,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2619,7 +2625,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2643,7 +2649,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2652,7 +2658,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2669,11 +2675,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2685,7 +2691,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2702,11 +2708,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2718,14 +2724,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2735,11 +2741,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2751,14 +2757,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2768,11 +2774,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2784,7 +2790,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2801,11 +2807,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2817,14 +2823,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3633,7 +3639,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3715,7 +3721,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3913,7 +3919,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3923,14 +3929,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>66</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3939,14 +3945,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3956,14 +3962,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>65</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>156</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3972,14 +3978,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3989,14 +3995,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>232</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4005,14 +4011,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4022,14 +4028,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>234</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4038,14 +4044,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4055,7 +4061,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4078,7 +4084,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4088,11 +4094,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>169</v>
+        <v>232</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4104,14 +4110,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4121,14 +4127,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>169</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4137,14 +4143,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>232</v>
+        <v>21</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4154,14 +4160,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4170,28 +4176,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>86</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>87</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4220,11 +4226,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4253,11 +4259,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4276,7 +4282,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>23</v>
+        <v>253</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4286,11 +4292,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4302,14 +4308,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>254</v>
+        <v>23</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4319,11 +4325,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>255</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4335,14 +4341,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>23</v>
+        <v>256</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4352,11 +4358,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>257</v>
+        <v>134</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4368,14 +4374,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4385,11 +4391,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>134</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4401,14 +4407,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>98</v>
+        <v>262</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4418,11 +4424,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>61</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4434,14 +4440,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4451,11 +4457,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>264</v>
+        <v>61</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>265</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4467,7 +4473,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4484,14 +4490,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4517,14 +4523,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>269</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>270</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4533,14 +4539,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>272</v>
+        <v>23</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4550,14 +4556,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>160</v>
+        <v>272</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4566,14 +4572,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>274</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4583,14 +4589,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>100</v>
+        <v>275</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>276</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4606,7 +4612,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>278</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4616,14 +4622,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>25</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4639,7 +4645,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>178</v>
+        <v>280</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4653,10 +4659,10 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>280</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4672,7 +4678,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4682,11 +4688,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>15</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4698,14 +4704,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4719,10 +4725,10 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>160</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4731,14 +4737,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4748,49 +4754,82 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>285</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>16</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>51</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>130</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
         <v>66</v>
       </c>
-      <c t="s" r="Q105" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>5647.3649999999998</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
-        <v>284</v>
-      </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
-        <v>285</v>
-      </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
+      <c t="s" r="Q106" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="P107" s="13">
+        <v>5763.2049999999999</v>
+      </c>
+      <c r="Q107" s="13"/>
+    </row>
+    <row r="108" ht="16.5" customHeight="1">
+      <c t="s" r="A108" s="14">
         <v>286</v>
       </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c t="s" r="G108" s="15">
+        <v>287</v>
+      </c>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c t="s" r="K108" s="17">
+        <v>288</v>
+      </c>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="512">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5294,10 +5333,15 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="K108:Q108"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -869,7 +869,7 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 9:33 PM</t>
+    <t>Wednesday, 20 August, 2025 9:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -869,7 +869,7 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 9:34 PM</t>
+    <t>Wednesday, 20 August, 2025 9:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -173,6 +173,18 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>ASPOCID 75MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>10.8900</t>
+  </si>
+  <si>
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
@@ -305,507 +317,519 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>79.6800</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>FANGRARE SHOWER GEL 200 ML</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>FUCICORT CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>GANATON 50 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>GLIFLOZAMET XR 25/1000 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>357.00</t>
+  </si>
+  <si>
+    <t>357.0000</t>
+  </si>
+  <si>
+    <t>HALONACE 5 MG 10 TABS.</t>
+  </si>
+  <si>
+    <t>17.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>IMIPRAMINE 25MG 50 TAB.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>52.50</t>
+  </si>
+  <si>
+    <t>52.5000</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>KAPRON 500MG/5ML 6 I.V. AMP.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>LEVOTAVIN 750 MG 7 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>METROHALER 12 MCG 30 CAP+INHALER</t>
+  </si>
+  <si>
+    <t>172.00</t>
+  </si>
+  <si>
+    <t>56.7600</t>
+  </si>
+  <si>
+    <t>MICONAZ 2% ORAL GEL 20 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>MR. BEAR PLUS SYRUP 160 ML</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>MUCOPHYLLINE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>NETLOOK 20MG 20 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>274.00</t>
+  </si>
+  <si>
+    <t>274.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCUSEELLERGE 0.1 FORTE  DROPS</t>
+  </si>
+  <si>
+    <t>44.50</t>
+  </si>
+  <si>
+    <t>44.5000</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PREGNACARE 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>PROGEST 200MG 30 ORAL/VAGINAL CAPS</t>
+  </si>
+  <si>
+    <t>246.00</t>
+  </si>
+  <si>
+    <t>123.0000</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>SILDEN 50 MG 4 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
+    <t>SOFENACIN 5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>141.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOPADOL  FORTE  SACHET</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>TORSERETIC 100MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>261.00</t>
+  </si>
+  <si>
+    <t>86.1300</t>
+  </si>
+  <si>
+    <t>URGINAFECT 5MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>VERSERC 16MG 30 TAB</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>VITACID C 1GM 12 EFF. TAB.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>VITONEX 30 CAPS.</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>VOLTAREN 50MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>100.9800</t>
+  </si>
+  <si>
+    <t>VOTRIAXONE 1 GM I.M VIAL</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>224.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8384:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>XORAXON 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>X-TENSION PLUS 150/12.5MG 28 SCORED TAB.</t>
+  </si>
+  <si>
+    <t>ZURCAL 20 MG 14 GASTRO-RESISTANT TABS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>40.5000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>اسيتون ايفا</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>الويز كبير بالاجنحه</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>46:0</t>
+  </si>
+  <si>
+    <t>جل رويال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>93:0</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>حلق</t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>رول اون ريكسونا25</t>
+  </si>
+  <si>
     <t>9:0</t>
   </si>
   <si>
-    <t>DEPO-PEN 1.2 MIU VIAL.</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>79.6800</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>50.5000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>FANGRARE SHOWER GEL 200 ML</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
-  </si>
-  <si>
-    <t>8:1</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>FUCICORT CREAM 20 GM</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>GANATON 50 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>GAST-REG 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t>GLIFLOZAMET XR 25/1000 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>357.00</t>
-  </si>
-  <si>
-    <t>357.0000</t>
-  </si>
-  <si>
-    <t>HALONACE 5 MG 10 TABS.</t>
-  </si>
-  <si>
-    <t>17.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>IMIPRAMINE 25MG 50 TAB.</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>52.50</t>
-  </si>
-  <si>
-    <t>52.5000</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>KAPRON 500MG/5ML 6 I.V. AMP.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>14.4000</t>
-  </si>
-  <si>
-    <t>KETOLAC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>LEVOTAVIN 750 MG 7 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>MICONAZ 2% ORAL GEL 20 GM</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>MR. BEAR PLUS SYRUP 160 ML</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>MUCOPHYLLINE SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>NETLOOK 20MG 20 SOFT GELATIN CAPS.</t>
-  </si>
-  <si>
-    <t>274.00</t>
-  </si>
-  <si>
-    <t>274.0000</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCUSEELLERGE 0.1 FORTE  DROPS</t>
-  </si>
-  <si>
-    <t>44.50</t>
-  </si>
-  <si>
-    <t>44.5000</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PREGNACARE 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>200.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>PROGEST 200MG 30 ORAL/VAGINAL CAPS</t>
-  </si>
-  <si>
-    <t>246.00</t>
-  </si>
-  <si>
-    <t>123.0000</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>SILDEN 50 MG 4 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>11.0000</t>
-  </si>
-  <si>
-    <t>SOFENACIN 5MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>141.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STOPADOL  FORTE  SACHET</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>TORSERETIC 100MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>261.00</t>
-  </si>
-  <si>
-    <t>86.1300</t>
-  </si>
-  <si>
-    <t>URGINAFECT 5MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>53.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>VERSERC 16MG 30 TAB</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>VITACID C 1GM 12 EFF. TAB.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>VITONEX 30 CAPS.</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>VOLTAREN 50MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>100.9800</t>
-  </si>
-  <si>
-    <t>VOTRIAXONE 1 GM I.M VIAL</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>224.0000</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8384:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>XORAXON 1GM I.V. VIAL</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>X-TENSION PLUS 150/12.5MG 28 SCORED TAB.</t>
-  </si>
-  <si>
-    <t>ZURCAL 20 MG 14 GASTRO-RESISTANT TABS.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>40.5000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>اسيتون ايفا</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>الويز كبير بالاجنحه</t>
-  </si>
-  <si>
-    <t>16:0</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>46:0</t>
-  </si>
-  <si>
-    <t>جل رويال</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>93:0</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>حلق</t>
-  </si>
-  <si>
-    <t>22:0</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>رول اون ريكسونا25</t>
-  </si>
-  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -824,10 +848,7 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>13:0</t>
+    <t>14:0</t>
   </si>
   <si>
     <t>سرنجات انسولين</t>
@@ -851,9 +872,6 @@
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
-    <t>14:0</t>
-  </si>
-  <si>
     <t>فرشاه فوكس</t>
   </si>
   <si>
@@ -869,7 +887,7 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 9:36 PM</t>
+    <t>Wednesday, 20 August, 2025 9:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1873,7 +1891,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1883,11 +1901,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1899,31 +1917,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1932,7 +1950,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1945,15 +1963,15 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1965,14 +1983,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1989,7 +2007,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1998,14 +2016,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2022,7 +2040,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2031,31 +2049,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2064,7 +2082,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2077,18 +2095,18 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2097,14 +2115,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2121,7 +2139,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2137,21 +2155,21 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -2163,28 +2181,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -2196,14 +2214,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2213,14 +2231,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2229,14 +2247,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2246,14 +2264,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2262,14 +2280,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2279,14 +2297,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2295,14 +2313,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2312,11 +2330,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2328,14 +2346,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2345,14 +2363,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2361,14 +2379,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2378,11 +2396,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2394,14 +2412,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2411,14 +2429,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2427,14 +2445,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2444,14 +2462,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2460,14 +2478,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2477,14 +2495,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2493,14 +2511,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2510,14 +2528,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>111</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2526,14 +2544,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2543,14 +2561,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2559,14 +2577,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2576,14 +2594,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2592,14 +2610,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2609,14 +2627,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2625,14 +2643,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2642,14 +2660,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2658,14 +2676,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2675,14 +2693,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2691,14 +2709,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2708,11 +2726,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2724,14 +2742,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2741,14 +2759,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2757,14 +2775,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2774,11 +2792,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2790,14 +2808,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2807,14 +2825,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2823,14 +2841,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2840,14 +2858,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2856,14 +2874,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2873,14 +2891,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2889,14 +2907,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2906,14 +2924,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2922,14 +2940,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2939,14 +2957,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2955,14 +2973,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2972,14 +2990,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2988,7 +3006,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3005,11 +3023,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3021,7 +3039,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3038,11 +3056,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3054,14 +3072,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3071,11 +3089,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3087,14 +3105,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3104,11 +3122,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3120,14 +3138,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3137,14 +3155,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3153,14 +3171,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3170,14 +3188,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3186,7 +3204,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3203,11 +3221,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3219,14 +3237,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3236,11 +3254,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3252,14 +3270,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3269,14 +3287,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3285,14 +3303,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3302,11 +3320,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3318,7 +3336,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3335,11 +3353,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3351,14 +3369,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3368,14 +3386,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>93</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3384,7 +3402,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3397,15 +3415,15 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3417,14 +3435,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3434,14 +3452,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>86</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3450,28 +3468,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>15</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3483,14 +3501,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3500,14 +3518,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>90</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3516,14 +3534,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3533,14 +3551,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>14</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3549,14 +3567,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3566,11 +3584,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3582,14 +3600,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3606,7 +3624,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3622,7 +3640,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3632,14 +3650,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>141</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>121</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3648,14 +3666,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>23</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3665,11 +3683,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3681,31 +3699,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>87</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3714,14 +3732,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3731,14 +3749,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3747,28 +3765,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>172</v>
+        <v>90</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>173</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3780,14 +3798,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3797,11 +3815,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3813,14 +3831,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3830,11 +3848,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3846,7 +3864,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3863,11 +3881,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3879,14 +3897,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3896,11 +3914,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3912,14 +3930,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3929,14 +3947,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3945,14 +3963,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3962,14 +3980,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>65</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>66</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3978,14 +3996,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>164</v>
+        <v>23</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3995,14 +4013,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>156</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4011,14 +4029,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4028,14 +4046,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>232</v>
+        <v>69</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>234</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4051,7 +4069,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>236</v>
+        <v>169</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4061,14 +4079,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>161</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4077,14 +4095,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4094,14 +4112,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>241</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4110,14 +4128,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>23</v>
+        <v>243</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4127,11 +4145,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>169</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>170</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4143,14 +4161,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4160,14 +4178,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4176,14 +4194,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>234</v>
+        <v>23</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4193,11 +4211,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>174</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4209,31 +4227,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>249</v>
+        <v>21</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>86</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>87</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4242,28 +4260,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>24</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>25</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4275,14 +4293,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4292,11 +4310,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4308,14 +4326,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>23</v>
+        <v>258</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4325,11 +4343,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4341,14 +4359,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4358,11 +4376,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>257</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4374,7 +4392,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4391,11 +4409,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>259</v>
+        <v>90</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4407,14 +4425,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4424,11 +4442,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>139</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>135</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4440,14 +4458,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4457,11 +4475,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>61</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>62</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4473,14 +4491,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>23</v>
+        <v>269</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4490,11 +4508,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4506,14 +4524,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>23</v>
+        <v>272</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4523,14 +4541,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>237</v>
+        <v>65</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>269</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4539,7 +4557,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4556,14 +4574,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>272</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4572,14 +4590,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>274</v>
+        <v>23</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4589,14 +4607,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>160</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4605,14 +4623,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4622,14 +4640,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>100</v>
+        <v>266</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>278</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>279</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4638,14 +4656,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4655,14 +4673,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>43</v>
+        <v>282</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>25</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>76</v>
+        <v>165</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4671,14 +4689,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4688,11 +4706,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4704,14 +4722,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>160</v>
+        <v>279</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4721,14 +4739,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4737,14 +4755,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4754,14 +4772,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>162</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>160</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4770,14 +4788,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4787,49 +4805,115 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
-      <c r="P107" s="13">
-        <v>5763.2049999999999</v>
-      </c>
-      <c r="Q107" s="13"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c t="s" r="A108" s="14">
-        <v>286</v>
-      </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c t="s" r="G108" s="15">
-        <v>287</v>
-      </c>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="16"/>
-      <c t="s" r="K108" s="17">
-        <v>288</v>
-      </c>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>290</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>23</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>51</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>14</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>291</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>16</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>51</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>135</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>5857.6149999999998</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>292</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>293</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>294</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="512">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5338,10 +5422,20 @@
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="K108:Q108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -401,6 +401,12 @@
     <t>99.0000</t>
   </si>
   <si>
+    <t>EUTHYROX 100MCG 50 TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
     <t>FANGRARE SHOWER GEL 200 ML</t>
   </si>
   <si>
@@ -437,12 +443,12 @@
     <t>FUCICORT CREAM 20 GM</t>
   </si>
   <si>
-    <t>70.00</t>
-  </si>
-  <si>
     <t>70.0000</t>
   </si>
   <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
     <t>GANATON 50 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -641,6 +647,15 @@
     <t>42.0000</t>
   </si>
   <si>
+    <t>RICHI PANTHENOL ADVANCE GEL</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>SILDEN 50 MG 4 F.C. TABS.</t>
   </si>
   <si>
@@ -887,7 +902,7 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 9:38 PM</t>
+    <t>Wednesday, 20 August, 2025 9:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2749,7 +2764,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2763,10 +2778,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2775,14 +2790,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2792,14 +2807,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2808,14 +2823,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2825,11 +2840,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2841,14 +2856,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2858,14 +2873,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2874,14 +2889,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2891,14 +2906,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2914,7 +2929,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2924,11 +2939,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2940,14 +2955,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2957,14 +2972,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>30</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2973,14 +2988,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2990,14 +3005,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3006,14 +3021,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3023,14 +3038,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3039,14 +3054,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3056,14 +3071,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3072,7 +3087,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3089,11 +3104,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3105,14 +3120,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3122,11 +3137,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3138,14 +3153,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3155,11 +3170,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3171,14 +3186,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3188,14 +3203,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3204,14 +3219,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3221,11 +3236,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3237,14 +3252,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3254,14 +3269,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3270,14 +3285,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3287,14 +3302,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>33</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3303,14 +3318,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3320,11 +3335,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3336,14 +3351,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3353,14 +3368,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3369,14 +3384,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3386,11 +3401,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3402,7 +3417,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3419,11 +3434,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3435,14 +3450,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3452,14 +3467,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>93</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3468,7 +3483,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3481,15 +3496,15 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3501,14 +3516,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3518,14 +3533,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>90</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3534,28 +3549,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>15</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3567,14 +3582,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3584,14 +3599,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>90</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3600,14 +3615,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3617,14 +3632,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>14</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3633,14 +3648,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3650,11 +3665,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3666,14 +3681,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3683,14 +3698,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3699,14 +3714,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3716,14 +3731,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>146</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>104</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3732,14 +3747,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>23</v>
+        <v>209</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3749,11 +3764,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3765,7 +3780,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3782,11 +3797,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>90</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>91</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3798,14 +3813,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3815,14 +3830,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>148</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3831,14 +3846,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3848,11 +3863,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3871,24 +3886,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>90</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3897,14 +3912,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3914,14 +3929,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3930,14 +3945,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3947,14 +3962,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3963,7 +3978,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3980,14 +3995,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3996,7 +4011,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4013,11 +4028,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4029,14 +4044,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4046,11 +4061,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>69</v>
+        <v>232</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>70</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4062,14 +4077,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4079,14 +4094,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>161</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4095,14 +4110,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4112,14 +4127,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>241</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4128,14 +4143,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4145,14 +4160,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>69</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4161,14 +4176,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4178,14 +4193,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4194,14 +4209,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4211,14 +4226,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>174</v>
+        <v>244</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>175</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>246</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4227,14 +4242,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>21</v>
+        <v>248</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4244,14 +4259,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4260,14 +4275,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4277,11 +4292,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4293,28 +4308,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>256</v>
+        <v>23</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>91</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4326,31 +4341,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>258</v>
+        <v>21</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>24</v>
+        <v>255</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>25</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4359,28 +4374,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>14</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>15</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4392,14 +4407,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>23</v>
+        <v>261</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4442,11 +4457,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4458,14 +4473,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>23</v>
+        <v>265</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4475,11 +4490,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>14</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>267</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4491,14 +4506,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>269</v>
+        <v>23</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4508,11 +4523,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4524,14 +4539,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4541,11 +4556,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>66</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4557,7 +4572,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4574,11 +4589,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4590,14 +4605,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>23</v>
+        <v>274</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4607,14 +4622,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>277</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4623,14 +4638,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>23</v>
+        <v>277</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4640,14 +4655,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>266</v>
+        <v>65</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>209</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>279</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4656,14 +4671,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>281</v>
+        <v>23</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4673,14 +4688,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>165</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4689,14 +4704,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4706,14 +4721,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>106</v>
+        <v>249</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4722,14 +4737,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>279</v>
+        <v>23</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4739,14 +4754,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>43</v>
+        <v>271</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>80</v>
+        <v>284</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4755,14 +4770,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>55</v>
+        <v>286</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4772,14 +4787,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>43</v>
+        <v>287</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
         <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>167</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4795,7 +4810,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4805,11 +4820,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4821,14 +4836,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>23</v>
+        <v>284</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4838,14 +4853,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>167</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>165</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4854,14 +4869,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4871,49 +4886,148 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
+        <v>293</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>294</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>167</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>51</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>14</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>295</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>23</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>51</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>14</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>296</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>16</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>51</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>137</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
         <v>70</v>
       </c>
-      <c t="s" r="Q108" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>5857.6149999999998</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
-        <v>292</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
-        <v>293</v>
-      </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
-        <v>294</v>
-      </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c t="s" r="Q111" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="P112" s="13">
+        <v>6021.6149999999998</v>
+      </c>
+      <c r="Q112" s="13"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="14">
+        <v>297</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c t="s" r="G113" s="15">
+        <v>298</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c t="s" r="K113" s="17">
+        <v>299</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="537">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5432,10 +5546,25 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="K113:Q113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -902,7 +902,7 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 9:39 PM</t>
+    <t>Wednesday, 20 August, 2025 9:40 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -353,6 +353,15 @@
     <t>13.0000</t>
   </si>
   <si>
+    <t>DIMICAP FACIAL WASH 250 ML</t>
+  </si>
+  <si>
+    <t>194.00</t>
+  </si>
+  <si>
+    <t>194.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -656,6 +665,12 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
     <t>SILDEN 50 MG 4 F.C. TABS.</t>
   </si>
   <si>
@@ -683,6 +698,24 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>SWABIVENT NEBULIZER SOLN. 20 AMP. 2.5ML</t>
+  </si>
+  <si>
+    <t>176.00</t>
+  </si>
+  <si>
+    <t>8.8000</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -902,7 +935,7 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 9:40 PM</t>
+    <t>Wednesday, 20 August, 2025 9:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2566,7 +2599,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2576,14 +2609,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>117</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2592,14 +2625,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2609,14 +2642,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2625,14 +2658,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2642,14 +2675,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2665,7 +2698,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2682,7 +2715,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2698,7 +2731,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2708,14 +2741,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2724,14 +2757,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2741,14 +2774,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2764,7 +2797,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2778,10 +2811,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2790,14 +2823,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2807,14 +2840,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2830,7 +2863,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2840,14 +2873,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2856,14 +2889,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2873,11 +2906,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2889,14 +2922,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2906,14 +2939,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2922,14 +2955,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2939,11 +2972,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2955,14 +2988,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2972,14 +3005,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2988,14 +3021,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3005,14 +3038,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3028,7 +3061,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3038,14 +3071,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3054,14 +3087,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3071,14 +3104,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3094,7 +3127,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3104,14 +3137,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3120,7 +3153,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3137,7 +3170,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -3193,7 +3226,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3203,11 +3236,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3219,14 +3252,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3236,11 +3269,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3252,14 +3285,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3269,14 +3302,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>30</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3292,7 +3325,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>23</v>
+        <v>174</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3302,14 +3335,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3318,7 +3351,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3335,7 +3368,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>33</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3358,7 +3391,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3375,7 +3408,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3391,7 +3424,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3408,7 +3441,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3424,7 +3457,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3457,7 +3490,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3467,11 +3500,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>93</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3483,14 +3516,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3500,11 +3533,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>93</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3523,7 +3556,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3540,7 +3573,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3556,13 +3589,13 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3573,7 +3606,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3589,24 +3622,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>90</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3615,14 +3648,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3632,14 +3665,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3648,14 +3681,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3665,14 +3698,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>14</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>183</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3681,14 +3714,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3698,11 +3731,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3721,7 +3754,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3754,7 +3787,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3764,14 +3797,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3780,20 +3813,20 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>23</v>
+        <v>212</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3820,24 +3853,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>148</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3846,14 +3879,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>23</v>
+        <v>174</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3863,14 +3896,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3886,24 +3919,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>91</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3912,14 +3945,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3929,14 +3962,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3945,28 +3978,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>182</v>
+        <v>90</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>183</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3978,14 +4011,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3995,11 +4028,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -4011,14 +4044,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4028,14 +4061,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4044,14 +4077,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4061,11 +4094,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4077,14 +4110,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4094,11 +4127,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>185</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4110,14 +4143,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4127,14 +4160,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4150,7 +4183,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4160,14 +4193,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>69</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>70</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4176,14 +4209,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4193,14 +4226,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>163</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4209,14 +4242,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4226,14 +4259,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>246</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4242,14 +4275,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>248</v>
+        <v>23</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4263,7 +4296,7 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4275,14 +4308,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4292,14 +4325,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>244</v>
+        <v>69</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4308,14 +4341,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>23</v>
+        <v>174</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4325,14 +4358,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>176</v>
+        <v>252</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>177</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>166</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4348,7 +4381,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4365,7 +4398,7 @@
         <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>257</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4374,14 +4407,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4391,11 +4424,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4407,28 +4440,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>261</v>
+        <v>80</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>90</v>
+        <v>255</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>91</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4440,28 +4473,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>263</v>
+        <v>23</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>24</v>
+        <v>179</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4473,31 +4506,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>265</v>
+        <v>21</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>14</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4506,28 +4539,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>23</v>
+        <v>257</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>90</v>
+        <v>269</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>91</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4539,14 +4572,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4556,11 +4589,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>269</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4572,14 +4605,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>23</v>
+        <v>274</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4589,11 +4622,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>271</v>
+        <v>24</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>272</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4605,14 +4638,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4622,11 +4655,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>275</v>
+        <v>14</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>142</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4638,14 +4671,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>277</v>
+        <v>23</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4655,11 +4688,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4678,7 +4711,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>23</v>
+        <v>279</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4688,7 +4721,7 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>279</v>
+        <v>144</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
@@ -4721,14 +4754,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4737,14 +4770,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>23</v>
+        <v>285</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4754,14 +4787,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>211</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>284</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4770,14 +4803,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4787,14 +4820,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>287</v>
+        <v>65</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>288</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>167</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4810,7 +4843,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4820,11 +4853,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>106</v>
+        <v>290</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4836,14 +4869,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>284</v>
+        <v>23</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4853,14 +4886,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>43</v>
+        <v>260</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>25</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4869,14 +4902,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4886,14 +4919,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>43</v>
+        <v>282</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>293</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>295</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4902,14 +4935,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>167</v>
+        <v>297</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4919,14 +4952,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>14</v>
+        <v>298</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>170</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4935,14 +4968,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4952,14 +4985,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>169</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>167</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4968,14 +5001,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>295</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -4985,49 +5018,181 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>303</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>55</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>51</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>43</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>304</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>305</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>170</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>51</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>14</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>306</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>23</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>51</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>14</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>307</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>16</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>51</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>140</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
         <v>70</v>
       </c>
-      <c t="s" r="Q111" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="112" ht="25.5" customHeight="1">
-      <c r="P112" s="13">
-        <v>6021.6149999999998</v>
-      </c>
-      <c r="Q112" s="13"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="14">
-        <v>297</v>
-      </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c t="s" r="G113" s="15">
-        <v>298</v>
-      </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
-      <c t="s" r="K113" s="17">
-        <v>299</v>
-      </c>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>6310.1750000000002</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
+        <v>308</v>
+      </c>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
+        <v>309</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>310</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="537">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5561,10 +5726,30 @@
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
     <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -935,7 +935,7 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 9:46 PM</t>
+    <t>Wednesday, 20 August, 2025 9:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2995,7 +2995,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -455,6 +455,9 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>FUCIDIN 2% CREAM 20 GM</t>
+  </si>
+  <si>
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
@@ -656,6 +659,12 @@
     <t>42.0000</t>
   </si>
   <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>RICHI PANTHENOL ADVANCE GEL</t>
   </si>
   <si>
@@ -737,6 +746,15 @@
     <t>53.0000</t>
   </si>
   <si>
+    <t>URSOFALK 250MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
     <t>VERSERC 16MG 30 TAB</t>
   </si>
   <si>
@@ -935,7 +953,7 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 9:56 PM</t>
+    <t>Wednesday, 20 August, 2025 10:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2995,7 +3013,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3005,11 +3023,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3028,7 +3046,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3038,14 +3056,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3061,7 +3079,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3071,14 +3089,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3087,14 +3105,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3104,14 +3122,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3127,7 +3145,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3137,14 +3155,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3153,14 +3171,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3170,14 +3188,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>84</v>
+        <v>156</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3186,7 +3204,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3203,11 +3221,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>160</v>
+        <v>84</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3219,7 +3237,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3236,11 +3254,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3252,14 +3270,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>166</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3269,11 +3287,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3285,14 +3303,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3302,11 +3320,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3318,14 +3336,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3335,14 +3353,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3351,14 +3369,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>175</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3368,14 +3386,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3384,7 +3402,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3401,11 +3419,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>33</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3417,14 +3435,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3434,14 +3452,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3450,14 +3468,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3467,14 +3485,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3483,14 +3501,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3500,11 +3518,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3516,14 +3534,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3533,11 +3551,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3556,7 +3574,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3566,11 +3584,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>93</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3582,14 +3600,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3599,14 +3617,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3615,31 +3633,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3648,31 +3666,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3681,14 +3699,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3698,14 +3716,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>15</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3721,7 +3739,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3731,14 +3749,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>186</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3747,14 +3765,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3764,11 +3782,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3780,14 +3798,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3797,11 +3815,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3813,14 +3831,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3830,14 +3848,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3846,28 +3864,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>23</v>
+        <v>213</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3879,14 +3897,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3896,14 +3914,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>27</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>103</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3912,31 +3930,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>166</v>
+        <v>23</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>151</v>
+        <v>219</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3945,14 +3963,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>23</v>
+        <v>175</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3962,14 +3980,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3978,31 +3996,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>91</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4011,14 +4029,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4028,14 +4046,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4044,31 +4062,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4077,14 +4095,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4094,11 +4112,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4110,14 +4128,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4127,14 +4145,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>185</v>
+        <v>233</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4143,14 +4161,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4160,11 +4178,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4176,14 +4194,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4193,11 +4211,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>186</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4209,7 +4227,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4226,11 +4244,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4242,14 +4260,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4259,11 +4277,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4275,7 +4293,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4292,11 +4310,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4308,14 +4326,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4325,11 +4343,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>69</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4348,7 +4366,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4365,7 +4383,7 @@
         <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>166</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4381,7 +4399,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4395,10 +4413,10 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>257</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4407,14 +4425,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>259</v>
+        <v>21</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4424,14 +4442,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>69</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4440,14 +4458,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4457,14 +4475,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>167</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4473,14 +4491,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4490,14 +4508,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>179</v>
+        <v>261</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>263</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4506,14 +4524,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>21</v>
+        <v>265</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4530,7 +4548,7 @@
         <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4546,7 +4564,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>257</v>
+        <v>80</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4556,11 +4574,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4572,28 +4590,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>272</v>
+        <v>23</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4605,31 +4623,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>24</v>
+        <v>272</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>25</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4638,28 +4656,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>14</v>
+        <v>275</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>15</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4678,7 +4696,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>23</v>
+        <v>278</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4704,14 +4722,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4721,11 +4739,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>280</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4744,7 +4762,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>23</v>
+        <v>282</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4754,11 +4772,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>282</v>
+        <v>14</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>283</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4770,14 +4788,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>285</v>
+        <v>23</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4787,11 +4805,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>286</v>
+        <v>90</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4803,14 +4821,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4820,11 +4838,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>66</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4836,7 +4854,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4853,11 +4871,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4869,14 +4887,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>23</v>
+        <v>291</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4886,14 +4904,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>293</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4902,14 +4920,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>23</v>
+        <v>294</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4919,14 +4937,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>282</v>
+        <v>65</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>214</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>295</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4935,14 +4953,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>297</v>
+        <v>23</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4952,14 +4970,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>170</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4968,14 +4986,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4985,14 +5003,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>106</v>
+        <v>266</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5001,14 +5019,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>295</v>
+        <v>23</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5018,14 +5036,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>43</v>
+        <v>288</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>25</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>80</v>
+        <v>301</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5034,14 +5052,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>55</v>
+        <v>303</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5051,14 +5069,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>43</v>
+        <v>304</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>171</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5067,14 +5085,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5084,11 +5102,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>15</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5100,14 +5118,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>23</v>
+        <v>301</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5117,14 +5135,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>172</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>170</v>
+        <v>80</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5133,14 +5151,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5150,49 +5168,148 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
+        <v>310</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>311</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>171</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>51</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>14</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>312</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>23</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>51</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>14</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>313</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>16</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>51</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>140</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
         <v>70</v>
       </c>
-      <c t="s" r="Q115" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>6310.1750000000002</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
-        <v>308</v>
-      </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
-        <v>309</v>
-      </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
-        <v>310</v>
-      </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c t="s" r="Q118" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="P119" s="13">
+        <v>6559.1750000000002</v>
+      </c>
+      <c r="Q119" s="13"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="14">
+        <v>314</v>
+      </c>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c t="s" r="G120" s="15">
+        <v>315</v>
+      </c>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c t="s" r="K120" s="17">
+        <v>316</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="572">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5746,10 +5863,25 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:Q120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -953,7 +953,7 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 10:00 PM</t>
+    <t>Wednesday, 20 August, 2025 10:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -362,6 +362,12 @@
     <t>194.0000</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -413,9 +419,6 @@
     <t>EUTHYROX 100MCG 50 TAB.</t>
   </si>
   <si>
-    <t>70.00</t>
-  </si>
-  <si>
     <t>FANGRARE SHOWER GEL 200 ML</t>
   </si>
   <si>
@@ -596,6 +599,12 @@
     <t>274.0000</t>
   </si>
   <si>
+    <t>NEURONTIN 300MG 20 CAPS</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
   </si>
   <si>
@@ -770,9 +779,6 @@
     <t>54.00</t>
   </si>
   <si>
-    <t>54.0000</t>
-  </si>
-  <si>
     <t>VITONEX 30 CAPS.</t>
   </si>
   <si>
@@ -953,7 +959,7 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 10:01 PM</t>
+    <t>Wednesday, 20 August, 2025 10:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2650,7 +2656,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2660,14 +2666,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>120</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2676,14 +2682,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2693,14 +2699,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2716,7 +2722,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2730,10 +2736,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2742,14 +2748,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2759,14 +2765,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2775,14 +2781,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2792,14 +2798,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2808,14 +2814,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2825,14 +2831,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2841,14 +2847,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2858,14 +2864,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2881,7 +2887,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2891,14 +2897,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2907,14 +2913,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2924,14 +2930,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2940,14 +2946,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2957,11 +2963,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2973,14 +2979,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2990,14 +2996,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3006,14 +3012,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3023,11 +3029,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3046,7 +3052,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3056,11 +3062,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3079,7 +3085,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3089,14 +3095,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3112,7 +3118,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3122,14 +3128,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>153</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3138,14 +3144,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3155,14 +3161,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3178,7 +3184,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3188,14 +3194,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3204,14 +3210,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3221,14 +3227,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3237,7 +3243,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3254,11 +3260,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>161</v>
+        <v>84</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3270,7 +3276,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3287,11 +3293,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3303,14 +3309,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>167</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3320,11 +3326,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3336,14 +3342,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3353,11 +3359,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3369,14 +3375,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3386,14 +3392,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>30</v>
+        <v>173</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3402,14 +3408,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>23</v>
+        <v>176</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3419,14 +3425,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3435,7 +3441,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3452,11 +3458,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3468,14 +3474,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3485,14 +3491,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3501,14 +3507,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3518,14 +3524,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3534,14 +3540,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3551,11 +3557,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3567,14 +3573,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3584,11 +3590,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>107</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3607,7 +3613,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3617,11 +3623,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>193</v>
+        <v>93</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3633,14 +3639,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3650,14 +3656,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3666,31 +3672,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3699,14 +3705,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3716,14 +3722,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3732,28 +3738,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>15</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3772,7 +3778,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3782,14 +3788,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>205</v>
+        <v>90</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3805,7 +3811,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3815,14 +3821,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3831,14 +3837,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3848,11 +3854,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3864,14 +3870,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>213</v>
+        <v>23</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3881,14 +3887,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3897,14 +3903,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3914,14 +3920,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>27</v>
+        <v>213</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3930,28 +3936,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>23</v>
+        <v>216</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3963,14 +3969,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3980,14 +3986,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>222</v>
+        <v>27</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>103</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3996,31 +4002,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>167</v>
+        <v>23</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>152</v>
+        <v>222</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4029,14 +4035,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>23</v>
+        <v>176</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4046,14 +4052,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4062,31 +4068,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>91</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4095,14 +4101,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4112,14 +4118,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4128,31 +4134,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>233</v>
+        <v>90</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>234</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4161,14 +4167,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4178,11 +4184,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4194,14 +4200,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4211,14 +4217,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>186</v>
+        <v>236</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4227,14 +4233,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4244,11 +4250,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4260,14 +4266,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4277,11 +4283,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>243</v>
+        <v>187</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4293,14 +4299,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4310,14 +4316,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4326,14 +4332,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4343,14 +4349,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4359,14 +4365,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4376,11 +4382,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4392,14 +4398,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4409,14 +4415,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4425,14 +4431,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4442,14 +4448,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>69</v>
+        <v>255</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>70</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4458,14 +4464,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>175</v>
+        <v>23</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4475,14 +4481,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>259</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>167</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4491,14 +4497,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4508,14 +4514,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>261</v>
+        <v>69</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>262</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>263</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4524,14 +4530,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>265</v>
+        <v>176</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4541,14 +4547,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>168</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4557,14 +4563,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4574,14 +4580,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4590,14 +4596,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>23</v>
+        <v>267</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4607,11 +4613,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>180</v>
+        <v>268</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>181</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4623,14 +4629,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4640,14 +4646,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4656,14 +4662,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>263</v>
+        <v>23</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4673,11 +4679,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>275</v>
+        <v>181</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>276</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4689,31 +4695,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>278</v>
+        <v>21</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>90</v>
+        <v>274</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>91</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4722,28 +4728,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>24</v>
+        <v>277</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>25</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4755,14 +4761,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4772,11 +4778,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4788,14 +4794,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>23</v>
+        <v>282</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4805,11 +4811,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4821,14 +4827,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4838,11 +4844,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>286</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4854,7 +4860,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4871,11 +4877,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>288</v>
+        <v>90</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>289</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4887,14 +4893,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4904,11 +4910,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>292</v>
+        <v>145</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>145</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4920,14 +4926,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>294</v>
+        <v>23</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4937,11 +4943,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>66</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4953,14 +4959,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>23</v>
+        <v>293</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4970,11 +4976,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>297</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4986,14 +4992,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>23</v>
+        <v>296</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5003,14 +5009,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>266</v>
+        <v>65</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>299</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5019,7 +5025,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5036,14 +5042,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>215</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>301</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5052,14 +5058,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>303</v>
+        <v>23</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5069,14 +5075,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>171</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5085,14 +5091,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5102,14 +5108,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>106</v>
+        <v>290</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>307</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>303</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5118,14 +5124,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5135,14 +5141,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>43</v>
+        <v>306</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>25</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>80</v>
+        <v>172</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5151,14 +5157,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5168,11 +5174,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5184,14 +5190,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>171</v>
+        <v>303</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5201,14 +5207,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5217,14 +5223,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5234,14 +5240,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>173</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>171</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5257,7 +5263,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5267,49 +5273,115 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>314</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>23</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>51</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>14</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>315</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>16</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>51</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>141</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
         <v>70</v>
       </c>
-      <c t="s" r="Q118" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="119" ht="25.5" customHeight="1">
-      <c r="P119" s="13">
-        <v>6559.1750000000002</v>
-      </c>
-      <c r="Q119" s="13"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="14">
-        <v>314</v>
-      </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c t="s" r="G120" s="15">
-        <v>315</v>
-      </c>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="16"/>
-      <c t="s" r="K120" s="17">
+      <c t="s" r="Q120" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>6648.1750000000002</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
         <v>316</v>
       </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
+        <v>317</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>318</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="572">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5878,10 +5950,20 @@
     <mergeCell ref="H118:K118"/>
     <mergeCell ref="L118:M118"/>
     <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -959,7 +959,7 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 10:11 PM</t>
+    <t>Wednesday, 20 August, 2025 10:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -395,6 +395,18 @@
     <t>50.5000</t>
   </si>
   <si>
+    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -806,9 +818,6 @@
     <t>224.0000</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -959,7 +968,7 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 10:30 PM</t>
+    <t>Wednesday, 20 August, 2025 10:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2788,7 +2797,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2798,11 +2807,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2814,14 +2823,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2831,14 +2840,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2847,14 +2856,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2864,14 +2873,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2880,14 +2889,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2897,14 +2906,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2913,14 +2922,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2930,14 +2939,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2946,14 +2955,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2970,7 +2979,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3019,7 +3028,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3029,14 +3038,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3045,14 +3054,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3062,11 +3071,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3078,14 +3087,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3095,11 +3104,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3111,14 +3120,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3128,14 +3137,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3144,14 +3153,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3161,14 +3170,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>154</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3177,14 +3186,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3194,14 +3203,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3210,14 +3219,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3231,10 +3240,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3243,14 +3252,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3260,14 +3269,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3276,7 +3285,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3293,11 +3302,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3309,7 +3318,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3326,11 +3335,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3342,14 +3351,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3425,14 +3434,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>30</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3441,14 +3450,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3458,14 +3467,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3474,7 +3483,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3491,11 +3500,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>181</v>
+        <v>33</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3507,14 +3516,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3524,14 +3533,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3540,14 +3549,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3557,14 +3566,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3573,14 +3582,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3590,11 +3599,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3606,14 +3615,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3623,11 +3632,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>107</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3639,14 +3648,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3656,11 +3665,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>194</v>
+        <v>93</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>195</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3672,14 +3681,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3689,14 +3698,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3705,14 +3714,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3722,11 +3731,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3738,31 +3747,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3771,31 +3780,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>90</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3804,14 +3813,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3821,14 +3830,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>15</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3837,14 +3846,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3854,14 +3863,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>188</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3870,14 +3879,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3887,11 +3896,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3903,14 +3912,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3920,11 +3929,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3936,14 +3945,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>216</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3960,7 +3969,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3976,7 +3985,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3986,11 +3995,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>27</v>
+        <v>221</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4002,28 +4011,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>222</v>
+        <v>27</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4035,31 +4044,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>176</v>
+        <v>23</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>103</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4068,14 +4077,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4085,14 +4094,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>153</v>
+        <v>229</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>227</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>104</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4101,14 +4110,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>23</v>
+        <v>172</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4118,14 +4127,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>229</v>
+        <v>157</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4134,7 +4143,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4147,15 +4156,15 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>90</v>
+        <v>233</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>91</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4167,31 +4176,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>233</v>
+        <v>90</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>234</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4200,14 +4209,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4217,11 +4226,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4233,7 +4242,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4250,11 +4259,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4266,14 +4275,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4283,14 +4292,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>188</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4299,14 +4308,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4316,14 +4325,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>243</v>
+        <v>191</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4332,14 +4341,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4349,14 +4358,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4365,7 +4374,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4382,11 +4391,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4398,14 +4407,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4415,14 +4424,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4431,7 +4440,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4448,14 +4457,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>197</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4464,14 +4473,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4481,11 +4490,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4497,14 +4506,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4514,14 +4523,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>69</v>
+        <v>261</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>70</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4530,14 +4539,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>176</v>
+        <v>21</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4547,14 +4556,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>260</v>
+        <v>69</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>261</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>168</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4563,14 +4572,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4580,14 +4589,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>265</v>
+        <v>172</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4603,7 +4612,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>267</v>
+        <v>176</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4613,14 +4622,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4629,14 +4638,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4646,11 +4655,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4662,14 +4671,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4679,11 +4688,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>181</v>
+        <v>267</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>182</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4695,14 +4704,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4712,14 +4721,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>274</v>
+        <v>185</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>275</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4735,7 +4744,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>265</v>
+        <v>21</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4752,7 +4761,7 @@
         <v>278</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4768,21 +4777,21 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>280</v>
+        <v>129</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>90</v>
+        <v>280</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>91</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4794,14 +4803,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4811,11 +4820,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4827,14 +4836,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4844,11 +4853,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4860,14 +4869,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>23</v>
+        <v>287</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4877,11 +4886,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4893,14 +4902,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>287</v>
+        <v>23</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4910,11 +4919,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>288</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4933,7 +4942,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>23</v>
+        <v>290</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4943,7 +4952,7 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>290</v>
+        <v>149</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
@@ -4966,7 +4975,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>293</v>
+        <v>23</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4976,11 +4985,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>146</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5009,11 +5018,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>65</v>
+        <v>297</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5025,14 +5034,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>23</v>
+        <v>299</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5042,11 +5051,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>298</v>
+        <v>65</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>299</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5075,14 +5084,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5091,7 +5100,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5108,14 +5117,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>218</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>303</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5124,14 +5133,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>305</v>
+        <v>23</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5141,14 +5150,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>307</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>172</v>
+        <v>306</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5157,14 +5166,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>308</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5174,14 +5183,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>106</v>
+        <v>309</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>176</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5190,14 +5199,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>303</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5207,14 +5216,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>25</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5223,14 +5232,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>55</v>
+        <v>306</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5244,10 +5253,10 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>312</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5256,14 +5265,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>172</v>
+        <v>55</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5273,11 +5282,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>15</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5289,14 +5298,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>23</v>
+        <v>176</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5310,10 +5319,10 @@
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>174</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5322,14 +5331,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5339,49 +5348,82 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>318</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>16</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>51</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>145</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
         <v>70</v>
       </c>
-      <c t="s" r="Q120" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>6648.1750000000002</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
-        <v>316</v>
-      </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
-        <v>317</v>
-      </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
-        <v>318</v>
-      </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+      <c t="s" r="Q121" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="P122" s="13">
+        <v>6674.1750000000002</v>
+      </c>
+      <c r="Q122" s="13"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="14">
+        <v>319</v>
+      </c>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c t="s" r="G123" s="15">
+        <v>320</v>
+      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c t="s" r="K123" s="17">
+        <v>321</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="587">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5960,10 +6002,15 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -227,6 +227,15 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>BRONCHICUM ELIXIR 100 ML</t>
   </si>
   <si>
@@ -317,390 +326,408 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>8:2</t>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>DIMICAP FACIAL WASH 250 ML</t>
+  </si>
+  <si>
+    <t>194.00</t>
+  </si>
+  <si>
+    <t>194.0000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>79.6800</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>EUTHYROX 100MCG 50 TAB.</t>
+  </si>
+  <si>
+    <t>FANGRARE SHOWER GEL 200 ML</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>FUCICORT CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>FUCIDIN 2% CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>GANATON 50 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>GLIFLOZAMET XR 25/1000 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>357.00</t>
+  </si>
+  <si>
+    <t>357.0000</t>
+  </si>
+  <si>
+    <t>HALONACE 5 MG 10 TABS.</t>
+  </si>
+  <si>
+    <t>17.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>IMIPRAMINE 25MG 50 TAB.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>52.50</t>
+  </si>
+  <si>
+    <t>52.5000</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>KAPRON 500MG/5ML 6 I.V. AMP.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>LEVOTAVIN 750 MG 7 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>METROHALER 12 MCG 30 CAP+INHALER</t>
+  </si>
+  <si>
+    <t>172.00</t>
+  </si>
+  <si>
+    <t>56.7600</t>
+  </si>
+  <si>
+    <t>MICONAZ 2% ORAL GEL 20 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>MR. BEAR PLUS SYRUP 160 ML</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>MUCOPHYLLINE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>NETLOOK 20MG 20 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>274.00</t>
+  </si>
+  <si>
+    <t>274.0000</t>
+  </si>
+  <si>
+    <t>NEURONTIN 300MG 20 CAPS</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCUSEELLERGE 0.1 FORTE  DROPS</t>
+  </si>
+  <si>
+    <t>44.50</t>
+  </si>
+  <si>
+    <t>44.5000</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PREGNACARE 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>PROGEST 200MG 30 ORAL/VAGINAL CAPS</t>
+  </si>
+  <si>
+    <t>246.00</t>
+  </si>
+  <si>
+    <t>123.0000</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>RICHI PANTHENOL ADVANCE GEL</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>72.00</t>
   </si>
   <si>
     <t>23.7600</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>DEPO-PEN 1.2 MIU VIAL.</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>DIMICAP FACIAL WASH 250 ML</t>
-  </si>
-  <si>
-    <t>194.00</t>
-  </si>
-  <si>
-    <t>194.0000</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>79.6800</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>50.5000</t>
-  </si>
-  <si>
-    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>EUTHYROX 100MCG 50 TAB.</t>
-  </si>
-  <si>
-    <t>FANGRARE SHOWER GEL 200 ML</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
-  </si>
-  <si>
-    <t>8:1</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>FUCICORT CREAM 20 GM</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>FUCIDIN 2% CREAM 20 GM</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>GANATON 50 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>GAST-REG 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t>GLIFLOZAMET XR 25/1000 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>357.00</t>
-  </si>
-  <si>
-    <t>357.0000</t>
-  </si>
-  <si>
-    <t>HALONACE 5 MG 10 TABS.</t>
-  </si>
-  <si>
-    <t>17.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>IMIPRAMINE 25MG 50 TAB.</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>52.50</t>
-  </si>
-  <si>
-    <t>52.5000</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>KAPRON 500MG/5ML 6 I.V. AMP.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>14.4000</t>
-  </si>
-  <si>
-    <t>KETOLAC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>LEVOTAVIN 750 MG 7 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>METROHALER 12 MCG 30 CAP+INHALER</t>
-  </si>
-  <si>
-    <t>172.00</t>
-  </si>
-  <si>
-    <t>56.7600</t>
-  </si>
-  <si>
-    <t>MICONAZ 2% ORAL GEL 20 GM</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>MR. BEAR PLUS SYRUP 160 ML</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>MUCOPHYLLINE SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>NETLOOK 20MG 20 SOFT GELATIN CAPS.</t>
-  </si>
-  <si>
-    <t>274.00</t>
-  </si>
-  <si>
-    <t>274.0000</t>
-  </si>
-  <si>
-    <t>NEURONTIN 300MG 20 CAPS</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCUSEELLERGE 0.1 FORTE  DROPS</t>
-  </si>
-  <si>
-    <t>44.50</t>
-  </si>
-  <si>
-    <t>44.5000</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PREGNACARE 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>200.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>PROGEST 200MG 30 ORAL/VAGINAL CAPS</t>
-  </si>
-  <si>
-    <t>246.00</t>
-  </si>
-  <si>
-    <t>123.0000</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>REPARIL-GEL N 40 GM</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>RICHI PANTHENOL ADVANCE GEL</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>ROWATINEX 45 CAPSULES</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
     <t>SILDEN 50 MG 4 F.C. TABS.</t>
   </si>
   <si>
@@ -884,9 +911,6 @@
     <t>93:0</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -923,7 +947,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>34.0000</t>
+    <t>19:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -968,7 +992,7 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 10:41 PM</t>
+    <t>Wednesday, 20 August, 2025 10:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2137,7 +2161,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2170,24 +2194,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2196,7 +2220,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2209,18 +2233,18 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2236,7 +2260,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2246,14 +2270,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2262,20 +2286,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -2302,13 +2326,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2335,7 +2359,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2352,7 +2376,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2368,7 +2392,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2382,10 +2406,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2394,14 +2418,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2411,14 +2435,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2434,7 +2458,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2444,11 +2468,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2460,14 +2484,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2477,14 +2501,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2500,7 +2524,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2510,14 +2534,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>104</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2526,14 +2550,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2543,14 +2567,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>80</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2559,14 +2583,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2576,14 +2600,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2609,14 +2633,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2625,14 +2649,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2642,14 +2666,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2658,14 +2682,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2675,14 +2699,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2698,7 +2722,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2708,14 +2732,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>122</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2724,14 +2748,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2741,14 +2765,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2757,14 +2781,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2774,14 +2798,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>127</v>
-      </c>
-      <c t="s" r="Q42" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2797,7 +2821,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2807,11 +2831,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2823,14 +2847,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2840,14 +2864,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2856,14 +2880,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2873,14 +2897,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2889,14 +2913,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2906,11 +2930,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2922,14 +2946,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2939,14 +2963,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2955,14 +2979,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2972,11 +2996,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2988,14 +3012,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3005,11 +3029,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -3021,14 +3045,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3038,14 +3062,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3054,14 +3078,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3071,14 +3095,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3087,14 +3111,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3104,14 +3128,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3120,14 +3144,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3137,11 +3161,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3153,14 +3177,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3170,14 +3194,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3186,14 +3210,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3203,11 +3227,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3226,7 +3250,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3236,14 +3260,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3259,7 +3283,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3276,7 +3300,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3292,7 +3316,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3302,14 +3326,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>164</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3318,14 +3342,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3335,14 +3359,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3351,7 +3375,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3368,11 +3392,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>169</v>
+        <v>87</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3384,14 +3408,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>172</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3401,11 +3425,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3417,14 +3441,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>176</v>
+        <v>23</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3434,11 +3458,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3450,14 +3474,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3467,14 +3491,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>30</v>
+        <v>177</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3483,14 +3507,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3500,11 +3524,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>33</v>
+        <v>181</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3516,14 +3540,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>23</v>
+        <v>184</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3533,14 +3557,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>30</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3549,14 +3573,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3566,14 +3590,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>33</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3582,14 +3606,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3599,11 +3623,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3615,14 +3639,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3632,14 +3656,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>69</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3648,14 +3672,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3665,14 +3689,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>93</v>
+        <v>195</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>107</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3688,7 +3712,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3721,7 +3745,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3731,14 +3755,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3747,14 +3771,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3764,14 +3788,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>203</v>
+        <v>96</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3780,7 +3804,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3793,15 +3817,15 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3813,7 +3837,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3830,14 +3854,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>90</v>
+        <v>189</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3846,14 +3870,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3863,14 +3887,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3879,14 +3903,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3896,14 +3920,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>212</v>
+        <v>153</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3912,7 +3936,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3925,18 +3949,18 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3945,7 +3969,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3962,14 +3986,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>217</v>
+        <v>93</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3985,7 +4009,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>220</v>
+        <v>68</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3995,11 +4019,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4011,14 +4035,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4028,14 +4052,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>27</v>
+        <v>221</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4044,7 +4068,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4057,18 +4081,18 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4077,14 +4101,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4094,11 +4118,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>103</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -4110,14 +4134,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4127,14 +4151,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>157</v>
+        <v>229</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4143,14 +4167,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4160,11 +4184,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>233</v>
+        <v>27</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4176,7 +4200,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4193,11 +4217,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>90</v>
+        <v>234</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>91</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4216,7 +4240,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4249,7 +4273,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4259,14 +4283,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4275,14 +4299,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4292,14 +4316,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4308,28 +4332,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>191</v>
+        <v>93</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>192</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4341,14 +4365,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4358,11 +4382,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4374,14 +4398,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4391,14 +4415,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4407,14 +4431,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4424,14 +4448,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4440,14 +4464,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4457,14 +4481,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>256</v>
+        <v>198</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>257</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4473,7 +4497,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4490,14 +4514,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>201</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4506,7 +4530,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4523,11 +4547,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4539,14 +4563,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4556,14 +4580,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>69</v>
+        <v>262</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>70</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4572,14 +4596,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4589,14 +4613,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>172</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4605,14 +4629,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4622,14 +4646,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>129</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4645,7 +4669,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>270</v>
+        <v>23</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4655,11 +4679,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>272</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4671,14 +4695,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4688,14 +4712,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>267</v>
+        <v>69</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>274</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4704,14 +4728,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>23</v>
+        <v>184</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4721,14 +4745,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>185</v>
+        <v>273</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>186</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>176</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4737,14 +4761,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4754,14 +4778,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4770,14 +4794,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>129</v>
+        <v>279</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4810,21 +4834,21 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>283</v>
+        <v>83</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>90</v>
+        <v>276</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>91</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4843,21 +4867,21 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>285</v>
+        <v>23</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>24</v>
+        <v>189</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4869,31 +4893,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>287</v>
+        <v>21</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>14</v>
+        <v>286</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>15</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4909,21 +4933,21 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>90</v>
+        <v>289</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>91</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4935,14 +4959,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4952,11 +4976,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>291</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4968,14 +4992,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>23</v>
+        <v>294</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4985,11 +5009,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>293</v>
+        <v>24</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>294</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5018,11 +5042,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>297</v>
+        <v>14</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5034,14 +5058,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>299</v>
+        <v>23</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5051,11 +5075,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5067,14 +5091,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>23</v>
+        <v>299</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5084,11 +5108,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>301</v>
+        <v>153</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>302</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5100,7 +5124,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5117,14 +5141,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5133,14 +5157,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>23</v>
+        <v>304</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5150,14 +5174,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>222</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>306</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5166,14 +5190,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5183,14 +5207,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>309</v>
+        <v>65</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>310</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>176</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5199,14 +5223,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5216,11 +5240,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>106</v>
+        <v>309</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5232,14 +5256,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>306</v>
+        <v>23</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5249,14 +5273,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>43</v>
+        <v>280</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>80</v>
+        <v>312</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5265,14 +5289,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5282,14 +5306,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>43</v>
+        <v>301</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>315</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>314</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5298,14 +5322,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>176</v>
+        <v>316</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5315,14 +5339,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>14</v>
+        <v>317</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>15</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>180</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5331,14 +5355,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5348,14 +5372,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>178</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>176</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5364,14 +5388,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>16</v>
+        <v>314</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5381,49 +5405,181 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>322</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>55</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>51</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>43</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>323</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>324</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>180</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>51</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>14</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>325</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>23</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>51</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>14</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>326</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>16</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>51</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>149</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
         <v>70</v>
       </c>
-      <c t="s" r="Q121" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="122" ht="25.5" customHeight="1">
-      <c r="P122" s="13">
-        <v>6674.1750000000002</v>
-      </c>
-      <c r="Q122" s="13"/>
-    </row>
-    <row r="123" ht="16.5" customHeight="1">
-      <c t="s" r="A123" s="14">
-        <v>319</v>
-      </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c t="s" r="G123" s="15">
-        <v>320</v>
-      </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="16"/>
-      <c t="s" r="K123" s="17">
-        <v>321</v>
-      </c>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
+      <c t="s" r="Q125" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="P126" s="13">
+        <v>6776.5649999999996</v>
+      </c>
+      <c r="Q126" s="13"/>
+    </row>
+    <row r="127" ht="16.5" customHeight="1">
+      <c t="s" r="A127" s="14">
+        <v>327</v>
+      </c>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c t="s" r="G127" s="15">
+        <v>328</v>
+      </c>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="16"/>
+      <c t="s" r="K127" s="17">
+        <v>329</v>
+      </c>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="N127" s="17"/>
+      <c r="O127" s="17"/>
+      <c r="P127" s="17"/>
+      <c r="Q127" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="587">
+  <mergeCells count="607">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6007,10 +6163,30 @@
     <mergeCell ref="H121:K121"/>
     <mergeCell ref="L121:M121"/>
     <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="P126:Q126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="K127:Q127"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -989,10 +989,13 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>كريم فاتيكا الحبه السوداء 210 جم</t>
+  </si>
+  <si>
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 10:50 PM</t>
+    <t>Wednesday, 20 August, 2025 10:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5527,7 +5530,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5537,49 +5540,82 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>327</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>16</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>51</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>149</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
         <v>70</v>
       </c>
-      <c t="s" r="Q125" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="126" ht="25.5" customHeight="1">
-      <c r="P126" s="13">
-        <v>6776.5649999999996</v>
-      </c>
-      <c r="Q126" s="13"/>
-    </row>
-    <row r="127" ht="16.5" customHeight="1">
-      <c t="s" r="A127" s="14">
-        <v>327</v>
-      </c>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c t="s" r="G127" s="15">
+      <c t="s" r="Q126" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="P127" s="13">
+        <v>6851.5649999999996</v>
+      </c>
+      <c r="Q127" s="13"/>
+    </row>
+    <row r="128" ht="16.5" customHeight="1">
+      <c t="s" r="A128" s="14">
         <v>328</v>
       </c>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="16"/>
-      <c t="s" r="K127" s="17">
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c t="s" r="G128" s="15">
         <v>329</v>
       </c>
-      <c r="L127" s="17"/>
-      <c r="M127" s="17"/>
-      <c r="N127" s="17"/>
-      <c r="O127" s="17"/>
-      <c r="P127" s="17"/>
-      <c r="Q127" s="17"/>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c t="s" r="K128" s="17">
+        <v>330</v>
+      </c>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="607">
+  <mergeCells count="612">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6183,10 +6219,15 @@
     <mergeCell ref="H125:K125"/>
     <mergeCell ref="L125:M125"/>
     <mergeCell ref="N125:O125"/>
-    <mergeCell ref="P126:Q126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="K127:Q127"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="K128:Q128"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -245,6 +245,12 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>CABERGAMOUN 0.5 MG 2 TABS.</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAPOTEN 25MG  20TAB</t>
   </si>
   <si>
@@ -278,6 +284,15 @@
     <t>95.0000</t>
   </si>
   <si>
+    <t>CIALONG 20MG 4 F.C.TABS</t>
+  </si>
+  <si>
+    <t>CINNARIZINE 25MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
     <t>CLARITINE 10MG 20 TAB.</t>
   </si>
   <si>
@@ -458,12 +473,15 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>3.8400</t>
   </si>
   <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
   </si>
   <si>
@@ -812,6 +830,18 @@
     <t>28.7100</t>
   </si>
   <si>
+    <t>VIRECTA 100 MG 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>14.5200</t>
+  </si>
+  <si>
     <t>VITACID C 1GM 12 EFF. TAB.</t>
   </si>
   <si>
@@ -980,9 +1010,6 @@
     <t>فرشاه فوكس</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
   </si>
   <si>
@@ -995,7 +1022,7 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 10:51 PM</t>
+    <t>Wednesday, 20 August, 2025 10:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2236,18 +2263,18 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2256,7 +2283,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2269,18 +2296,18 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2289,14 +2316,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2306,14 +2333,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2322,28 +2349,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -2355,28 +2382,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2388,14 +2415,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2405,11 +2432,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2421,14 +2448,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2438,14 +2465,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2454,14 +2481,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2471,14 +2498,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2487,14 +2514,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2504,11 +2531,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2520,14 +2547,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2537,14 +2564,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2553,14 +2580,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2570,14 +2597,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2586,14 +2613,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2603,14 +2630,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2619,14 +2646,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2636,14 +2663,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2652,14 +2679,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2669,14 +2696,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2685,14 +2712,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2702,14 +2729,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2718,14 +2745,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2735,14 +2762,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2751,14 +2778,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2768,11 +2795,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2784,14 +2811,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2801,14 +2828,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>127</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2817,14 +2844,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2834,14 +2861,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2850,14 +2877,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2867,11 +2894,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2883,14 +2910,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2900,14 +2927,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2916,14 +2943,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2933,11 +2960,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2949,7 +2976,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2966,14 +2993,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>111</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2982,14 +3009,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2999,11 +3026,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -3015,14 +3042,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3032,14 +3059,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3065,14 +3092,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3081,14 +3108,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3098,14 +3125,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3114,14 +3141,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3131,11 +3158,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3147,7 +3174,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3164,11 +3191,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3180,14 +3207,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3197,14 +3224,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3213,14 +3240,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3230,11 +3257,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>99</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3246,14 +3273,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3263,11 +3290,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>30</v>
+        <v>159</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>31</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3279,14 +3306,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3296,7 +3323,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3319,7 +3346,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3329,14 +3356,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>161</v>
+        <v>76</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3352,7 +3379,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3362,14 +3389,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3378,14 +3405,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3395,14 +3422,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>168</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3411,14 +3438,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3428,11 +3455,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3444,14 +3471,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3461,14 +3488,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>174</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3477,14 +3504,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>176</v>
+        <v>71</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3494,14 +3521,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3510,14 +3537,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3527,11 +3554,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>181</v>
+        <v>89</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3543,14 +3570,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>184</v>
+        <v>23</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3560,14 +3587,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>30</v>
+        <v>176</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3576,7 +3603,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3593,11 +3620,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>33</v>
+        <v>179</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3609,14 +3636,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>23</v>
+        <v>182</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3626,11 +3653,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3642,14 +3669,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3659,14 +3686,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>69</v>
+        <v>187</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3675,14 +3702,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>190</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3692,11 +3719,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3708,14 +3735,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3725,11 +3752,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>198</v>
+        <v>33</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3741,7 +3768,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3758,11 +3785,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3774,14 +3801,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>55</v>
+        <v>198</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3791,14 +3818,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3807,14 +3834,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3824,14 +3851,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3840,7 +3867,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3857,14 +3884,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3873,14 +3900,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3890,14 +3917,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3906,14 +3933,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3923,11 +3950,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>213</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3939,7 +3966,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3952,15 +3979,15 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3972,7 +3999,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3989,14 +4016,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>93</v>
+        <v>195</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4005,14 +4032,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4022,14 +4049,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4038,14 +4065,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4055,14 +4082,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4071,7 +4098,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4084,18 +4111,18 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4104,7 +4131,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4121,14 +4148,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>226</v>
+        <v>98</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4137,14 +4164,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>192</v>
+        <v>68</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4154,11 +4181,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>229</v>
+        <v>14</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>230</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4170,14 +4197,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4187,14 +4214,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>27</v>
+        <v>227</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4203,7 +4230,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4216,18 +4243,18 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4236,14 +4263,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>184</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4253,11 +4280,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4269,14 +4296,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4286,14 +4313,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>161</v>
+        <v>235</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4302,14 +4329,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4319,11 +4346,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>242</v>
+        <v>27</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4335,7 +4362,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4352,11 +4379,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>93</v>
+        <v>240</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>94</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4368,14 +4395,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4385,11 +4412,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4401,14 +4428,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4418,14 +4445,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>249</v>
+        <v>167</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>116</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4434,14 +4461,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4451,14 +4478,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4467,28 +4494,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>198</v>
+        <v>98</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4500,14 +4527,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4517,11 +4544,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4533,14 +4560,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4550,14 +4577,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4566,14 +4593,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4583,14 +4610,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4599,14 +4626,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4616,14 +4643,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>265</v>
+        <v>204</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4632,7 +4659,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4649,14 +4676,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4665,7 +4692,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4682,11 +4709,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>224</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4698,14 +4725,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4715,14 +4742,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>69</v>
+        <v>268</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>70</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4731,14 +4758,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>184</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4748,14 +4775,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>176</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4764,14 +4791,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>180</v>
+        <v>274</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4781,14 +4808,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>134</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4797,14 +4824,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>279</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4814,11 +4841,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>281</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4830,14 +4857,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4847,11 +4874,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4863,14 +4890,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4880,14 +4907,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>189</v>
+        <v>69</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4896,14 +4923,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4913,14 +4940,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>21</v>
+        <v>182</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4929,14 +4956,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4946,14 +4973,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4962,28 +4989,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>93</v>
+        <v>290</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>94</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4995,28 +5022,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>294</v>
+        <v>85</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>24</v>
+        <v>286</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>25</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5028,28 +5055,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>296</v>
+        <v>23</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>15</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5061,31 +5088,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>93</v>
+        <v>296</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>94</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5101,21 +5128,21 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>299</v>
+        <v>139</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>153</v>
+        <v>299</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>213</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5127,14 +5154,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>23</v>
+        <v>302</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5144,11 +5171,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>301</v>
+        <v>98</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>302</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5177,11 +5204,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>305</v>
+        <v>24</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5193,14 +5220,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5210,11 +5237,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5226,7 +5253,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5243,11 +5270,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>309</v>
+        <v>98</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>310</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5259,14 +5286,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>23</v>
+        <v>309</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5276,14 +5303,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>280</v>
+        <v>159</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>312</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5292,7 +5319,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5309,14 +5336,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>230</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>314</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5325,14 +5352,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5342,14 +5369,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>318</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>180</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5358,14 +5385,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>16</v>
+        <v>317</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5375,11 +5402,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>320</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5391,14 +5418,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>314</v>
+        <v>23</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5408,14 +5435,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>43</v>
+        <v>319</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>25</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5424,14 +5451,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5441,14 +5468,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>43</v>
+        <v>290</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>323</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>322</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5457,14 +5484,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5474,14 +5501,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>14</v>
+        <v>311</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>15</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>324</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5497,7 +5524,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>23</v>
+        <v>326</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5507,14 +5534,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>14</v>
+        <v>327</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>182</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5523,14 +5550,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5540,11 +5567,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>63</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5556,14 +5583,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>16</v>
+        <v>324</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5573,49 +5600,214 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>332</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>55</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>51</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>43</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>333</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>186</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>51</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>14</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>334</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>23</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>51</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>14</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>335</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>68</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>51</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>62</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>336</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>16</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>51</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>93</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
         <v>70</v>
       </c>
-      <c t="s" r="Q126" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="127" ht="25.5" customHeight="1">
-      <c r="P127" s="13">
-        <v>6851.5649999999996</v>
-      </c>
-      <c r="Q127" s="13"/>
-    </row>
-    <row r="128" ht="16.5" customHeight="1">
-      <c t="s" r="A128" s="14">
-        <v>328</v>
-      </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c t="s" r="G128" s="15">
-        <v>329</v>
-      </c>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="16"/>
-      <c t="s" r="K128" s="17">
-        <v>330</v>
-      </c>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="N128" s="17"/>
-      <c r="O128" s="17"/>
-      <c r="P128" s="17"/>
-      <c r="Q128" s="17"/>
+      <c t="s" r="Q131" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="P132" s="13">
+        <v>7058.085</v>
+      </c>
+      <c r="Q132" s="13"/>
+    </row>
+    <row r="133" ht="16.5" customHeight="1">
+      <c t="s" r="A133" s="14">
+        <v>337</v>
+      </c>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c t="s" r="G133" s="15">
+        <v>338</v>
+      </c>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="16"/>
+      <c t="s" r="K133" s="17">
+        <v>339</v>
+      </c>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+      <c r="N133" s="17"/>
+      <c r="O133" s="17"/>
+      <c r="P133" s="17"/>
+      <c r="Q133" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="612">
+  <mergeCells count="637">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6224,10 +6416,35 @@
     <mergeCell ref="H126:K126"/>
     <mergeCell ref="L126:M126"/>
     <mergeCell ref="N126:O126"/>
-    <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="K128:Q128"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="P132:Q132"/>
+    <mergeCell ref="A133:F133"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="K133:Q133"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -389,6 +389,9 @@
     <t>70.00</t>
   </si>
   <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>DOGMATIL 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -497,9 +500,6 @@
     <t>FUCICORT CREAM 20 GM</t>
   </si>
   <si>
-    <t>70.0000</t>
-  </si>
-  <si>
     <t>FUCIDIN 2% CREAM 20 GM</t>
   </si>
   <si>
@@ -545,6 +545,15 @@
     <t>357.0000</t>
   </si>
   <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>HALONACE 5 MG 10 TABS.</t>
   </si>
   <si>
@@ -656,6 +665,12 @@
     <t>54.0000</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
   </si>
   <si>
@@ -977,9 +992,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>19:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -1022,7 +1034,7 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 10:56 PM</t>
+    <t>Wednesday, 20 August, 2025 11:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2851,7 +2863,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2865,10 +2877,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2877,7 +2889,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2894,11 +2906,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2910,14 +2922,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2931,10 +2943,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2943,7 +2955,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2960,7 +2972,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2976,7 +2988,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2993,11 +3005,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -3009,14 +3021,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3026,11 +3038,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -3042,7 +3054,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3059,11 +3071,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3075,7 +3087,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3108,7 +3120,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3125,11 +3137,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3141,7 +3153,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3174,7 +3186,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3191,11 +3203,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3207,7 +3219,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3228,7 +3240,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3240,14 +3252,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3261,7 +3273,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3273,14 +3285,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3290,11 +3302,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3306,7 +3318,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3327,7 +3339,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3412,7 +3424,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3610,7 +3622,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3643,7 +3655,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>182</v>
+        <v>23</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3653,11 +3665,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3669,14 +3681,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3686,11 +3698,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3702,14 +3714,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3719,14 +3731,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3742,7 +3754,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3752,14 +3764,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3768,7 +3780,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3785,7 +3797,7 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>195</v>
+        <v>33</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3808,7 +3820,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>198</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3818,14 +3830,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>199</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3841,7 +3853,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>201</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3851,7 +3863,7 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>201</v>
+        <v>69</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -3874,7 +3886,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3891,7 +3903,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3907,7 +3919,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3940,7 +3952,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3950,11 +3962,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>101</v>
+        <v>210</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>114</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3966,14 +3978,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3983,11 +3995,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>211</v>
+        <v>101</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>212</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4006,7 +4018,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4016,14 +4028,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4032,14 +4044,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4049,7 +4061,7 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -4072,7 +4084,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4082,14 +4094,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>219</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4105,13 +4117,13 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
@@ -4122,7 +4134,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4148,14 +4160,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>224</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4171,21 +4183,21 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4197,14 +4209,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4214,14 +4226,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>227</v>
+        <v>98</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4230,14 +4242,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4247,14 +4259,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>229</v>
+        <v>14</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>230</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4270,7 +4282,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4284,7 +4296,7 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4296,14 +4308,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>198</v>
+        <v>23</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4313,14 +4325,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4329,14 +4341,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4346,14 +4358,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>27</v>
+        <v>237</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>238</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4369,13 +4381,13 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
@@ -4402,7 +4414,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4412,14 +4424,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>243</v>
+        <v>27</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4428,31 +4440,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>182</v>
+        <v>23</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>246</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4468,7 +4480,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4485,7 +4497,7 @@
         <v>249</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4501,24 +4513,24 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>98</v>
+        <v>167</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>99</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>116</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4527,14 +4539,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4544,14 +4556,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4560,31 +4572,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>255</v>
+        <v>98</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>256</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4593,14 +4605,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4610,11 +4622,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4626,14 +4638,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4643,14 +4655,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>204</v>
+        <v>260</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>205</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4659,14 +4671,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4676,11 +4688,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>21</v>
@@ -4692,14 +4704,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4709,11 +4721,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>265</v>
+        <v>207</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>266</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4725,14 +4737,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4742,14 +4754,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4758,14 +4770,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4775,14 +4787,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4791,14 +4803,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>274</v>
+        <v>23</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4808,14 +4820,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4824,7 +4836,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4841,14 +4853,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4857,14 +4869,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>23</v>
+        <v>279</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4878,10 +4890,10 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>230</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4890,14 +4902,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4907,14 +4919,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>69</v>
+        <v>283</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>70</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4923,14 +4935,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>190</v>
+        <v>23</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4940,14 +4952,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>182</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4956,14 +4968,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4973,14 +4985,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>286</v>
+        <v>69</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>287</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>139</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4989,14 +5001,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>289</v>
+        <v>193</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5006,14 +5018,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>185</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5022,14 +5034,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>85</v>
+        <v>189</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5039,14 +5051,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>140</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5055,14 +5067,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>23</v>
+        <v>294</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5072,11 +5084,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>195</v>
+        <v>295</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>196</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5088,14 +5100,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5105,14 +5117,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5121,14 +5133,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5138,11 +5150,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>299</v>
+        <v>198</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>300</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5154,31 +5166,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>302</v>
+        <v>21</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>98</v>
+        <v>301</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>99</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5194,21 +5206,21 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>304</v>
+        <v>140</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>24</v>
+        <v>304</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5220,14 +5232,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5237,11 +5249,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5253,14 +5265,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>23</v>
+        <v>309</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5270,11 +5282,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5286,14 +5298,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5303,11 +5315,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>219</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5319,7 +5331,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5336,11 +5348,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>311</v>
+        <v>98</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>312</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5369,11 +5381,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>315</v>
+        <v>160</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>160</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5385,14 +5397,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>317</v>
+        <v>23</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5402,11 +5414,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>65</v>
+        <v>316</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>66</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5425,7 +5437,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>23</v>
+        <v>319</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5435,11 +5447,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>320</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5458,7 +5470,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5468,14 +5480,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>290</v>
+        <v>65</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>193</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>322</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5501,14 +5513,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>236</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>324</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5517,14 +5529,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>326</v>
+        <v>23</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5534,14 +5546,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>328</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>186</v>
+        <v>319</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5550,14 +5562,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5567,14 +5579,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>113</v>
+        <v>316</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>330</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>328</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5583,14 +5595,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5600,14 +5612,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>43</v>
+        <v>331</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>25</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>85</v>
+        <v>189</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5616,14 +5628,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5633,11 +5645,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>156</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5649,14 +5661,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>186</v>
+        <v>328</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5666,14 +5678,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5682,14 +5694,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5699,14 +5711,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>186</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5715,14 +5727,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>68</v>
+        <v>189</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5732,11 +5744,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5748,14 +5760,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5765,49 +5777,115 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>339</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>68</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>51</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>62</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>340</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>16</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>51</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>93</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
         <v>70</v>
       </c>
-      <c t="s" r="Q131" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="132" ht="25.5" customHeight="1">
-      <c r="P132" s="13">
-        <v>7058.085</v>
-      </c>
-      <c r="Q132" s="13"/>
-    </row>
-    <row r="133" ht="16.5" customHeight="1">
-      <c t="s" r="A133" s="14">
-        <v>337</v>
-      </c>
-      <c r="B133" s="14"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c t="s" r="G133" s="15">
-        <v>338</v>
-      </c>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
-      <c r="J133" s="16"/>
-      <c t="s" r="K133" s="17">
-        <v>339</v>
-      </c>
-      <c r="L133" s="17"/>
-      <c r="M133" s="17"/>
-      <c r="N133" s="17"/>
-      <c r="O133" s="17"/>
-      <c r="P133" s="17"/>
-      <c r="Q133" s="17"/>
+      <c t="s" r="Q133" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="P134" s="13">
+        <v>7198.085</v>
+      </c>
+      <c r="Q134" s="13"/>
+    </row>
+    <row r="135" ht="16.5" customHeight="1">
+      <c t="s" r="A135" s="14">
+        <v>341</v>
+      </c>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c t="s" r="G135" s="15">
+        <v>342</v>
+      </c>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="16"/>
+      <c t="s" r="K135" s="17">
+        <v>343</v>
+      </c>
+      <c r="L135" s="17"/>
+      <c r="M135" s="17"/>
+      <c r="N135" s="17"/>
+      <c r="O135" s="17"/>
+      <c r="P135" s="17"/>
+      <c r="Q135" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="637">
+  <mergeCells count="647">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6441,10 +6519,20 @@
     <mergeCell ref="H131:K131"/>
     <mergeCell ref="L131:M131"/>
     <mergeCell ref="N131:O131"/>
-    <mergeCell ref="P132:Q132"/>
-    <mergeCell ref="A133:F133"/>
-    <mergeCell ref="G133:I133"/>
-    <mergeCell ref="K133:Q133"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="P134:Q134"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="K135:Q135"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -575,6 +575,18 @@
     <t>52.5000</t>
   </si>
   <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>-60.0000</t>
+  </si>
+  <si>
+    <t>0:-4</t>
+  </si>
+  <si>
     <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
   </si>
   <si>
@@ -1034,7 +1046,7 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 11:04 PM</t>
+    <t>Wednesday, 20 August, 2025 11:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3731,14 +3743,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>190</v>
+        <v>62</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q69" s="12">
         <v>191</v>
-      </c>
-      <c t="s" r="Q69" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3764,14 +3776,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3780,14 +3792,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>23</v>
+        <v>197</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3797,14 +3809,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3813,7 +3825,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3830,11 +3842,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>198</v>
+        <v>33</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3846,14 +3858,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>201</v>
+        <v>23</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3863,14 +3875,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>69</v>
+        <v>202</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3879,14 +3891,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>205</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3896,11 +3908,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>204</v>
+        <v>69</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3912,14 +3924,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3929,14 +3941,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3945,14 +3957,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3962,11 +3974,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3978,14 +3990,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3995,11 +4007,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>101</v>
+        <v>214</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>114</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4011,14 +4023,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4028,11 +4040,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>214</v>
+        <v>101</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>215</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4044,14 +4056,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4061,14 +4073,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4077,14 +4089,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4094,14 +4106,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4110,14 +4122,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4127,14 +4139,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4143,14 +4155,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4160,14 +4172,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>160</v>
+        <v>225</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4176,28 +4188,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>226</v>
+        <v>160</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4209,31 +4221,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4242,14 +4254,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4259,14 +4271,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4275,14 +4287,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4292,14 +4304,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>232</v>
+        <v>14</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4308,14 +4320,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4325,11 +4337,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4341,14 +4353,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4358,11 +4370,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4374,14 +4386,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>201</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4391,14 +4403,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4407,14 +4419,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>85</v>
+        <v>205</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4424,11 +4436,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>27</v>
+        <v>244</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4440,28 +4452,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>245</v>
+        <v>27</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4473,31 +4485,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4506,14 +4518,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4523,14 +4535,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>167</v>
+        <v>252</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>116</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4539,14 +4551,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4556,14 +4568,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>253</v>
+        <v>167</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>116</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4572,7 +4584,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4585,15 +4597,15 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>98</v>
+        <v>257</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>99</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4605,31 +4617,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>257</v>
+        <v>98</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>258</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4638,14 +4650,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4655,11 +4667,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4671,7 +4683,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4688,11 +4700,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>21</v>
@@ -4704,14 +4716,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4721,14 +4733,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>208</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4737,14 +4749,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4754,14 +4766,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>267</v>
+        <v>211</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>268</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4770,14 +4782,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4787,14 +4799,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4803,7 +4815,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4820,11 +4832,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4836,14 +4848,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4853,14 +4865,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4869,14 +4881,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>279</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4909,7 +4921,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>283</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4919,14 +4931,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>217</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4935,14 +4947,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4952,11 +4964,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4968,14 +4980,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4985,14 +4997,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>69</v>
+        <v>289</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>70</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5001,14 +5013,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5018,14 +5030,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>288</v>
+        <v>69</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>289</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>185</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5034,14 +5046,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5051,14 +5063,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>140</v>
+        <v>185</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5067,14 +5079,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>294</v>
+        <v>193</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5091,7 +5103,7 @@
         <v>296</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>140</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5107,7 +5119,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>85</v>
+        <v>298</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5117,11 +5129,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5133,14 +5145,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5150,11 +5162,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>198</v>
+        <v>295</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>199</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5166,14 +5178,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5183,14 +5195,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5199,14 +5211,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5216,14 +5228,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5232,28 +5244,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>307</v>
+        <v>140</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>98</v>
+        <v>308</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>99</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5265,14 +5277,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5282,11 +5294,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5298,14 +5310,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5315,11 +5327,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5331,14 +5343,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>23</v>
+        <v>315</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5348,11 +5360,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5364,14 +5376,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>314</v>
+        <v>23</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5381,11 +5393,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>224</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5397,14 +5409,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>23</v>
+        <v>318</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5414,11 +5426,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>316</v>
+        <v>160</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>317</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5430,14 +5442,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>319</v>
+        <v>23</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5451,7 +5463,7 @@
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>161</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5463,14 +5475,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5480,11 +5492,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>65</v>
+        <v>324</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5496,14 +5508,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>23</v>
+        <v>326</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5513,11 +5525,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>324</v>
+        <v>65</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>325</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5529,7 +5541,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5546,14 +5558,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>104</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>319</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5562,7 +5574,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5579,14 +5591,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>241</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5595,14 +5607,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>330</v>
+        <v>23</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5612,14 +5624,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
+        <v>245</v>
+      </c>
+      <c t="s" r="Q126" s="12">
         <v>332</v>
-      </c>
-      <c t="s" r="Q126" s="12">
-        <v>189</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5635,7 +5647,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>16</v>
+        <v>334</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5645,14 +5657,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>113</v>
+        <v>335</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>193</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5661,14 +5673,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>328</v>
+        <v>16</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5678,14 +5690,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>25</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5694,14 +5706,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>55</v>
+        <v>332</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5715,10 +5727,10 @@
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5727,14 +5739,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>189</v>
+        <v>55</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5744,11 +5756,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5760,14 +5772,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5781,10 +5793,10 @@
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>189</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5793,14 +5805,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5810,14 +5822,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>16</v>
+        <v>193</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5826,14 +5838,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5843,49 +5855,82 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>344</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>16</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>51</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>93</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
         <v>70</v>
       </c>
-      <c t="s" r="Q133" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="134" ht="25.5" customHeight="1">
-      <c r="P134" s="13">
-        <v>7198.085</v>
-      </c>
-      <c r="Q134" s="13"/>
-    </row>
-    <row r="135" ht="16.5" customHeight="1">
-      <c t="s" r="A135" s="14">
-        <v>341</v>
-      </c>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c t="s" r="G135" s="15">
-        <v>342</v>
-      </c>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
-      <c r="J135" s="16"/>
-      <c t="s" r="K135" s="17">
-        <v>343</v>
-      </c>
-      <c r="L135" s="17"/>
-      <c r="M135" s="17"/>
-      <c r="N135" s="17"/>
-      <c r="O135" s="17"/>
-      <c r="P135" s="17"/>
-      <c r="Q135" s="17"/>
+      <c t="s" r="Q134" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="P135" s="13">
+        <v>7138.085</v>
+      </c>
+      <c r="Q135" s="13"/>
+    </row>
+    <row r="136" ht="16.5" customHeight="1">
+      <c t="s" r="A136" s="14">
+        <v>345</v>
+      </c>
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c t="s" r="G136" s="15">
+        <v>346</v>
+      </c>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="16"/>
+      <c t="s" r="K136" s="17">
+        <v>347</v>
+      </c>
+      <c r="L136" s="17"/>
+      <c r="M136" s="17"/>
+      <c r="N136" s="17"/>
+      <c r="O136" s="17"/>
+      <c r="P136" s="17"/>
+      <c r="Q136" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="647">
+  <mergeCells count="652">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6529,10 +6574,15 @@
     <mergeCell ref="H133:K133"/>
     <mergeCell ref="L133:M133"/>
     <mergeCell ref="N133:O133"/>
-    <mergeCell ref="P134:Q134"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="K135:Q135"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="K136:Q136"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -587,6 +587,15 @@
     <t>0:-4</t>
   </si>
   <si>
+    <t>INLETAIR 10MG 10 F.C.TAB</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
     <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
   </si>
   <si>
@@ -722,6 +731,12 @@
     <t>92.00</t>
   </si>
   <si>
+    <t>PHYTO K 10 MG 50 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>115.00</t>
+  </si>
+  <si>
     <t>PREGNACARE 30 F.C. TABS.</t>
   </si>
   <si>
@@ -1046,7 +1061,7 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 11:05 PM</t>
+    <t>Wednesday, 20 August, 2025 11:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3766,7 +3781,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3776,11 +3791,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3792,14 +3807,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3809,14 +3824,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>30</v>
+        <v>197</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3832,7 +3847,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3842,14 +3857,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3858,7 +3873,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3875,7 +3890,7 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>202</v>
+        <v>33</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -3898,7 +3913,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>205</v>
+        <v>23</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3908,14 +3923,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>69</v>
+        <v>205</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>206</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3931,7 +3946,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3941,7 +3956,7 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>208</v>
+        <v>69</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -3964,7 +3979,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3981,7 +3996,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3997,7 +4012,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4030,7 +4045,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4040,11 +4055,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>101</v>
+        <v>217</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>114</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4056,14 +4071,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4073,11 +4088,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>219</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4096,7 +4111,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4106,14 +4121,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4122,14 +4137,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4139,14 +4154,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4155,14 +4170,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4172,14 +4187,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4195,7 +4210,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4205,14 +4220,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>160</v>
+        <v>228</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4221,24 +4236,24 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4261,24 +4276,24 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>98</v>
+        <v>233</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4287,14 +4302,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4304,14 +4319,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>15</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4320,14 +4335,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4337,14 +4352,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>236</v>
+        <v>14</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>212</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4353,14 +4368,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4370,11 +4385,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4407,7 +4422,7 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4419,14 +4434,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>205</v>
+        <v>23</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4436,14 +4451,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4452,14 +4467,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4469,14 +4484,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>27</v>
+        <v>246</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>247</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4492,13 +4507,13 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>23</v>
+        <v>208</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
@@ -4525,7 +4540,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>197</v>
+        <v>85</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4535,14 +4550,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>252</v>
+        <v>27</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4551,31 +4566,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>185</v>
+        <v>23</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>167</v>
+        <v>254</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>255</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4591,7 +4606,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4608,7 +4623,7 @@
         <v>258</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4624,24 +4639,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>98</v>
+        <v>167</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>99</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4650,14 +4665,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4667,14 +4682,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4683,31 +4698,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>264</v>
+        <v>98</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>265</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4716,14 +4731,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4733,11 +4748,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4749,14 +4764,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4766,14 +4781,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>212</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4782,14 +4797,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4799,11 +4814,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4815,14 +4830,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4832,11 +4847,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>274</v>
+        <v>214</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4848,14 +4863,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4865,14 +4880,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4881,14 +4896,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4898,14 +4913,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4914,14 +4929,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>283</v>
+        <v>23</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4931,14 +4946,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4947,7 +4962,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4964,14 +4979,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>221</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4980,14 +4995,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>23</v>
+        <v>288</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5001,10 +5016,10 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>239</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5013,14 +5028,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5030,14 +5045,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>69</v>
+        <v>292</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>70</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5046,14 +5061,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>197</v>
+        <v>23</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5063,14 +5078,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>293</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>185</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5079,14 +5094,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5096,14 +5111,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>295</v>
+        <v>69</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>296</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>140</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5112,14 +5127,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>298</v>
+        <v>200</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5129,14 +5144,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>185</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5145,14 +5160,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>85</v>
+        <v>196</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5162,14 +5177,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>140</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5178,14 +5193,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>23</v>
+        <v>303</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5195,11 +5210,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>202</v>
+        <v>304</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>203</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5211,14 +5226,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5228,14 +5243,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5244,14 +5259,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5261,11 +5276,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>308</v>
+        <v>205</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>309</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5277,31 +5292,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>311</v>
+        <v>21</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>98</v>
+        <v>310</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>99</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5317,21 +5332,21 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>313</v>
+        <v>140</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>24</v>
+        <v>313</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>25</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5343,14 +5358,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5360,11 +5375,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5376,14 +5391,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>23</v>
+        <v>318</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5393,11 +5408,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5409,14 +5424,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5426,11 +5441,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>228</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5442,7 +5457,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5459,11 +5474,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>320</v>
+        <v>98</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>321</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5492,11 +5507,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>324</v>
+        <v>160</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>161</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5508,14 +5523,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>326</v>
+        <v>23</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5525,11 +5540,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>65</v>
+        <v>325</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>66</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5548,7 +5563,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>23</v>
+        <v>328</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5558,11 +5573,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>329</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5581,7 +5596,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>23</v>
+        <v>331</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5591,14 +5606,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>299</v>
+        <v>65</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>323</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5607,7 +5622,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5624,14 +5639,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>245</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>332</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5640,14 +5655,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>334</v>
+        <v>23</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5657,14 +5672,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>336</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>193</v>
+        <v>328</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5673,14 +5688,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5690,14 +5705,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>113</v>
+        <v>325</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>337</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5706,14 +5721,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5723,14 +5738,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>43</v>
+        <v>340</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>25</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>85</v>
+        <v>196</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5739,14 +5754,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5756,11 +5771,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>157</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5772,14 +5787,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>193</v>
+        <v>337</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5789,14 +5804,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5805,14 +5820,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5822,14 +5837,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>193</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5838,14 +5853,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>68</v>
+        <v>196</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5855,11 +5870,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -5871,14 +5886,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5888,49 +5903,115 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>348</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>68</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>51</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>62</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
+        <v>349</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>16</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>51</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>93</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
         <v>70</v>
       </c>
-      <c t="s" r="Q134" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="135" ht="24.75" customHeight="1">
-      <c r="P135" s="13">
-        <v>7138.085</v>
-      </c>
-      <c r="Q135" s="13"/>
-    </row>
-    <row r="136" ht="16.5" customHeight="1">
-      <c t="s" r="A136" s="14">
-        <v>345</v>
-      </c>
-      <c r="B136" s="14"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
-      <c t="s" r="G136" s="15">
-        <v>346</v>
-      </c>
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
-      <c r="J136" s="16"/>
-      <c t="s" r="K136" s="17">
-        <v>347</v>
-      </c>
-      <c r="L136" s="17"/>
-      <c r="M136" s="17"/>
-      <c r="N136" s="17"/>
-      <c r="O136" s="17"/>
-      <c r="P136" s="17"/>
-      <c r="Q136" s="17"/>
+      <c t="s" r="Q136" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="P137" s="13">
+        <v>7208.085</v>
+      </c>
+      <c r="Q137" s="13"/>
+    </row>
+    <row r="138" ht="16.5" customHeight="1">
+      <c t="s" r="A138" s="14">
+        <v>350</v>
+      </c>
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c t="s" r="G138" s="15">
+        <v>351</v>
+      </c>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="16"/>
+      <c t="s" r="K138" s="17">
+        <v>352</v>
+      </c>
+      <c r="L138" s="17"/>
+      <c r="M138" s="17"/>
+      <c r="N138" s="17"/>
+      <c r="O138" s="17"/>
+      <c r="P138" s="17"/>
+      <c r="Q138" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="652">
+  <mergeCells count="662">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6579,10 +6660,20 @@
     <mergeCell ref="H134:K134"/>
     <mergeCell ref="L134:M134"/>
     <mergeCell ref="N134:O134"/>
-    <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="G136:I136"/>
-    <mergeCell ref="K136:Q136"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="P137:Q137"/>
+    <mergeCell ref="A138:F138"/>
+    <mergeCell ref="G138:I138"/>
+    <mergeCell ref="K138:Q138"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -1061,7 +1061,7 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 11:10 PM</t>
+    <t>Wednesday, 20 August, 2025 11:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -116,6 +116,18 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
     <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -302,6 +314,18 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
     <t>COGINTOL 20 TAB.</t>
   </si>
   <si>
@@ -410,9 +434,6 @@
     <t>79.6800</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
   </si>
   <si>
@@ -599,9 +620,6 @@
     <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>45.00</t>
   </si>
   <si>
@@ -662,9 +680,6 @@
     <t>MR. BEAR PLUS SYRUP 160 ML</t>
   </si>
   <si>
-    <t>130.00</t>
-  </si>
-  <si>
     <t>130.0000</t>
   </si>
   <si>
@@ -833,6 +848,15 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>TETANUS ANTITOXIN 1500 I U 10 AMPOULES</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -863,15 +887,12 @@
     <t>122.0000</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
     <t>VERSERC 16MG 30 TAB</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
     <t>VIRECTA 100 MG 12 F.C.TABS.</t>
   </si>
   <si>
@@ -1019,6 +1040,12 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -1061,7 +1088,7 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 11:22 PM</t>
+    <t>Wednesday, 20 August, 2025 11:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1900,7 +1927,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1910,14 +1937,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1926,7 +1953,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1943,14 +1970,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1959,14 +1986,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -2038,18 +2065,18 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2058,31 +2085,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>57</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2098,7 +2125,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2108,11 +2135,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -2124,31 +2151,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2157,7 +2184,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -2170,15 +2197,15 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -2190,14 +2217,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2214,7 +2241,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2223,14 +2250,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2247,7 +2274,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2256,14 +2283,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2273,11 +2300,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2289,14 +2316,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2306,11 +2333,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2322,7 +2349,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2335,18 +2362,18 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2355,7 +2382,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2368,18 +2395,18 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2388,14 +2415,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2412,7 +2439,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2428,21 +2455,21 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2454,7 +2481,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2467,18 +2494,18 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2487,7 +2514,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2504,11 +2531,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2520,14 +2547,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2537,14 +2564,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2553,14 +2580,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2570,14 +2597,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2586,14 +2613,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2603,14 +2630,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2619,14 +2646,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2636,11 +2663,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2652,14 +2679,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2669,14 +2696,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2685,14 +2712,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2702,14 +2729,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2718,14 +2745,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2735,14 +2762,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2751,14 +2778,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2768,14 +2795,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2784,14 +2811,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2801,11 +2828,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
@@ -2817,14 +2844,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2834,14 +2861,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2850,14 +2877,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2867,14 +2894,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2883,14 +2910,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2900,14 +2927,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2916,14 +2943,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2933,14 +2960,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2949,14 +2976,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2966,14 +2993,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>133</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2982,14 +3009,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2999,14 +3026,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3015,14 +3042,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3032,14 +3059,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3048,14 +3075,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3065,11 +3092,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -3088,7 +3115,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3105,7 +3132,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3121,7 +3148,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3131,14 +3158,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3147,14 +3174,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3164,11 +3191,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3180,14 +3207,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3197,14 +3224,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3213,14 +3240,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3230,11 +3257,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3246,14 +3273,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3263,11 +3290,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3279,14 +3306,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3296,11 +3323,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3312,14 +3339,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3329,11 +3356,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3345,14 +3372,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3362,11 +3389,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3378,14 +3405,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3395,14 +3422,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3411,14 +3438,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3428,11 +3455,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3444,14 +3471,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3461,14 +3488,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3477,14 +3504,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3494,11 +3521,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3510,14 +3537,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3527,14 +3554,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>167</v>
+        <v>30</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3543,14 +3570,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3560,14 +3587,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3576,14 +3603,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3593,14 +3620,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3609,14 +3636,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3626,14 +3653,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3642,14 +3669,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3659,11 +3686,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3675,7 +3702,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3692,11 +3719,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3708,14 +3735,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>185</v>
+        <v>124</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3748,7 +3775,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>189</v>
+        <v>23</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3758,14 +3785,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>62</v>
+        <v>189</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>190</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>191</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3774,14 +3801,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3824,14 +3851,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>197</v>
+        <v>66</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q71" s="12">
         <v>198</v>
-      </c>
-      <c t="s" r="Q71" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3847,7 +3874,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3857,14 +3884,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>201</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3880,7 +3907,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3890,11 +3917,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3906,14 +3933,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>23</v>
+        <v>206</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3923,14 +3950,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>205</v>
+        <v>30</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3939,14 +3966,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3956,14 +3983,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3979,7 +4006,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3996,7 +4023,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4012,7 +4039,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4022,14 +4049,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>215</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4045,7 +4072,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4062,7 +4089,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4078,7 +4105,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4088,11 +4115,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>101</v>
+        <v>220</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>114</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4104,7 +4131,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4121,11 +4148,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>221</v>
+        <v>103</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4137,14 +4164,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4154,14 +4181,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>205</v>
+        <v>109</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>224</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4187,14 +4214,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>179</v>
+        <v>226</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4203,14 +4230,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4220,7 +4247,7 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
@@ -4243,7 +4270,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4253,14 +4280,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>231</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4276,13 +4303,13 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
@@ -4293,7 +4320,7 @@
         <v>234</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4319,14 +4346,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>98</v>
+        <v>167</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>236</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4342,21 +4369,21 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>15</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4368,14 +4395,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4385,14 +4412,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>239</v>
+        <v>106</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4401,14 +4428,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4418,14 +4445,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>241</v>
+        <v>14</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>215</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4434,14 +4461,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4451,11 +4478,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4488,7 +4515,7 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4500,14 +4527,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4517,14 +4544,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4533,14 +4560,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4550,14 +4577,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>27</v>
+        <v>251</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>252</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4573,13 +4600,13 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>23</v>
+        <v>214</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4606,7 +4633,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4616,14 +4643,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>257</v>
+        <v>27</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4632,31 +4659,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>185</v>
+        <v>23</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>167</v>
+        <v>259</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>260</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4672,7 +4699,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>23</v>
+        <v>206</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4689,7 +4716,7 @@
         <v>263</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4705,24 +4732,24 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>98</v>
+        <v>174</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>99</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4731,14 +4758,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4748,14 +4775,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4764,31 +4791,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>269</v>
+        <v>106</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>270</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4797,14 +4824,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4814,11 +4841,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4830,14 +4857,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4847,14 +4874,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>214</v>
+        <v>274</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4863,14 +4890,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4880,11 +4907,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4896,14 +4923,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4913,14 +4940,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4929,14 +4956,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4946,11 +4973,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>282</v>
+        <v>220</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>283</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4962,7 +4989,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4979,11 +5006,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>21</v>
@@ -4995,14 +5022,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>288</v>
+        <v>23</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5012,14 +5039,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5028,14 +5055,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5045,11 +5072,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>224</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5061,14 +5088,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5078,14 +5105,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>294</v>
+        <v>43</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>244</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5094,14 +5121,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5111,11 +5138,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>21</v>
@@ -5127,14 +5154,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>200</v>
+        <v>295</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5144,14 +5171,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>185</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5160,14 +5187,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>196</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5177,14 +5204,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>301</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>140</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5193,14 +5220,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>303</v>
+        <v>23</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5210,11 +5237,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>305</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5226,14 +5253,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5243,14 +5270,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>300</v>
+        <v>73</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>307</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5259,14 +5286,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>23</v>
+        <v>206</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5276,14 +5303,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>205</v>
+        <v>304</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>206</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>192</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5292,14 +5319,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5309,14 +5336,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>21</v>
+        <v>147</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5325,14 +5352,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>140</v>
+        <v>310</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5342,11 +5369,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5358,28 +5385,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>316</v>
+        <v>89</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>98</v>
+        <v>307</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>99</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5391,28 +5418,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>318</v>
+        <v>23</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>24</v>
+        <v>211</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>25</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5424,31 +5451,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>320</v>
+        <v>21</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>14</v>
+        <v>317</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>15</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5457,28 +5484,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>98</v>
+        <v>320</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>99</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5503,15 +5530,15 @@
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>231</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5530,21 +5557,21 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>23</v>
+        <v>325</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>325</v>
+        <v>24</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>326</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5556,28 +5583,28 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>329</v>
+        <v>14</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5589,28 +5616,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>331</v>
+        <v>23</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5622,28 +5649,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>23</v>
+        <v>330</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>333</v>
+        <v>167</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>334</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5655,7 +5682,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5668,18 +5695,18 @@
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>104</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>328</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5688,31 +5715,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>23</v>
+        <v>335</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>250</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>337</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5721,31 +5748,31 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>340</v>
+        <v>69</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>341</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>196</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5754,28 +5781,28 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>113</v>
+        <v>340</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5787,31 +5814,31 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>43</v>
+        <v>311</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>25</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>85</v>
+        <v>344</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5827,24 +5854,24 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>43</v>
+        <v>332</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>157</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>16</v>
+        <v>346</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5853,31 +5880,31 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>196</v>
+        <v>348</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>14</v>
+        <v>349</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>15</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5886,31 +5913,31 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>198</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>196</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5919,31 +5946,31 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>68</v>
+        <v>346</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -5952,66 +5979,198 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
       <c t="s" r="L136" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
-      <c r="P137" s="13">
-        <v>7208.085</v>
-      </c>
-      <c r="Q137" s="13"/>
-    </row>
-    <row r="138" ht="16.5" customHeight="1">
-      <c t="s" r="A138" s="14">
-        <v>350</v>
-      </c>
-      <c r="B138" s="14"/>
-      <c r="C138" s="14"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
-      <c t="s" r="G138" s="15">
-        <v>351</v>
-      </c>
-      <c r="H138" s="15"/>
-      <c r="I138" s="15"/>
-      <c r="J138" s="16"/>
-      <c t="s" r="K138" s="17">
-        <v>352</v>
-      </c>
-      <c r="L138" s="17"/>
-      <c r="M138" s="17"/>
-      <c r="N138" s="17"/>
-      <c r="O138" s="17"/>
-      <c r="P138" s="17"/>
-      <c r="Q138" s="17"/>
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
+        <v>355</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>36</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>55</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>14</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
+        <v>356</v>
+      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>23</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>55</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>14</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
+        <v>357</v>
+      </c>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>72</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>55</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
+        <v>66</v>
+      </c>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q139" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c t="s" r="C140" s="8">
+        <v>358</v>
+      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
+        <v>16</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c t="s" r="L140" s="10">
+        <v>55</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c t="s" r="N140" s="8">
+        <v>97</v>
+      </c>
+      <c r="O140" s="8"/>
+      <c t="s" r="P140" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="P141" s="13">
+        <v>7409.6949999999997</v>
+      </c>
+      <c r="Q141" s="13"/>
+    </row>
+    <row r="142" ht="16.5" customHeight="1">
+      <c t="s" r="A142" s="14">
+        <v>359</v>
+      </c>
+      <c r="B142" s="14"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
+      <c t="s" r="G142" s="15">
+        <v>360</v>
+      </c>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="16"/>
+      <c t="s" r="K142" s="17">
+        <v>361</v>
+      </c>
+      <c r="L142" s="17"/>
+      <c r="M142" s="17"/>
+      <c r="N142" s="17"/>
+      <c r="O142" s="17"/>
+      <c r="P142" s="17"/>
+      <c r="Q142" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="662">
+  <mergeCells count="682">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6670,10 +6829,30 @@
     <mergeCell ref="H136:K136"/>
     <mergeCell ref="L136:M136"/>
     <mergeCell ref="N136:O136"/>
-    <mergeCell ref="P137:Q137"/>
-    <mergeCell ref="A138:F138"/>
-    <mergeCell ref="G138:I138"/>
-    <mergeCell ref="K138:Q138"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="P141:Q141"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="G142:I142"/>
+    <mergeCell ref="K142:Q142"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -1088,7 +1088,7 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 11:23 PM</t>
+    <t>Wednesday, 20 August, 2025 11:31 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-20_00-00.xlsx
+++ b/DaySale_2025-08-20_00-00.xlsx
@@ -380,45 +380,51 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>DIMICAP FACIAL WASH 250 ML</t>
+  </si>
+  <si>
+    <t>194.00</t>
+  </si>
+  <si>
+    <t>194.0000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>DIMICAP FACIAL WASH 250 ML</t>
-  </si>
-  <si>
-    <t>194.00</t>
-  </si>
-  <si>
-    <t>194.0000</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>DOGMATIL 50MG 30 CAPS.</t>
-  </si>
-  <si>
     <t>63.00</t>
   </si>
   <si>
@@ -641,6 +647,9 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
     <t>LEVOTAVIN 750 MG 7 F.C.TABS.</t>
   </si>
   <si>
@@ -926,7 +935,7 @@
     <t>51.00</t>
   </si>
   <si>
-    <t>100.9800</t>
+    <t>117.8100</t>
   </si>
   <si>
     <t>VOTRIAXONE 1 GM I.M VIAL</t>
@@ -1088,7 +1097,7 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>Wednesday, 20 August, 2025 11:31 PM</t>
+    <t>Wednesday, 20 August, 2025 11:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2884,7 +2893,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2894,14 +2903,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2910,14 +2919,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2927,14 +2936,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2943,14 +2952,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2960,14 +2969,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r=